--- a/Expense_Tracker.xlsx
+++ b/Expense_Tracker.xlsx
@@ -7,18 +7,27 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DataSetup" sheetId="1" r:id="rId1"/>
-    <sheet name="ExpenseEntry" sheetId="2" r:id="rId2"/>
+    <sheet name="Settings" sheetId="3" r:id="rId1"/>
+    <sheet name="Budget Planning" sheetId="4" r:id="rId2"/>
+    <sheet name="Budget Tracking" sheetId="5" r:id="rId3"/>
+    <sheet name="Budget Dashboard" sheetId="6" r:id="rId4"/>
+    <sheet name="Calculations" sheetId="2" r:id="rId5"/>
+    <sheet name="Dropdown Data" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataSetup!$B$1:$O$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Dropdown Data'!$B$1:$O$9</definedName>
+    <definedName name="income_header_row">ROW(income[[#Headers],[Income]])</definedName>
+    <definedName name="income_max_row">MAX(INDEX((income[]&lt;&gt; "")*ROW(income[]),0))</definedName>
+    <definedName name="income_min_row">MIN(INDEX((income[]&lt;&gt; "")*ROW(income[]),0))</definedName>
+    <definedName name="income_total_row">ROW('Budget Planning'!$C$14)</definedName>
+    <definedName name="starting_year">Settings!$E$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>CATEGORIES</t>
   </si>
@@ -225,16 +234,39 @@
   </si>
   <si>
     <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>Starting Year:</t>
+  </si>
+  <si>
+    <t>BUDGET PLANNING</t>
+  </si>
+  <si>
+    <t>Set the starting year (yyyy) at the beginning and do not change it.</t>
+  </si>
+  <si>
+    <t>Define starting year in settings sheet --&gt;</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-14009]d\ mmmm\ yyyy;@"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="[$-14009]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="mmm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,16 +283,110 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -268,22 +394,349 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8AEABF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00CC99"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF25C198"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="Income Table Style" pivot="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF8AEABF"/>
+      <color rgb="FF66FF99"/>
+      <color rgb="FF99FF66"/>
+      <color rgb="FF00CC99"/>
+      <color rgb="FF25C198"/>
+      <color rgb="FF59C763"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -293,6 +746,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="income" displayName="income" ref="C9:C13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8">
+  <autoFilter ref="C9:C13">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Income" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="Income Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,10 +1047,943 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="2" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" customWidth="1"/>
+    <col min="7" max="7" width="59.140625" customWidth="1"/>
+    <col min="8" max="8" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2022</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" customWidth="1"/>
+    <col min="5" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="15">
+        <f>starting_year</f>
+        <v>2022</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="21">
+        <f>DATE(E$5,1,1)</f>
+        <v>44562</v>
+      </c>
+      <c r="F9" s="21">
+        <f>DATE(E$5,2,1)</f>
+        <v>44593</v>
+      </c>
+      <c r="G9" s="21">
+        <f>DATE(E$5,3,1)</f>
+        <v>44621</v>
+      </c>
+      <c r="H9" s="21">
+        <f>DATE(E$5,4,1)</f>
+        <v>44652</v>
+      </c>
+      <c r="I9" s="21">
+        <f>DATE(E$5,5,1)</f>
+        <v>44682</v>
+      </c>
+      <c r="J9" s="21">
+        <f>DATE(E$5,6,1)</f>
+        <v>44713</v>
+      </c>
+      <c r="K9" s="21">
+        <f>DATE(E$5,7,1)</f>
+        <v>44743</v>
+      </c>
+      <c r="L9" s="21">
+        <f>DATE(E$5,8,1)</f>
+        <v>44774</v>
+      </c>
+      <c r="M9" s="21">
+        <f>DATE(E$5,9,1)</f>
+        <v>44805</v>
+      </c>
+      <c r="N9" s="21">
+        <f>DATE(E$5,10,1)</f>
+        <v>44835</v>
+      </c>
+      <c r="O9" s="21">
+        <f>DATE(E$5,11,1)</f>
+        <v>44866</v>
+      </c>
+      <c r="P9" s="21">
+        <f>DATE(E$5,12,1)</f>
+        <v>44896</v>
+      </c>
+      <c r="Q9" s="22">
+        <f>E$5</f>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="24">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25">
+        <f>SUM(E10:P10)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24">
+        <v>200</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25">
+        <f t="shared" ref="Q11:Q14" si="0">SUM(E11:P11)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24">
+        <v>-7</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="25" t="str">
+        <f>ADDRESS(income_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(income_max_row,COLUMN())</f>
+        <v>$E$10:$E$13</v>
+      </c>
+      <c r="F14" s="25" t="str">
+        <f>ADDRESS(income_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(income_max_row,COLUMN())</f>
+        <v>$F$10:$F$13</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f ca="1">INDIRECT("A1")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:Q5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C10:C13 E10:Q14">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>ROW(A10) &lt;= income_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="date" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alert!" error="Please enter a date from 01/01/2023 onwards." sqref="A2:A1048576">
+      <formula1>44927</formula1>
+      <formula2>2958465</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alert!" error="Invalid category selected. Please enter valid value.">
+          <x14:formula1>
+            <xm:f>'Dropdown Data'!$B$1:$O$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,62 +2230,4 @@
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="date" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alert!" error="Please enter a date from 01/01/2023 onwards." sqref="A2:A1048576">
-      <formula1>44927</formula1>
-      <formula2>2958465</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alert!" error="Invalid category selected. Please enter valid value.">
-          <x14:formula1>
-            <xm:f>DataSetup!$B$1:$O$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Expense_Tracker.xlsx
+++ b/Expense_Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Dropdown Data'!$B$1:$O$9</definedName>
-    <definedName name="enpenses_header_row">ROW(expenses[[#Headers],[Expenses]])</definedName>
+    <definedName name="expenses_header_row">ROW(expenses[[#Headers],[Expenses]])</definedName>
     <definedName name="expenses_max_row">MAX(INDEX((expenses[]&lt;&gt; "")*ROW(expenses[]),0))</definedName>
     <definedName name="expenses_min_row">MIN(INDEX((expenses[]&lt;&gt; "")*ROW(expenses[]),0))</definedName>
     <definedName name="expenses_total_row">ROW('Budget Planning'!$C$39)</definedName>
@@ -28,6 +28,8 @@
     <definedName name="savings_max_row">MAX(INDEX((savings[]&lt;&gt; "")*ROW(savings[]),0))</definedName>
     <definedName name="savings_min_row">MIN(INDEX((savings[]&lt;&gt; "")*ROW(savings[]),0))</definedName>
     <definedName name="savings_total_row">ROW('Budget Planning'!$C$55)</definedName>
+    <definedName name="shift_late_income_starting_day">Settings!$E$16</definedName>
+    <definedName name="shift_late_income_status">Settings!$E$14</definedName>
     <definedName name="starting_year">Settings!$E$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>CATEGORIES</t>
   </si>
@@ -247,9 +249,6 @@
     <t>SETTINGS</t>
   </si>
   <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
     <t>Starting Year:</t>
   </si>
   <si>
@@ -291,17 +290,66 @@
   <si>
     <t>Define starting year in settings sheet →</t>
   </si>
+  <si>
+    <t>BUDGET TRACKING</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Home loan EMI</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Budget Tracking &amp; Dashboard</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Late Monthly Income</t>
+  </si>
+  <si>
+    <t>Shift Late Income</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Starting on day x in month:</t>
+  </si>
+  <si>
+    <t>Activate this option to treate late income received on or after a certain day of the month as income for the next month. This is expecially recommended in case you receive your monthly paycheck towards the end of the month and prefer to consider this income as the disposable income for the next month.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$-14009]d\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="mmm"/>
+    <numFmt numFmtId="166" formatCode="d/mmm/yy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,8 +487,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,8 +554,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -578,12 +661,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -654,8 +786,44 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -665,139 +833,148 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="39">
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="166" formatCode="d/mmm/yy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCEFF4"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE9FA"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAFAE6"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="166" formatCode="d/mmm/yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
+      <numFmt numFmtId="168" formatCode="\→\ d/mmm/yy"/>
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF249024"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCEFF4"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color rgb="FFFF1515"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE9FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAFAE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCEFF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE9FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAFAE6"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -915,12 +1092,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -957,6 +1134,107 @@
           <bgColor rgb="FFEAFAE6"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1066,22 +1344,34 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+  <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Enpenses Table Style" pivot="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
+    </tableStyle>
+    <tableStyle name="Income Table Style" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
     </tableStyle>
-    <tableStyle name="Income Table Style" pivot="0" count="2">
+    <tableStyle name="savings table style" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="34"/>
       <tableStyleElement type="headerRow" dxfId="33"/>
     </tableStyle>
-    <tableStyle name="savings table style" pivot="0" count="2">
+    <tableStyle name="Tracking table style" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="totalRow" dxfId="30"/>
+      <tableStyleElement type="firstColumn" dxfId="29"/>
+      <tableStyleElement type="lastColumn" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF249024"/>
+      <color rgb="FFFF1515"/>
+      <color rgb="FF2AA62A"/>
       <color rgb="FF33CC33"/>
       <color rgb="FFFBE9FA"/>
       <color rgb="FFEAFAE6"/>
@@ -1089,9 +1379,6 @@
       <color rgb="FFB9EDAB"/>
       <color rgb="FF99FF99"/>
       <color rgb="FF2C76BA"/>
-      <color rgb="FF0429E2"/>
-      <color rgb="FFF7D7F5"/>
-      <color rgb="FFDE08D4"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1106,38 +1393,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="income" displayName="income" ref="C9:C13" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="income" displayName="income" ref="C9:C13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="C9:C13">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="Income" dataDxfId="22"/>
+    <tableColumn id="1" name="Income" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="Income Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="expenses" displayName="expenses" ref="C21:C33" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="expenses" displayName="expenses" ref="C21:C33" dataDxfId="15">
   <autoFilter ref="C21:C33">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="Expenses" totalsRowFunction="count" dataDxfId="20"/>
+    <tableColumn id="1" name="Expenses" totalsRowFunction="count" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="Enpenses Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="savings" displayName="savings" ref="C41:C49" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="savings" displayName="savings" ref="C41:C49" dataDxfId="13">
   <autoFilter ref="C41:C49">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="Savings" totalsRowFunction="count" dataDxfId="18"/>
+    <tableColumn id="1" name="Savings" totalsRowFunction="count" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="savings table style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="D8:J11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="D8:J11"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" name="Type" dataDxfId="5"/>
+    <tableColumn id="3" name="Category" dataDxfId="4"/>
+    <tableColumn id="4" name="Amount" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="Details" dataDxfId="2"/>
+    <tableColumn id="6" name="Balance" dataDxfId="1" dataCellStyle="Comma">
+      <calculatedColumnFormula>SUMPRODUCT(Table4[Amount], (Table4[Date] &lt;=Table4[[#This Row],[Date]])*1, (Table4[Type]&lt;&gt;"Income")*(-1) + (Table4[Type]="Income"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Effective Date" dataDxfId="0">
+      <calculatedColumnFormula>IF(AND(Table4[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(Table4[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(Table4[[#This Row],[Date]]), MONTH(Table4[[#This Row],[Date]])+1, 1),
+ Table4[[#This Row],[Date]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Tracking table style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1428,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,13 +1748,14 @@
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="1.5703125" customWidth="1"/>
-    <col min="7" max="7" width="59.140625" customWidth="1"/>
+    <col min="7" max="7" width="85.85546875" customWidth="1"/>
     <col min="8" max="8" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1453,7 +1763,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1475,14 +1785,14 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="C5" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1517,14 +1827,14 @@
       <c r="B7" s="3"/>
       <c r="C7" s="6"/>
       <c r="D7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="13">
         <v>2023</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="3"/>
@@ -1576,14 +1886,16 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="C10" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1597,12 +1909,12 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1614,14 +1926,16 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="43" t="s">
+        <v>95</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1635,12 +1949,12 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1654,12 +1968,18 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1671,14 +1991,14 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1692,12 +2012,16 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="13">
+        <v>20</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1711,12 +2035,12 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1730,12 +2054,12 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1749,12 +2073,12 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1768,12 +2092,12 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1787,12 +2111,12 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1806,12 +2130,12 @@
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1825,12 +2149,12 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1844,12 +2168,12 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1994,10 +2318,60 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="G14:G16"/>
   </mergeCells>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="25" priority="1">
+      <formula>shift_late_income_status="Inactive"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please select a valid value from the dropdown." sqref="E14">
+      <formula1>"Active, Inactive"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2007,11 +2381,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2019,25 +2393,32 @@
     <col min="1" max="2" width="2.5703125" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" customWidth="1"/>
     <col min="4" max="4" width="1.5703125" customWidth="1"/>
-    <col min="5" max="9" width="10.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="16" width="10.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="10" width="14.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="16" width="13.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="1.28515625" customWidth="1"/>
-    <col min="19" max="23" width="10.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="13.140625" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="30" width="10.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="10.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="13.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="30" width="10.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="1.28515625" customWidth="1"/>
-    <col min="33" max="37" width="10.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="13.140625" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="44" width="10.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="37" width="10.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="13.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="44" width="10.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="46" max="46" width="1.28515625" customWidth="1"/>
-    <col min="47" max="51" width="10.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="13.140625" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="58" width="10.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="51" width="10.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="13.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="58" width="10.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="60" max="60" width="1.28515625" customWidth="1"/>
     <col min="61" max="65" width="10.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="66" max="66" width="13.140625" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2076,174 +2457,174 @@
     </row>
     <row r="2" spans="1:143" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:143" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:143" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="37">
+        <v>83</v>
+      </c>
+      <c r="E5" s="53">
         <f>starting_year</f>
         <v>2023</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="S5" s="37">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="S5" s="53">
         <f>E5+1</f>
         <v>2024</v>
       </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AG5" s="37">
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AG5" s="53">
         <f t="shared" ref="AG5" si="0">S5+1</f>
         <v>2025</v>
       </c>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AU5" s="37">
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AU5" s="53">
         <f t="shared" ref="AU5" si="1">AG5+1</f>
         <v>2026</v>
       </c>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BI5" s="37">
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53"/>
+      <c r="BI5" s="53">
         <f t="shared" ref="BI5" si="2">AU5+1</f>
         <v>2027</v>
       </c>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="37"/>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="37"/>
-      <c r="BU5" s="37"/>
-      <c r="BW5" s="37">
+      <c r="BJ5" s="53"/>
+      <c r="BK5" s="53"/>
+      <c r="BL5" s="53"/>
+      <c r="BM5" s="53"/>
+      <c r="BN5" s="53"/>
+      <c r="BO5" s="53"/>
+      <c r="BP5" s="53"/>
+      <c r="BQ5" s="53"/>
+      <c r="BR5" s="53"/>
+      <c r="BS5" s="53"/>
+      <c r="BT5" s="53"/>
+      <c r="BU5" s="53"/>
+      <c r="BW5" s="53">
         <f t="shared" ref="BW5" si="3">BI5+1</f>
         <v>2028</v>
       </c>
-      <c r="BX5" s="37"/>
-      <c r="BY5" s="37"/>
-      <c r="BZ5" s="37"/>
-      <c r="CA5" s="37"/>
-      <c r="CB5" s="37"/>
-      <c r="CC5" s="37"/>
-      <c r="CD5" s="37"/>
-      <c r="CE5" s="37"/>
-      <c r="CF5" s="37"/>
-      <c r="CG5" s="37"/>
-      <c r="CH5" s="37"/>
-      <c r="CI5" s="37"/>
-      <c r="CK5" s="37">
+      <c r="BX5" s="53"/>
+      <c r="BY5" s="53"/>
+      <c r="BZ5" s="53"/>
+      <c r="CA5" s="53"/>
+      <c r="CB5" s="53"/>
+      <c r="CC5" s="53"/>
+      <c r="CD5" s="53"/>
+      <c r="CE5" s="53"/>
+      <c r="CF5" s="53"/>
+      <c r="CG5" s="53"/>
+      <c r="CH5" s="53"/>
+      <c r="CI5" s="53"/>
+      <c r="CK5" s="53">
         <f t="shared" ref="CK5" si="4">BW5+1</f>
         <v>2029</v>
       </c>
-      <c r="CL5" s="37"/>
-      <c r="CM5" s="37"/>
-      <c r="CN5" s="37"/>
-      <c r="CO5" s="37"/>
-      <c r="CP5" s="37"/>
-      <c r="CQ5" s="37"/>
-      <c r="CR5" s="37"/>
-      <c r="CS5" s="37"/>
-      <c r="CT5" s="37"/>
-      <c r="CU5" s="37"/>
-      <c r="CV5" s="37"/>
-      <c r="CW5" s="37"/>
-      <c r="CY5" s="37">
+      <c r="CL5" s="53"/>
+      <c r="CM5" s="53"/>
+      <c r="CN5" s="53"/>
+      <c r="CO5" s="53"/>
+      <c r="CP5" s="53"/>
+      <c r="CQ5" s="53"/>
+      <c r="CR5" s="53"/>
+      <c r="CS5" s="53"/>
+      <c r="CT5" s="53"/>
+      <c r="CU5" s="53"/>
+      <c r="CV5" s="53"/>
+      <c r="CW5" s="53"/>
+      <c r="CY5" s="53">
         <f t="shared" ref="CY5" si="5">CK5+1</f>
         <v>2030</v>
       </c>
-      <c r="CZ5" s="37"/>
-      <c r="DA5" s="37"/>
-      <c r="DB5" s="37"/>
-      <c r="DC5" s="37"/>
-      <c r="DD5" s="37"/>
-      <c r="DE5" s="37"/>
-      <c r="DF5" s="37"/>
-      <c r="DG5" s="37"/>
-      <c r="DH5" s="37"/>
-      <c r="DI5" s="37"/>
-      <c r="DJ5" s="37"/>
-      <c r="DK5" s="37"/>
-      <c r="DM5" s="37">
+      <c r="CZ5" s="53"/>
+      <c r="DA5" s="53"/>
+      <c r="DB5" s="53"/>
+      <c r="DC5" s="53"/>
+      <c r="DD5" s="53"/>
+      <c r="DE5" s="53"/>
+      <c r="DF5" s="53"/>
+      <c r="DG5" s="53"/>
+      <c r="DH5" s="53"/>
+      <c r="DI5" s="53"/>
+      <c r="DJ5" s="53"/>
+      <c r="DK5" s="53"/>
+      <c r="DM5" s="53">
         <f t="shared" ref="DM5" si="6">CY5+1</f>
         <v>2031</v>
       </c>
-      <c r="DN5" s="37"/>
-      <c r="DO5" s="37"/>
-      <c r="DP5" s="37"/>
-      <c r="DQ5" s="37"/>
-      <c r="DR5" s="37"/>
-      <c r="DS5" s="37"/>
-      <c r="DT5" s="37"/>
-      <c r="DU5" s="37"/>
-      <c r="DV5" s="37"/>
-      <c r="DW5" s="37"/>
-      <c r="DX5" s="37"/>
-      <c r="DY5" s="37"/>
-      <c r="EA5" s="37">
+      <c r="DN5" s="53"/>
+      <c r="DO5" s="53"/>
+      <c r="DP5" s="53"/>
+      <c r="DQ5" s="53"/>
+      <c r="DR5" s="53"/>
+      <c r="DS5" s="53"/>
+      <c r="DT5" s="53"/>
+      <c r="DU5" s="53"/>
+      <c r="DV5" s="53"/>
+      <c r="DW5" s="53"/>
+      <c r="DX5" s="53"/>
+      <c r="DY5" s="53"/>
+      <c r="EA5" s="53">
         <f t="shared" ref="EA5" si="7">DM5+1</f>
         <v>2032</v>
       </c>
-      <c r="EB5" s="37"/>
-      <c r="EC5" s="37"/>
-      <c r="ED5" s="37"/>
-      <c r="EE5" s="37"/>
-      <c r="EF5" s="37"/>
-      <c r="EG5" s="37"/>
-      <c r="EH5" s="37"/>
-      <c r="EI5" s="37"/>
-      <c r="EJ5" s="37"/>
-      <c r="EK5" s="37"/>
-      <c r="EL5" s="37"/>
-      <c r="EM5" s="37"/>
+      <c r="EB5" s="53"/>
+      <c r="EC5" s="53"/>
+      <c r="ED5" s="53"/>
+      <c r="EE5" s="53"/>
+      <c r="EF5" s="53"/>
+      <c r="EG5" s="53"/>
+      <c r="EH5" s="53"/>
+      <c r="EI5" s="53"/>
+      <c r="EJ5" s="53"/>
+      <c r="EK5" s="53"/>
+      <c r="EL5" s="53"/>
+      <c r="EM5" s="53"/>
     </row>
     <row r="6" spans="1:143" x14ac:dyDescent="0.25">
       <c r="E6" s="35" t="str">
@@ -2769,7 +3150,7 @@
     </row>
     <row r="7" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C7" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="33">
         <f ca="1">E19-(E39+E55)</f>
@@ -2876,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="33">
-        <f t="shared" ref="AG7:BL7" ca="1" si="114">AG19-(AG39+AG55)</f>
+        <f t="shared" ref="AG7:AS7" ca="1" si="114">AG19-(AG39+AG55)</f>
         <v>0</v>
       </c>
       <c r="AH7" s="33">
@@ -2928,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="33">
-        <f t="shared" ref="AU7:BZ7" ca="1" si="115">AU19-(AU39+AU55)</f>
+        <f t="shared" ref="AU7:BG7" ca="1" si="115">AU19-(AU39+AU55)</f>
         <v>0</v>
       </c>
       <c r="AV7" s="33">
@@ -2980,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="33">
-        <f t="shared" ref="BI7:CN7" ca="1" si="116">BI19-(BI39+BI55)</f>
+        <f t="shared" ref="BI7:BU7" ca="1" si="116">BI19-(BI39+BI55)</f>
         <v>0</v>
       </c>
       <c r="BJ7" s="33">
@@ -3032,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="BW7" s="33">
-        <f t="shared" ref="BW7:DB7" ca="1" si="117">BW19-(BW39+BW55)</f>
+        <f t="shared" ref="BW7:CI7" ca="1" si="117">BW19-(BW39+BW55)</f>
         <v>0</v>
       </c>
       <c r="BX7" s="33">
@@ -3084,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="CK7" s="33">
-        <f t="shared" ref="CK7:DZ7" ca="1" si="118">CK19-(CK39+CK55)</f>
+        <f t="shared" ref="CK7:CW7" ca="1" si="118">CK19-(CK39+CK55)</f>
         <v>0</v>
       </c>
       <c r="CL7" s="33">
@@ -3136,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="CY7" s="33">
-        <f t="shared" ref="CY7:DZ7" ca="1" si="119">CY19-(CY39+CY55)</f>
+        <f t="shared" ref="CY7:DK7" ca="1" si="119">CY19-(CY39+CY55)</f>
         <v>0</v>
       </c>
       <c r="CZ7" s="33">
@@ -3188,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="DM7" s="33">
-        <f t="shared" ref="DM7:DZ7" ca="1" si="120">DM19-(DM39+DM55)</f>
+        <f t="shared" ref="DM7:DY7" ca="1" si="120">DM19-(DM39+DM55)</f>
         <v>0</v>
       </c>
       <c r="DN7" s="33">
@@ -3240,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="EA7" s="33">
-        <f t="shared" ref="EA7:EN7" ca="1" si="121">EA19-(EA39+EA55)</f>
+        <f t="shared" ref="EA7:EM7" ca="1" si="121">EA19-(EA39+EA55)</f>
         <v>0</v>
       </c>
       <c r="EB7" s="33">
@@ -3401,11 +3782,11 @@
         <v>2024</v>
       </c>
       <c r="AG9" s="18">
-        <f t="shared" ref="AG9:BL9" si="122">DATE(AG$5,1,1)</f>
+        <f t="shared" ref="AG9" si="122">DATE(AG$5,1,1)</f>
         <v>45658</v>
       </c>
       <c r="AH9" s="18">
-        <f t="shared" ref="AH9:BM9" si="123">DATE(AG$5,2,1)</f>
+        <f t="shared" ref="AH9" si="123">DATE(AG$5,2,1)</f>
         <v>45689</v>
       </c>
       <c r="AI9" s="18">
@@ -3453,11 +3834,11 @@
         <v>2025</v>
       </c>
       <c r="AU9" s="18">
-        <f t="shared" ref="AU9:BZ9" si="135">DATE(AU$5,1,1)</f>
+        <f t="shared" ref="AU9" si="135">DATE(AU$5,1,1)</f>
         <v>46023</v>
       </c>
       <c r="AV9" s="18">
-        <f t="shared" ref="AV9:CA9" si="136">DATE(AU$5,2,1)</f>
+        <f t="shared" ref="AV9" si="136">DATE(AU$5,2,1)</f>
         <v>46054</v>
       </c>
       <c r="AW9" s="18">
@@ -3505,11 +3886,11 @@
         <v>2026</v>
       </c>
       <c r="BI9" s="18">
-        <f t="shared" ref="BI9:CN9" si="148">DATE(BI$5,1,1)</f>
+        <f t="shared" ref="BI9" si="148">DATE(BI$5,1,1)</f>
         <v>46388</v>
       </c>
       <c r="BJ9" s="18">
-        <f t="shared" ref="BJ9:CO9" si="149">DATE(BI$5,2,1)</f>
+        <f t="shared" ref="BJ9" si="149">DATE(BI$5,2,1)</f>
         <v>46419</v>
       </c>
       <c r="BK9" s="18">
@@ -3557,11 +3938,11 @@
         <v>2027</v>
       </c>
       <c r="BW9" s="18">
-        <f t="shared" ref="BW9:DB9" si="161">DATE(BW$5,1,1)</f>
+        <f t="shared" ref="BW9" si="161">DATE(BW$5,1,1)</f>
         <v>46753</v>
       </c>
       <c r="BX9" s="18">
-        <f t="shared" ref="BX9:DC9" si="162">DATE(BW$5,2,1)</f>
+        <f t="shared" ref="BX9" si="162">DATE(BW$5,2,1)</f>
         <v>46784</v>
       </c>
       <c r="BY9" s="18">
@@ -3609,11 +3990,11 @@
         <v>2028</v>
       </c>
       <c r="CK9" s="18">
-        <f t="shared" ref="CK9:DZ9" si="174">DATE(CK$5,1,1)</f>
+        <f t="shared" ref="CK9" si="174">DATE(CK$5,1,1)</f>
         <v>47119</v>
       </c>
       <c r="CL9" s="18">
-        <f t="shared" ref="CL9:DZ9" si="175">DATE(CK$5,2,1)</f>
+        <f t="shared" ref="CL9" si="175">DATE(CK$5,2,1)</f>
         <v>47150</v>
       </c>
       <c r="CM9" s="18">
@@ -3661,11 +4042,11 @@
         <v>2029</v>
       </c>
       <c r="CY9" s="18">
-        <f t="shared" ref="CY9:DZ9" si="187">DATE(CY$5,1,1)</f>
+        <f t="shared" ref="CY9" si="187">DATE(CY$5,1,1)</f>
         <v>47484</v>
       </c>
       <c r="CZ9" s="18">
-        <f t="shared" ref="CZ9:DZ9" si="188">DATE(CY$5,2,1)</f>
+        <f t="shared" ref="CZ9" si="188">DATE(CY$5,2,1)</f>
         <v>47515</v>
       </c>
       <c r="DA9" s="18">
@@ -3717,7 +4098,7 @@
         <v>47849</v>
       </c>
       <c r="DN9" s="18">
-        <f t="shared" ref="DN9:DZ9" si="201">DATE(DM$5,2,1)</f>
+        <f t="shared" ref="DN9" si="201">DATE(DM$5,2,1)</f>
         <v>47880</v>
       </c>
       <c r="DO9" s="18">
@@ -3769,7 +4150,7 @@
         <v>48214</v>
       </c>
       <c r="EB9" s="18">
-        <f t="shared" ref="EB9:EN9" si="213">DATE(EA$5,2,1)</f>
+        <f t="shared" ref="EB9" si="213">DATE(EA$5,2,1)</f>
         <v>48245</v>
       </c>
       <c r="EC9" s="18">
@@ -3824,19 +4205,27 @@
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="G10" s="28">
+        <v>2000</v>
+      </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="L10" s="28">
+        <v>500</v>
+      </c>
       <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="N10" s="28">
+        <v>500</v>
+      </c>
       <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="P10" s="28">
+        <v>400</v>
+      </c>
       <c r="Q10" s="29">
         <f>SUM(E10:P10)</f>
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
@@ -3991,7 +4380,9 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="H11" s="28">
+        <v>155000</v>
+      </c>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
@@ -4002,7 +4393,7 @@
       <c r="P11" s="28"/>
       <c r="Q11" s="29">
         <f>SUM(E11:P11)</f>
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
@@ -4154,21 +4545,45 @@
         <v>61</v>
       </c>
       <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
+      <c r="E12" s="28">
+        <v>155000</v>
+      </c>
+      <c r="F12" s="28">
+        <v>155000</v>
+      </c>
+      <c r="G12" s="28">
+        <v>155000</v>
+      </c>
+      <c r="H12" s="28">
+        <v>155000</v>
+      </c>
+      <c r="I12" s="28">
+        <v>155000</v>
+      </c>
+      <c r="J12" s="28">
+        <v>155000</v>
+      </c>
+      <c r="K12" s="28">
+        <v>155000</v>
+      </c>
+      <c r="L12" s="28">
+        <v>155000</v>
+      </c>
+      <c r="M12" s="28">
+        <v>155000</v>
+      </c>
+      <c r="N12" s="28">
+        <v>155000</v>
+      </c>
+      <c r="O12" s="28">
+        <v>155000</v>
+      </c>
+      <c r="P12" s="28">
+        <v>155000</v>
+      </c>
       <c r="Q12" s="29">
         <f>SUM(E12:P12)</f>
-        <v>0</v>
+        <v>1860000</v>
       </c>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
@@ -4317,14 +4732,18 @@
     </row>
     <row r="13" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28">
+        <v>5000</v>
+      </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="I13" s="28">
+        <v>8000</v>
+      </c>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
@@ -4334,7 +4753,7 @@
       <c r="P13" s="28"/>
       <c r="Q13" s="29">
         <f>SUM(E13:P13)</f>
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
@@ -4483,7 +4902,7 @@
     </row>
     <row r="14" spans="1:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
@@ -4649,7 +5068,7 @@
     </row>
     <row r="15" spans="1:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C15" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="28"/>
@@ -4785,7 +5204,7 @@
     </row>
     <row r="16" spans="1:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C16" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="28"/>
@@ -4921,7 +5340,7 @@
     </row>
     <row r="17" spans="3:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C17" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="28"/>
@@ -5057,7 +5476,7 @@
     </row>
     <row r="18" spans="3:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C18" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="28"/>
@@ -5193,59 +5612,59 @@
     </row>
     <row r="19" spans="3:143" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="21">
         <f t="shared" ref="E19:BP19" ca="1" si="233">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="F19" s="21">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>157000</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>310000</v>
       </c>
       <c r="I19" s="21">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>163000</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="K19" s="21">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="L19" s="21">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>155500</v>
       </c>
       <c r="M19" s="21">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="N19" s="21">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>155500</v>
       </c>
       <c r="O19" s="21">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="P19" s="21">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>155400</v>
       </c>
       <c r="Q19" s="21">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>2031400</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" ca="1" si="233"/>
@@ -5672,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="EC19" s="21">
-        <f t="shared" ref="EC19:EN19" ca="1" si="235">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <f t="shared" ref="EC19:EM19" ca="1" si="235">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(income_max_row,COLUMN())))</f>
         <v>0</v>
       </c>
       <c r="ED19" s="21">
@@ -5718,7 +6137,7 @@
     </row>
     <row r="21" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C21" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="23">
         <f>DATE(E$5,1,1)</f>
@@ -5825,11 +6244,11 @@
         <v>2024</v>
       </c>
       <c r="AG21" s="23">
-        <f t="shared" ref="AG21:BL21" si="236">DATE(AG$5,1,1)</f>
+        <f t="shared" ref="AG21" si="236">DATE(AG$5,1,1)</f>
         <v>45658</v>
       </c>
       <c r="AH21" s="23">
-        <f t="shared" ref="AH21:BM21" si="237">DATE(AG$5,2,1)</f>
+        <f t="shared" ref="AH21" si="237">DATE(AG$5,2,1)</f>
         <v>45689</v>
       </c>
       <c r="AI21" s="23">
@@ -5877,11 +6296,11 @@
         <v>2025</v>
       </c>
       <c r="AU21" s="23">
-        <f t="shared" ref="AU21:BZ21" si="249">DATE(AU$5,1,1)</f>
+        <f t="shared" ref="AU21" si="249">DATE(AU$5,1,1)</f>
         <v>46023</v>
       </c>
       <c r="AV21" s="23">
-        <f t="shared" ref="AV21:CA21" si="250">DATE(AU$5,2,1)</f>
+        <f t="shared" ref="AV21" si="250">DATE(AU$5,2,1)</f>
         <v>46054</v>
       </c>
       <c r="AW21" s="23">
@@ -5929,11 +6348,11 @@
         <v>2026</v>
       </c>
       <c r="BI21" s="23">
-        <f t="shared" ref="BI21:CN21" si="262">DATE(BI$5,1,1)</f>
+        <f t="shared" ref="BI21" si="262">DATE(BI$5,1,1)</f>
         <v>46388</v>
       </c>
       <c r="BJ21" s="23">
-        <f t="shared" ref="BJ21:CO21" si="263">DATE(BI$5,2,1)</f>
+        <f t="shared" ref="BJ21" si="263">DATE(BI$5,2,1)</f>
         <v>46419</v>
       </c>
       <c r="BK21" s="23">
@@ -5981,11 +6400,11 @@
         <v>2027</v>
       </c>
       <c r="BW21" s="23">
-        <f t="shared" ref="BW21:DB21" si="275">DATE(BW$5,1,1)</f>
+        <f t="shared" ref="BW21" si="275">DATE(BW$5,1,1)</f>
         <v>46753</v>
       </c>
       <c r="BX21" s="23">
-        <f t="shared" ref="BX21:DC21" si="276">DATE(BW$5,2,1)</f>
+        <f t="shared" ref="BX21" si="276">DATE(BW$5,2,1)</f>
         <v>46784</v>
       </c>
       <c r="BY21" s="23">
@@ -6033,11 +6452,11 @@
         <v>2028</v>
       </c>
       <c r="CK21" s="23">
-        <f t="shared" ref="CK21:DZ21" si="288">DATE(CK$5,1,1)</f>
+        <f t="shared" ref="CK21" si="288">DATE(CK$5,1,1)</f>
         <v>47119</v>
       </c>
       <c r="CL21" s="23">
-        <f t="shared" ref="CL21:DZ21" si="289">DATE(CK$5,2,1)</f>
+        <f t="shared" ref="CL21" si="289">DATE(CK$5,2,1)</f>
         <v>47150</v>
       </c>
       <c r="CM21" s="23">
@@ -6085,11 +6504,11 @@
         <v>2029</v>
       </c>
       <c r="CY21" s="23">
-        <f t="shared" ref="CY21:DZ21" si="301">DATE(CY$5,1,1)</f>
+        <f t="shared" ref="CY21" si="301">DATE(CY$5,1,1)</f>
         <v>47484</v>
       </c>
       <c r="CZ21" s="23">
-        <f t="shared" ref="CZ21:DZ21" si="302">DATE(CY$5,2,1)</f>
+        <f t="shared" ref="CZ21" si="302">DATE(CY$5,2,1)</f>
         <v>47515</v>
       </c>
       <c r="DA21" s="23">
@@ -6141,7 +6560,7 @@
         <v>47849</v>
       </c>
       <c r="DN21" s="23">
-        <f t="shared" ref="DN21:DZ21" si="315">DATE(DM$5,2,1)</f>
+        <f t="shared" ref="DN21" si="315">DATE(DM$5,2,1)</f>
         <v>47880</v>
       </c>
       <c r="DO21" s="23">
@@ -6193,7 +6612,7 @@
         <v>48214</v>
       </c>
       <c r="EB21" s="23">
-        <f t="shared" ref="EB21:EN21" si="327">DATE(EA$5,2,1)</f>
+        <f t="shared" ref="EB21" si="327">DATE(EA$5,2,1)</f>
         <v>48245</v>
       </c>
       <c r="EC21" s="23">
@@ -6243,24 +6662,48 @@
     </row>
     <row r="22" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C22" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
+      <c r="E22" s="28">
+        <v>70000</v>
+      </c>
+      <c r="F22" s="28">
+        <v>70000</v>
+      </c>
+      <c r="G22" s="28">
+        <v>70000</v>
+      </c>
+      <c r="H22" s="28">
+        <v>100000</v>
+      </c>
+      <c r="I22" s="28">
+        <v>70000</v>
+      </c>
+      <c r="J22" s="28">
+        <v>70000</v>
+      </c>
+      <c r="K22" s="28">
+        <v>70000</v>
+      </c>
+      <c r="L22" s="28">
+        <v>70000</v>
+      </c>
+      <c r="M22" s="28">
+        <v>70000</v>
+      </c>
+      <c r="N22" s="28">
+        <v>70000</v>
+      </c>
+      <c r="O22" s="28">
+        <v>70000</v>
+      </c>
+      <c r="P22" s="28">
+        <v>70000</v>
+      </c>
       <c r="Q22" s="29">
         <f>SUM(E22:P22)</f>
-        <v>0</v>
+        <v>870000</v>
       </c>
       <c r="S22" s="28"/>
       <c r="T22" s="28"/>
@@ -6413,20 +6856,26 @@
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>1000</v>
+      </c>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="J23" s="28">
+        <v>300</v>
+      </c>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
+      <c r="N23" s="28">
+        <v>600</v>
+      </c>
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
       <c r="Q23" s="29">
         <f t="shared" ref="Q23:Q38" si="347">SUM(E23:P23)</f>
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="S23" s="28"/>
       <c r="T23" s="28"/>
@@ -6441,7 +6890,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="29">
-        <f t="shared" ref="AE23:AE38" si="348">SUM(S23:AD23)</f>
+        <f t="shared" ref="AE23:AE33" si="348">SUM(S23:AD23)</f>
         <v>0</v>
       </c>
       <c r="AG23" s="28"/>
@@ -6457,7 +6906,7 @@
       <c r="AQ23" s="28"/>
       <c r="AR23" s="28"/>
       <c r="AS23" s="29">
-        <f t="shared" ref="AS23:AS38" si="349">SUM(AG23:AR23)</f>
+        <f t="shared" ref="AS23:AS33" si="349">SUM(AG23:AR23)</f>
         <v>0</v>
       </c>
       <c r="AU23" s="28"/>
@@ -6473,7 +6922,7 @@
       <c r="BE23" s="28"/>
       <c r="BF23" s="28"/>
       <c r="BG23" s="29">
-        <f t="shared" ref="BG23:BG38" si="350">SUM(AU23:BF23)</f>
+        <f t="shared" ref="BG23:BG33" si="350">SUM(AU23:BF23)</f>
         <v>0</v>
       </c>
       <c r="BI23" s="28"/>
@@ -6489,7 +6938,7 @@
       <c r="BS23" s="28"/>
       <c r="BT23" s="28"/>
       <c r="BU23" s="29">
-        <f t="shared" ref="BU23:BU38" si="351">SUM(BI23:BT23)</f>
+        <f t="shared" ref="BU23:BU33" si="351">SUM(BI23:BT23)</f>
         <v>0</v>
       </c>
       <c r="BW23" s="28"/>
@@ -6505,7 +6954,7 @@
       <c r="CG23" s="28"/>
       <c r="CH23" s="28"/>
       <c r="CI23" s="29">
-        <f t="shared" ref="CI23:CI38" si="352">SUM(BW23:CH23)</f>
+        <f t="shared" ref="CI23:CI33" si="352">SUM(BW23:CH23)</f>
         <v>0</v>
       </c>
       <c r="CK23" s="28"/>
@@ -6521,7 +6970,7 @@
       <c r="CU23" s="28"/>
       <c r="CV23" s="28"/>
       <c r="CW23" s="29">
-        <f t="shared" ref="CW23:CW38" si="353">SUM(CK23:CV23)</f>
+        <f t="shared" ref="CW23:CW33" si="353">SUM(CK23:CV23)</f>
         <v>0</v>
       </c>
       <c r="CY23" s="28"/>
@@ -6537,7 +6986,7 @@
       <c r="DI23" s="28"/>
       <c r="DJ23" s="28"/>
       <c r="DK23" s="29">
-        <f t="shared" ref="DK23:DK38" si="354">SUM(CY23:DJ23)</f>
+        <f t="shared" ref="DK23:DK33" si="354">SUM(CY23:DJ23)</f>
         <v>0</v>
       </c>
       <c r="DM23" s="28"/>
@@ -6553,7 +7002,7 @@
       <c r="DW23" s="28"/>
       <c r="DX23" s="28"/>
       <c r="DY23" s="29">
-        <f t="shared" ref="DY23:DY38" si="355">SUM(DM23:DX23)</f>
+        <f t="shared" ref="DY23:DY33" si="355">SUM(DM23:DX23)</f>
         <v>0</v>
       </c>
       <c r="EA23" s="28"/>
@@ -6569,7 +7018,7 @@
       <c r="EK23" s="28"/>
       <c r="EL23" s="28"/>
       <c r="EM23" s="29">
-        <f t="shared" ref="EM23:EM38" si="356">SUM(EA23:EL23)</f>
+        <f t="shared" ref="EM23:EM33" si="356">SUM(EA23:EL23)</f>
         <v>0</v>
       </c>
     </row>
@@ -6744,21 +7193,45 @@
         <v>6</v>
       </c>
       <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="E25" s="28">
+        <v>8000</v>
+      </c>
+      <c r="F25" s="28">
+        <v>8000</v>
+      </c>
+      <c r="G25" s="28">
+        <v>8000</v>
+      </c>
+      <c r="H25" s="28">
+        <v>8000</v>
+      </c>
+      <c r="I25" s="28">
+        <v>8000</v>
+      </c>
+      <c r="J25" s="28">
+        <v>8000</v>
+      </c>
+      <c r="K25" s="28">
+        <v>8000</v>
+      </c>
+      <c r="L25" s="28">
+        <v>8000</v>
+      </c>
+      <c r="M25" s="28">
+        <v>8000</v>
+      </c>
+      <c r="N25" s="28">
+        <v>8000</v>
+      </c>
+      <c r="O25" s="28">
+        <v>8000</v>
+      </c>
+      <c r="P25" s="28">
+        <v>8000</v>
+      </c>
       <c r="Q25" s="29">
         <f t="shared" si="347"/>
-        <v>0</v>
+        <v>96000</v>
       </c>
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
@@ -6913,7 +7386,9 @@
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="H26" s="28">
+        <v>100000</v>
+      </c>
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
@@ -6924,7 +7399,7 @@
       <c r="P26" s="28"/>
       <c r="Q26" s="29">
         <f t="shared" si="347"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="S26" s="28"/>
       <c r="T26" s="28"/>
@@ -7076,7 +7551,9 @@
         <v>8</v>
       </c>
       <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
+      <c r="E27" s="28">
+        <v>7500</v>
+      </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -7086,11 +7563,13 @@
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
       <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
+      <c r="O27" s="28">
+        <v>600</v>
+      </c>
       <c r="P27" s="28"/>
       <c r="Q27" s="29">
         <f t="shared" si="347"/>
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="S27" s="28"/>
       <c r="T27" s="28"/>
@@ -7243,20 +7722,24 @@
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>3800</v>
+      </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
+      <c r="L28" s="28">
+        <v>2800</v>
+      </c>
       <c r="M28" s="28"/>
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
       <c r="P28" s="28"/>
       <c r="Q28" s="29">
         <f t="shared" si="347"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="S28" s="28"/>
       <c r="T28" s="28"/>
@@ -7576,19 +8059,25 @@
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="G30" s="28">
+        <v>3400</v>
+      </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="J30" s="28">
+        <v>8900</v>
+      </c>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
       <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
+      <c r="P30" s="28">
+        <v>8900</v>
+      </c>
       <c r="Q30" s="29">
         <f t="shared" si="347"/>
-        <v>0</v>
+        <v>21200</v>
       </c>
       <c r="S30" s="28"/>
       <c r="T30" s="28"/>
@@ -7906,21 +8395,45 @@
         <v>5</v>
       </c>
       <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
+      <c r="E32" s="28">
+        <v>800</v>
+      </c>
+      <c r="F32" s="28">
+        <v>800</v>
+      </c>
+      <c r="G32" s="28">
+        <v>800</v>
+      </c>
+      <c r="H32" s="28">
+        <v>800</v>
+      </c>
+      <c r="I32" s="28">
+        <v>800</v>
+      </c>
+      <c r="J32" s="28">
+        <v>19000</v>
+      </c>
+      <c r="K32" s="28">
+        <v>800</v>
+      </c>
+      <c r="L32" s="28">
+        <v>800</v>
+      </c>
+      <c r="M32" s="28">
+        <v>800</v>
+      </c>
+      <c r="N32" s="28">
+        <v>20800</v>
+      </c>
+      <c r="O32" s="28">
+        <v>800</v>
+      </c>
+      <c r="P32" s="28">
+        <v>800</v>
+      </c>
       <c r="Q32" s="29">
         <f t="shared" si="347"/>
-        <v>0</v>
+        <v>47800</v>
       </c>
       <c r="S32" s="28"/>
       <c r="T32" s="28"/>
@@ -8235,7 +8748,7 @@
     </row>
     <row r="34" spans="3:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C34" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="28"/>
@@ -8371,7 +8884,7 @@
     </row>
     <row r="35" spans="3:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C35" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="28"/>
@@ -8507,7 +9020,7 @@
     </row>
     <row r="36" spans="3:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C36" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="28"/>
@@ -8643,7 +9156,7 @@
     </row>
     <row r="37" spans="3:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C37" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="28"/>
@@ -8779,7 +9292,7 @@
     </row>
     <row r="38" spans="3:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C38" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="28"/>
@@ -8811,7 +9324,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
       <c r="AE38" s="29">
-        <f t="shared" ref="AE38:AE53" si="357">SUM(S38:AD38)</f>
+        <f t="shared" ref="AE38" si="357">SUM(S38:AD38)</f>
         <v>0</v>
       </c>
       <c r="AG38" s="28"/>
@@ -8827,7 +9340,7 @@
       <c r="AQ38" s="28"/>
       <c r="AR38" s="28"/>
       <c r="AS38" s="29">
-        <f t="shared" ref="AS38:AS53" si="358">SUM(AG38:AR38)</f>
+        <f t="shared" ref="AS38" si="358">SUM(AG38:AR38)</f>
         <v>0</v>
       </c>
       <c r="AU38" s="28"/>
@@ -8843,7 +9356,7 @@
       <c r="BE38" s="28"/>
       <c r="BF38" s="28"/>
       <c r="BG38" s="29">
-        <f t="shared" ref="BG38:BG53" si="359">SUM(AU38:BF38)</f>
+        <f t="shared" ref="BG38" si="359">SUM(AU38:BF38)</f>
         <v>0</v>
       </c>
       <c r="BI38" s="28"/>
@@ -8859,7 +9372,7 @@
       <c r="BS38" s="28"/>
       <c r="BT38" s="28"/>
       <c r="BU38" s="29">
-        <f t="shared" ref="BU38:BU53" si="360">SUM(BI38:BT38)</f>
+        <f t="shared" ref="BU38" si="360">SUM(BI38:BT38)</f>
         <v>0</v>
       </c>
       <c r="BW38" s="28"/>
@@ -8875,7 +9388,7 @@
       <c r="CG38" s="28"/>
       <c r="CH38" s="28"/>
       <c r="CI38" s="29">
-        <f t="shared" ref="CI38:CI53" si="361">SUM(BW38:CH38)</f>
+        <f t="shared" ref="CI38" si="361">SUM(BW38:CH38)</f>
         <v>0</v>
       </c>
       <c r="CK38" s="28"/>
@@ -8891,7 +9404,7 @@
       <c r="CU38" s="28"/>
       <c r="CV38" s="28"/>
       <c r="CW38" s="29">
-        <f t="shared" ref="CW38:CW53" si="362">SUM(CK38:CV38)</f>
+        <f t="shared" ref="CW38" si="362">SUM(CK38:CV38)</f>
         <v>0</v>
       </c>
       <c r="CY38" s="28"/>
@@ -8907,7 +9420,7 @@
       <c r="DI38" s="28"/>
       <c r="DJ38" s="28"/>
       <c r="DK38" s="29">
-        <f t="shared" ref="DK38:DK53" si="363">SUM(CY38:DJ38)</f>
+        <f t="shared" ref="DK38" si="363">SUM(CY38:DJ38)</f>
         <v>0</v>
       </c>
       <c r="DM38" s="28"/>
@@ -8923,7 +9436,7 @@
       <c r="DW38" s="28"/>
       <c r="DX38" s="28"/>
       <c r="DY38" s="29">
-        <f t="shared" ref="DY38:DY53" si="364">SUM(DM38:DX38)</f>
+        <f t="shared" ref="DY38" si="364">SUM(DM38:DX38)</f>
         <v>0</v>
       </c>
       <c r="EA38" s="28"/>
@@ -8939,65 +9452,65 @@
       <c r="EK38" s="28"/>
       <c r="EL38" s="28"/>
       <c r="EM38" s="29">
-        <f t="shared" ref="EM38:EM53" si="365">SUM(EA38:EL38)</f>
+        <f t="shared" ref="EM38" si="365">SUM(EA38:EL38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:143" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="21">
         <f t="shared" ref="E39:BP39" ca="1" si="366">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(expenses_max_row,COLUMN())))</f>
-        <v>0</v>
+        <v>86300</v>
       </c>
       <c r="F39" s="21">
         <f t="shared" ca="1" si="366"/>
-        <v>0</v>
+        <v>83600</v>
       </c>
       <c r="G39" s="21">
         <f t="shared" ca="1" si="366"/>
-        <v>0</v>
+        <v>82200</v>
       </c>
       <c r="H39" s="21">
         <f t="shared" ca="1" si="366"/>
-        <v>0</v>
+        <v>208800</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" ca="1" si="366"/>
-        <v>0</v>
+        <v>78800</v>
       </c>
       <c r="J39" s="21">
         <f t="shared" ca="1" si="366"/>
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="K39" s="21">
         <f t="shared" ca="1" si="366"/>
-        <v>0</v>
+        <v>78800</v>
       </c>
       <c r="L39" s="21">
         <f t="shared" ca="1" si="366"/>
-        <v>0</v>
+        <v>81600</v>
       </c>
       <c r="M39" s="21">
         <f t="shared" ca="1" si="366"/>
-        <v>0</v>
+        <v>78800</v>
       </c>
       <c r="N39" s="21">
         <f t="shared" ca="1" si="366"/>
-        <v>0</v>
+        <v>99400</v>
       </c>
       <c r="O39" s="21">
         <f t="shared" ca="1" si="366"/>
-        <v>0</v>
+        <v>79400</v>
       </c>
       <c r="P39" s="21">
         <f t="shared" ca="1" si="366"/>
-        <v>0</v>
+        <v>87700</v>
       </c>
       <c r="Q39" s="21">
         <f t="shared" ca="1" si="366"/>
-        <v>0</v>
+        <v>1151600</v>
       </c>
       <c r="S39" s="21">
         <f t="shared" ca="1" si="366"/>
@@ -9424,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="EC39" s="21">
-        <f t="shared" ref="EC39:EN39" ca="1" si="368">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <f t="shared" ref="EC39:EM39" ca="1" si="368">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(expenses_max_row,COLUMN())))</f>
         <v>0</v>
       </c>
       <c r="ED39" s="21">
@@ -9470,7 +9983,7 @@
     </row>
     <row r="41" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C41" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" s="30">
         <f>DATE(E$5,1,1)</f>
@@ -9577,11 +10090,11 @@
         <v>2024</v>
       </c>
       <c r="AG41" s="30">
-        <f t="shared" ref="AG41:BL41" si="369">DATE(AG$5,1,1)</f>
+        <f t="shared" ref="AG41" si="369">DATE(AG$5,1,1)</f>
         <v>45658</v>
       </c>
       <c r="AH41" s="30">
-        <f t="shared" ref="AH41:BM41" si="370">DATE(AG$5,2,1)</f>
+        <f t="shared" ref="AH41" si="370">DATE(AG$5,2,1)</f>
         <v>45689</v>
       </c>
       <c r="AI41" s="30">
@@ -9629,11 +10142,11 @@
         <v>2025</v>
       </c>
       <c r="AU41" s="30">
-        <f t="shared" ref="AU41:BZ41" si="382">DATE(AU$5,1,1)</f>
+        <f t="shared" ref="AU41" si="382">DATE(AU$5,1,1)</f>
         <v>46023</v>
       </c>
       <c r="AV41" s="30">
-        <f t="shared" ref="AV41:CA41" si="383">DATE(AU$5,2,1)</f>
+        <f t="shared" ref="AV41" si="383">DATE(AU$5,2,1)</f>
         <v>46054</v>
       </c>
       <c r="AW41" s="30">
@@ -9681,11 +10194,11 @@
         <v>2026</v>
       </c>
       <c r="BI41" s="30">
-        <f t="shared" ref="BI41:CN41" si="395">DATE(BI$5,1,1)</f>
+        <f t="shared" ref="BI41" si="395">DATE(BI$5,1,1)</f>
         <v>46388</v>
       </c>
       <c r="BJ41" s="30">
-        <f t="shared" ref="BJ41:CO41" si="396">DATE(BI$5,2,1)</f>
+        <f t="shared" ref="BJ41" si="396">DATE(BI$5,2,1)</f>
         <v>46419</v>
       </c>
       <c r="BK41" s="30">
@@ -9733,11 +10246,11 @@
         <v>2027</v>
       </c>
       <c r="BW41" s="30">
-        <f t="shared" ref="BW41:DB41" si="408">DATE(BW$5,1,1)</f>
+        <f t="shared" ref="BW41" si="408">DATE(BW$5,1,1)</f>
         <v>46753</v>
       </c>
       <c r="BX41" s="30">
-        <f t="shared" ref="BX41:DC41" si="409">DATE(BW$5,2,1)</f>
+        <f t="shared" ref="BX41" si="409">DATE(BW$5,2,1)</f>
         <v>46784</v>
       </c>
       <c r="BY41" s="30">
@@ -9785,11 +10298,11 @@
         <v>2028</v>
       </c>
       <c r="CK41" s="30">
-        <f t="shared" ref="CK41:DZ41" si="421">DATE(CK$5,1,1)</f>
+        <f t="shared" ref="CK41" si="421">DATE(CK$5,1,1)</f>
         <v>47119</v>
       </c>
       <c r="CL41" s="30">
-        <f t="shared" ref="CL41:DZ41" si="422">DATE(CK$5,2,1)</f>
+        <f t="shared" ref="CL41" si="422">DATE(CK$5,2,1)</f>
         <v>47150</v>
       </c>
       <c r="CM41" s="30">
@@ -9837,11 +10350,11 @@
         <v>2029</v>
       </c>
       <c r="CY41" s="30">
-        <f t="shared" ref="CY41:DZ41" si="434">DATE(CY$5,1,1)</f>
+        <f t="shared" ref="CY41" si="434">DATE(CY$5,1,1)</f>
         <v>47484</v>
       </c>
       <c r="CZ41" s="30">
-        <f t="shared" ref="CZ41:DZ41" si="435">DATE(CY$5,2,1)</f>
+        <f t="shared" ref="CZ41" si="435">DATE(CY$5,2,1)</f>
         <v>47515</v>
       </c>
       <c r="DA41" s="30">
@@ -9893,7 +10406,7 @@
         <v>47849</v>
       </c>
       <c r="DN41" s="30">
-        <f t="shared" ref="DN41:DZ41" si="448">DATE(DM$5,2,1)</f>
+        <f t="shared" ref="DN41" si="448">DATE(DM$5,2,1)</f>
         <v>47880</v>
       </c>
       <c r="DO41" s="30">
@@ -9945,7 +10458,7 @@
         <v>48214</v>
       </c>
       <c r="EB41" s="30">
-        <f t="shared" ref="EB41:EN41" si="460">DATE(EA$5,2,1)</f>
+        <f t="shared" ref="EB41" si="460">DATE(EA$5,2,1)</f>
         <v>48245</v>
       </c>
       <c r="EC41" s="30">
@@ -10166,19 +10679,25 @@
       <c r="D43" s="27"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
+      <c r="G43" s="28">
+        <v>8000</v>
+      </c>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
+      <c r="M43" s="28">
+        <v>8000</v>
+      </c>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
+      <c r="P43" s="28">
+        <v>8000</v>
+      </c>
       <c r="Q43" s="29">
         <f t="shared" ref="Q43:Q54" si="480">SUM(E43:P43)</f>
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="S43" s="28"/>
       <c r="T43" s="28"/>
@@ -10330,21 +10849,45 @@
         <v>46</v>
       </c>
       <c r="D44" s="27"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
+      <c r="E44" s="28">
+        <v>40000</v>
+      </c>
+      <c r="F44" s="28">
+        <v>40000</v>
+      </c>
+      <c r="G44" s="28">
+        <v>40000</v>
+      </c>
+      <c r="H44" s="28">
+        <v>40000</v>
+      </c>
+      <c r="I44" s="28">
+        <v>40000</v>
+      </c>
+      <c r="J44" s="28">
+        <v>38800</v>
+      </c>
+      <c r="K44" s="28">
+        <v>40000</v>
+      </c>
+      <c r="L44" s="28">
+        <v>37200</v>
+      </c>
+      <c r="M44" s="28">
+        <v>40000</v>
+      </c>
+      <c r="N44" s="28">
+        <v>39400</v>
+      </c>
+      <c r="O44" s="28">
+        <v>39400</v>
+      </c>
+      <c r="P44" s="28">
+        <v>31100</v>
+      </c>
       <c r="Q44" s="29">
         <f t="shared" si="480"/>
-        <v>0</v>
+        <v>465900</v>
       </c>
       <c r="S44" s="28"/>
       <c r="T44" s="28"/>
@@ -10499,7 +11042,9 @@
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
+      <c r="H45" s="28">
+        <v>50000</v>
+      </c>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
@@ -10510,7 +11055,7 @@
       <c r="P45" s="28"/>
       <c r="Q45" s="29">
         <f t="shared" si="480"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="S45" s="28"/>
       <c r="T45" s="28"/>
@@ -10994,21 +11539,43 @@
         <v>43</v>
       </c>
       <c r="D48" s="27"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
+      <c r="E48" s="28">
+        <v>18700</v>
+      </c>
+      <c r="F48" s="28">
+        <v>26400</v>
+      </c>
+      <c r="G48" s="28">
+        <v>16800</v>
+      </c>
+      <c r="H48" s="28">
+        <v>1200</v>
+      </c>
+      <c r="I48" s="28">
+        <v>34200</v>
+      </c>
       <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
+      <c r="K48" s="28">
+        <v>26200</v>
+      </c>
+      <c r="L48" s="28">
+        <v>26700</v>
+      </c>
+      <c r="M48" s="28">
+        <v>18200</v>
+      </c>
+      <c r="N48" s="28">
+        <v>6700</v>
+      </c>
+      <c r="O48" s="28">
+        <v>26200</v>
+      </c>
+      <c r="P48" s="28">
+        <v>18600</v>
+      </c>
       <c r="Q48" s="29">
         <f t="shared" si="480"/>
-        <v>0</v>
+        <v>219900</v>
       </c>
       <c r="S48" s="28"/>
       <c r="T48" s="28"/>
@@ -11157,24 +11724,48 @@
     </row>
     <row r="49" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C49" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="27"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
+      <c r="E49" s="28">
+        <v>10000</v>
+      </c>
+      <c r="F49" s="28">
+        <v>10000</v>
+      </c>
+      <c r="G49" s="28">
+        <v>10000</v>
+      </c>
+      <c r="H49" s="28">
+        <v>10000</v>
+      </c>
+      <c r="I49" s="28">
+        <v>10000</v>
+      </c>
+      <c r="J49" s="28">
+        <v>10000</v>
+      </c>
+      <c r="K49" s="28">
+        <v>10000</v>
+      </c>
+      <c r="L49" s="28">
+        <v>10000</v>
+      </c>
+      <c r="M49" s="28">
+        <v>10000</v>
+      </c>
+      <c r="N49" s="28">
+        <v>10000</v>
+      </c>
+      <c r="O49" s="28">
+        <v>10000</v>
+      </c>
+      <c r="P49" s="28">
+        <v>10000</v>
+      </c>
       <c r="Q49" s="29">
         <f t="shared" si="480"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="S49" s="28"/>
       <c r="T49" s="28"/>
@@ -11323,7 +11914,7 @@
     </row>
     <row r="50" spans="3:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C50" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="28"/>
@@ -11489,7 +12080,7 @@
     </row>
     <row r="51" spans="3:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C51" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="28"/>
@@ -11655,7 +12246,7 @@
     </row>
     <row r="52" spans="3:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C52" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="28"/>
@@ -11821,7 +12412,7 @@
     </row>
     <row r="53" spans="3:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C53" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="28"/>
@@ -11987,7 +12578,7 @@
     </row>
     <row r="54" spans="3:143" hidden="1" x14ac:dyDescent="0.25">
       <c r="C54" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="28"/>
@@ -12153,60 +12744,60 @@
     </row>
     <row r="55" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C55" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="21">
         <f t="shared" ref="E55:BP55" ca="1" si="490">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(savings_max_row,COLUMN())))</f>
-        <v>0</v>
+        <v>68700</v>
       </c>
       <c r="F55" s="21">
         <f t="shared" ca="1" si="490"/>
-        <v>0</v>
+        <v>76400</v>
       </c>
       <c r="G55" s="21">
         <f t="shared" ca="1" si="490"/>
-        <v>0</v>
+        <v>74800</v>
       </c>
       <c r="H55" s="21">
         <f t="shared" ca="1" si="490"/>
-        <v>0</v>
+        <v>101200</v>
       </c>
       <c r="I55" s="21">
         <f t="shared" ca="1" si="490"/>
-        <v>0</v>
+        <v>84200</v>
       </c>
       <c r="J55" s="21">
         <f t="shared" ca="1" si="490"/>
-        <v>0</v>
+        <v>48800</v>
       </c>
       <c r="K55" s="21">
         <f t="shared" ca="1" si="490"/>
-        <v>0</v>
+        <v>76200</v>
       </c>
       <c r="L55" s="21">
         <f t="shared" ca="1" si="490"/>
-        <v>0</v>
+        <v>73900</v>
       </c>
       <c r="M55" s="21">
         <f t="shared" ca="1" si="490"/>
-        <v>0</v>
+        <v>76200</v>
       </c>
       <c r="N55" s="21">
         <f t="shared" ca="1" si="490"/>
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="O55" s="21">
         <f t="shared" ca="1" si="490"/>
-        <v>0</v>
+        <v>75600</v>
       </c>
       <c r="P55" s="21">
         <f t="shared" ca="1" si="490"/>
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="Q55" s="21">
         <f t="shared" ca="1" si="490"/>
-        <v>0</v>
+        <v>879800</v>
       </c>
       <c r="S55" s="21">
         <f t="shared" ca="1" si="490"/>
@@ -12633,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="EC55" s="21">
-        <f t="shared" ref="EC55:EN55" ca="1" si="492">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <f t="shared" ref="EC55:EM55" ca="1" si="492">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(savings_max_row,COLUMN())))</f>
         <v>0</v>
       </c>
       <c r="ED55" s="21">
@@ -12679,41 +13270,41 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="AG5:AS5"/>
+    <mergeCell ref="AU5:BG5"/>
+    <mergeCell ref="BI5:BU5"/>
     <mergeCell ref="BW5:CI5"/>
     <mergeCell ref="CK5:CW5"/>
     <mergeCell ref="CY5:DK5"/>
     <mergeCell ref="DM5:DY5"/>
     <mergeCell ref="EA5:EM5"/>
-    <mergeCell ref="E5:Q5"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="AG5:AS5"/>
-    <mergeCell ref="AU5:BG5"/>
-    <mergeCell ref="BI5:BU5"/>
   </mergeCells>
-  <conditionalFormatting sqref="C10:C13 E10:Q19 E22:Q39 E42:Q55 S10:AE19 S22:AE39 S42:AE55 AG10:AS19 AU10:BG19 BI10:BU19 BW10:CI19 CK10:CW19 CY10:DK19 DM10:DY19 AG22:AS39 AU22:BG39 BI22:BU39 BW22:CI39 CK22:CW39 CY22:DK39 DM22:DY39 AG42:AS55 AU42:BG55 BI42:BU55 BW42:CI55 CK42:CW55 CY42:DK55 DM42:DY55 EA10:EM19 EA22:EM39 EA42:EM55">
-    <cfRule type="expression" dxfId="30" priority="7">
+  <conditionalFormatting sqref="C10:C13 S10:AE19 S22:AE39 S42:AE55 AG10:AS19 AU10:BG19 BI10:BU19 BW10:CI19 CK10:CW19 CY10:DK19 DM10:DY19 AG22:AS39 AU22:BG39 BI22:BU39 BW22:CI39 CK22:CW39 CY22:DK39 DM22:DY39 AG42:AS55 AU42:BG55 BI42:BU55 BW42:CI55 CK42:CW55 CY42:DK55 DM42:DY55 EA10:EM19 EA22:EM39 EA42:EM55 E10:Q19 E22:Q39 E42:Q55">
+    <cfRule type="expression" dxfId="24" priority="7">
       <formula>ROW(A10) &lt;= income_max_row</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23:Q39 C22:C33 E22:Q38 E42:Q54 AE23:AE39 S22:AE38 S42:AE54 AS23:AS39 BG23:BG39 BU23:BU39 CI23:CI39 CW23:CW39 DK23:DK39 DY23:DY39 AG22:AS38 AU22:BG38 BI22:BU38 BW22:CI38 CK22:CW38 CY22:DK38 DM22:DY38 AG42:AS54 AU42:BG54 BI42:BU54 BW42:CI54 CK42:CW54 CY42:DK54 DM42:DY54 EM23:EM39 EA22:EM38 EA42:EM54">
-    <cfRule type="expression" dxfId="29" priority="6">
+  <conditionalFormatting sqref="Q23:Q39 C22:C33 AE23:AE39 S22:AE38 S42:AE54 AS23:AS39 BG23:BG39 BU23:BU39 CI23:CI39 CW23:CW39 DK23:DK39 DY23:DY39 AG22:AS38 AU22:BG38 BI22:BU38 BW22:CI38 CK22:CW38 CY22:DK38 DM22:DY38 AG42:AS54 AU42:BG54 BI42:BU54 BW42:CI54 CK42:CW54 CY42:DK54 DM42:DY54 EM23:EM39 EA22:EM38 EA42:EM54 E22:Q38 E42:Q54">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>ROW(A22) &lt;= expenses_max_row</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C54 E42:Q54 S42:AE54 AG42:AS54 AU42:BG54 BI42:BU54 BW42:CI54 CK42:CW54 CY42:DK54 DM42:DY54 EA42:EM54">
-    <cfRule type="expression" dxfId="28" priority="4">
+  <conditionalFormatting sqref="C42:C54 S42:AE54 AG42:AS54 AU42:BG54 BI42:BU54 BW42:CI54 CK42:CW54 CY42:DK54 DM42:DY54 EA42:EM54 E42:Q54">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>ROW(A42) &lt;= savings_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:Q7 S6:AE7 AG6:AS7 AU6:BG7 BI6:BU7 BW6:CI7 CK6:CW7 CY6:DK7 DM6:DY7 EA6:EM7">
-    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
       <formula>AND(E$19=0,E$39=0,E$55=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
+      <formula>E$7=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>E$7&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
-      <formula>E$7=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12728,13 +13319,167 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="1.28515625" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="51" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="38">
+        <v>45285</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="39">
+        <v>3500</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="42">
+        <f>SUMPRODUCT(Table4[Amount], (Table4[Date] &lt;=Table4[[#This Row],[Date]])*1, (Table4[Type]&lt;&gt;"Income")*(-1) + (Table4[Type]="Income"))</f>
+        <v>2000</v>
+      </c>
+      <c r="J9" s="50">
+        <f>IF(AND(Table4[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(Table4[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(Table4[[#This Row],[Date]]), MONTH(Table4[[#This Row],[Date]])+1, 1),
+ Table4[[#This Row],[Date]])</f>
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="38">
+        <v>45109</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="39">
+        <v>1200</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="42">
+        <f>SUMPRODUCT(Table4[Amount], (Table4[Date] &lt;=Table4[[#This Row],[Date]])*1, (Table4[Type]&lt;&gt;"Income")*(-1) + (Table4[Type]="Income"))</f>
+        <v>-1200</v>
+      </c>
+      <c r="J10" s="50">
+        <f>IF(AND(Table4[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(Table4[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(Table4[[#This Row],[Date]]), MONTH(Table4[[#This Row],[Date]])+1, 1),
+ Table4[[#This Row],[Date]])</f>
+        <v>45109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="38">
+        <v>45110</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="39">
+        <v>300</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="42">
+        <f>SUMPRODUCT(Table4[Amount], (Table4[Date] &lt;=Table4[[#This Row],[Date]])*1, (Table4[Type]&lt;&gt;"Income")*(-1) + (Table4[Type]="Income"))</f>
+        <v>-1500</v>
+      </c>
+      <c r="J11" s="50">
+        <f>IF(AND(Table4[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(Table4[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(Table4[[#This Row],[Date]]), MONTH(Table4[[#This Row],[Date]])+1, 1),
+ Table4[[#This Row],[Date]])</f>
+        <v>45110</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F9:F11">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>ISNA(MATCH(F9, INDIRECT(E9), 0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G11">
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>E9="Income"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J11">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>AND(E9="Income", shift_late_income_status="Active", DAY(D9)&gt;=shift_late_income_starting_day)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter a valid date." sqref="D9:D11">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a valid type from the dropdown." sqref="E9:E11">
+      <formula1>"Income, Expenses, Savings"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Category" error="Please select a valid category from the dropdown." sqref="F9:F11">
+      <formula1>INDIRECT(E9)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Amount" error="Please enter a valid amount." sqref="G9:G11">
+      <formula1>ISNUMBER(G9)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Expense_Tracker.xlsx
+++ b/Expense_Tracker.xlsx
@@ -16,15 +16,33 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Dropdown Data'!#REF!</definedName>
+    <definedName name="budget" localSheetId="3">'Budget Dashboard'!$L1</definedName>
+    <definedName name="budget_range" localSheetId="3">'Budget Dashboard'!$Q1</definedName>
+    <definedName name="budget_rank" localSheetId="3">'Budget Dashboard'!$R1</definedName>
+    <definedName name="comb_rank" localSheetId="3">'Budget Dashboard'!$S1</definedName>
+    <definedName name="comb_rank_norm" localSheetId="3">'Budget Dashboard'!$U1</definedName>
+    <definedName name="comb_rank_norm_run_range" localSheetId="3">'Budget Dashboard'!$V1</definedName>
+    <definedName name="comb_rank_range" localSheetId="3">'Budget Dashboard'!$T1</definedName>
+    <definedName name="comb_rank_unique" localSheetId="3">'Budget Dashboard'!$W1</definedName>
     <definedName name="current_date">DATE(2023,7,30)</definedName>
     <definedName name="expenses_header_row">ROW(expenses[[#Headers],[Expenses]])</definedName>
     <definedName name="expenses_max_row">MAX(INDEX((expenses[]&lt;&gt; "")*ROW(expenses[]),0))</definedName>
     <definedName name="expenses_min_row">MIN(INDEX((expenses[]&lt;&gt; "")*ROW(expenses[]),0))</definedName>
     <definedName name="expenses_total_row">ROW('Budget Planning'!$C$39)</definedName>
+    <definedName name="header_row_id" localSheetId="3">'Budget Dashboard'!$D1</definedName>
     <definedName name="income_header_row">ROW(income[[#Headers],[Income]])</definedName>
     <definedName name="income_max_row">MAX(INDEX((income[]&lt;&gt; "")*ROW(income[]),0))</definedName>
     <definedName name="income_min_row">MIN(INDEX((income[]&lt;&gt; "")*ROW(income[]),0))</definedName>
     <definedName name="income_total_row">ROW('Budget Planning'!$C$19)</definedName>
+    <definedName name="is_cat" localSheetId="3">'Budget Dashboard'!$F1</definedName>
+    <definedName name="is_empty" localSheetId="3">'Budget Dashboard'!$H1</definedName>
+    <definedName name="is_header" localSheetId="3">'Budget Dashboard'!$E1</definedName>
+    <definedName name="is_total" localSheetId="3">'Budget Dashboard'!$G1</definedName>
+    <definedName name="item" localSheetId="3">'Budget Dashboard'!$J1</definedName>
+    <definedName name="out_budget" localSheetId="3">'Budget Dashboard'!$AA1</definedName>
+    <definedName name="out_percentage_completed" localSheetId="3">'Budget Dashboard'!$AB1</definedName>
+    <definedName name="out_tracked" localSheetId="3">'Budget Dashboard'!$Z1</definedName>
+    <definedName name="row_id" localSheetId="3">'Budget Dashboard'!$C1</definedName>
     <definedName name="savings_header_row">ROW(savings[[#Headers],[Savings]])</definedName>
     <definedName name="savings_max_row">MAX(INDEX((savings[]&lt;&gt; "")*ROW(savings[]),0))</definedName>
     <definedName name="savings_min_row">MIN(INDEX((savings[]&lt;&gt; "")*ROW(savings[]),0))</definedName>
@@ -34,14 +52,20 @@
     <definedName name="selected_year">Calculations!$E$19</definedName>
     <definedName name="shift_late_income_starting_day">Settings!$E$16</definedName>
     <definedName name="shift_late_income_status">Settings!$E$14</definedName>
+    <definedName name="sort_max_row" localSheetId="3">'Budget Dashboard'!$N1</definedName>
+    <definedName name="sort_min_row" localSheetId="3">'Budget Dashboard'!$M1</definedName>
     <definedName name="starting_year">Settings!$E$7</definedName>
+    <definedName name="tracked" localSheetId="3">'Budget Dashboard'!$K1</definedName>
+    <definedName name="tracked_range" localSheetId="3">'Budget Dashboard'!$O1</definedName>
+    <definedName name="tracked_rank" localSheetId="3">'Budget Dashboard'!$P1</definedName>
+    <definedName name="type" localSheetId="3">'Budget Dashboard'!$I1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="99">
   <si>
     <t>Rent</t>
   </si>
@@ -169,9 +193,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Home loan EMI</t>
-  </si>
-  <si>
     <t>Balance</t>
   </si>
   <si>
@@ -270,19 +291,92 @@
   <si>
     <t>Selected Period (Display):</t>
   </si>
+  <si>
+    <t>row_id</t>
+  </si>
+  <si>
+    <t>header_row_id</t>
+  </si>
+  <si>
+    <t>is_header</t>
+  </si>
+  <si>
+    <t>is_cat</t>
+  </si>
+  <si>
+    <t>is_total</t>
+  </si>
+  <si>
+    <t>is_empty</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>tracked</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>Retirement plan</t>
+  </si>
+  <si>
+    <t>sort_min_row</t>
+  </si>
+  <si>
+    <t>sort_max_row</t>
+  </si>
+  <si>
+    <t>tracked_range</t>
+  </si>
+  <si>
+    <t>tracked_rank</t>
+  </si>
+  <si>
+    <t>budget_range</t>
+  </si>
+  <si>
+    <t>budget_rank</t>
+  </si>
+  <si>
+    <t>comb_rank</t>
+  </si>
+  <si>
+    <t>comb_rank_range</t>
+  </si>
+  <si>
+    <t>comb_rank_norm</t>
+  </si>
+  <si>
+    <t>comb_rank_norm_run_range</t>
+  </si>
+  <si>
+    <t>comb_rank_unique</t>
+  </si>
+  <si>
+    <t>sorted_row_id [Lookup]</t>
+  </si>
+  <si>
+    <t>I am a foodie</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$-14009]d\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="mmm"/>
     <numFmt numFmtId="166" formatCode="d/mmm/yy"/>
-    <numFmt numFmtId="171" formatCode="mmmm"/>
+    <numFmt numFmtId="167" formatCode="mmmm"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +548,44 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -725,11 +857,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -825,40 +958,12 @@
     <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,13 +974,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
@@ -883,19 +985,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="46">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
-      <numFmt numFmtId="167" formatCode="\→\ d/mmm/yy"/>
+      <numFmt numFmtId="169" formatCode="\→\ d/mmm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -903,7 +1094,7 @@
         <i val="0"/>
         <color rgb="FF249024"/>
       </font>
-      <numFmt numFmtId="168" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <numFmt numFmtId="170" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     </dxf>
     <dxf>
       <font>
@@ -912,61 +1103,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCEFF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE9FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAFAE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1011,7 +1147,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1040,7 +1176,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1054,7 +1190,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1069,7 +1206,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="166" formatCode="d/mmm/yy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1087,6 +1224,76 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9FCFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7DBE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93D5A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF53A9FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF379B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C274"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1199,6 +1406,61 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCEFF4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBE9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAFAE6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1401,39 +1663,39 @@
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Enpenses Table Style" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="38"/>
-      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="wholeTable" dxfId="45"/>
+      <tableStyleElement type="headerRow" dxfId="44"/>
     </tableStyle>
     <tableStyle name="Income Table Style" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="36"/>
-      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="wholeTable" dxfId="43"/>
+      <tableStyleElement type="headerRow" dxfId="42"/>
     </tableStyle>
     <tableStyle name="savings table style" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="34"/>
-      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="wholeTable" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
     </tableStyle>
     <tableStyle name="Tracking table style" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="totalRow" dxfId="30"/>
-      <tableStyleElement type="firstColumn" dxfId="29"/>
-      <tableStyleElement type="lastColumn" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="26"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="totalRow" dxfId="37"/>
+      <tableStyleElement type="firstColumn" dxfId="36"/>
+      <tableStyleElement type="lastColumn" dxfId="35"/>
+      <tableStyleElement type="firstRowStripe" dxfId="34"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="33"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FFD7F1E1"/>
-      <color rgb="FF249024"/>
-      <color rgb="FFFF1515"/>
-      <color rgb="FF2AA62A"/>
-      <color rgb="FF33CC33"/>
-      <color rgb="FFFBE9FA"/>
-      <color rgb="FFEAFAE6"/>
-      <color rgb="FFDCEFF4"/>
-      <color rgb="FFB9EDAB"/>
-      <color rgb="FF99FF99"/>
+      <color rgb="FF9FCFFF"/>
+      <color rgb="FFFF7DBE"/>
+      <color rgb="FF93D5A0"/>
+      <color rgb="FF53A9FF"/>
+      <color rgb="FFFF379B"/>
+      <color rgb="FF62C274"/>
+      <color rgb="FF89F7BB"/>
+      <color rgb="FF66FF99"/>
+      <color rgb="FFA2F6BC"/>
+      <color rgb="FF3399FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1618,6 +1880,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>30-Jul-23</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="1200" b="1"/>
@@ -1636,7 +1899,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>18374</xdr:rowOff>
     </xdr:to>
@@ -1648,9 +1911,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2571750" y="457199"/>
-          <a:ext cx="1847850" cy="828000"/>
+          <a:ext cx="1885949" cy="828000"/>
           <a:chOff x="2476500" y="447674"/>
-          <a:chExt cx="1847850" cy="828000"/>
+          <a:chExt cx="1885949" cy="828000"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1796,7 +2059,8 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>2-Jan-23</a:t>
+              <a:pPr/>
+              <a:t>3-Mar-23</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="1400" b="1"/>
           </a:p>
@@ -1809,7 +2073,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3143249" y="800101"/>
+            <a:off x="3267074" y="809626"/>
             <a:ext cx="1095375" cy="276224"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1846,7 +2110,8 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>(209 days ago)</a:t>
+              <a:pPr/>
+              <a:t>(149 days ago)</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="1200" b="1"/>
           </a:p>
@@ -1987,8 +2252,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4610100" y="800101"/>
-            <a:ext cx="304800" cy="276224"/>
+            <a:off x="4610099" y="800101"/>
+            <a:ext cx="542925" cy="276224"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2024,7 +2289,8 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>3</a:t>
+              <a:pPr/>
+              <a:t>54</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="1600" b="1"/>
           </a:p>
@@ -2037,7 +2303,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4810124" y="800101"/>
+            <a:off x="5067299" y="800101"/>
             <a:ext cx="1095375" cy="276224"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2074,7 +2340,8 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>(2 this year)</a:t>
+              <a:pPr/>
+              <a:t>(53 this year)</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="1200" b="1"/>
           </a:p>
@@ -2216,7 +2483,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6467474" y="790576"/>
-            <a:ext cx="847725" cy="276224"/>
+            <a:ext cx="1028701" cy="276224"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2252,7 +2519,8 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t> 1,700.00 </a:t>
+              <a:pPr/>
+              <a:t> 3,36,150.00 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="1800" b="1"/>
           </a:p>
@@ -2265,7 +2533,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7219950" y="790576"/>
+            <a:off x="7496175" y="790576"/>
             <a:ext cx="2295525" cy="276224"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2302,6 +2570,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>of tracked income left to be allocated</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="1100" b="1"/>
@@ -2351,18 +2620,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tracking" displayName="tracking" ref="D10:J13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="D10:J13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tracking" displayName="tracking" ref="D10:J64" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="D10:J64"/>
+  <sortState ref="D11:J64">
+    <sortCondition ref="D10:D64"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" name="Type" dataDxfId="15"/>
-    <tableColumn id="3" name="Category" dataDxfId="14"/>
-    <tableColumn id="4" name="Amount" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="5" name="Details" dataDxfId="12"/>
-    <tableColumn id="6" name="Balance" dataDxfId="11" dataCellStyle="Comma">
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Type" dataDxfId="8"/>
+    <tableColumn id="3" name="Category" dataDxfId="7"/>
+    <tableColumn id="4" name="Amount" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="Details" dataDxfId="5"/>
+    <tableColumn id="6" name="Balance" dataDxfId="4" dataCellStyle="Comma">
       <calculatedColumnFormula>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Effective Date" dataDxfId="10">
+    <tableColumn id="7" name="Effective Date" dataDxfId="3">
       <calculatedColumnFormula>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
 DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
  tracking[[#This Row],[Date]])</calculatedColumnFormula>
@@ -2662,7 +2934,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2677,15 +2949,15 @@
     <col min="8" max="8" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="52" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51"/>
+    <row r="1" spans="1:18" s="50" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49"/>
     </row>
-    <row r="2" spans="1:18" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="53" t="s">
+    <row r="2" spans="1:18" s="50" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="51" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="52" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" s="50" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2707,14 +2979,14 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="C5" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2810,14 +3082,14 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="C10" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2852,7 +3124,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2892,14 +3164,14 @@
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="47" t="s">
-        <v>51</v>
+      <c r="G14" s="73" t="s">
+        <v>50</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
@@ -2919,7 +3191,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="47"/>
+      <c r="G15" s="73"/>
       <c r="H15" s="42"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2936,13 +3208,13 @@
       <c r="B16" s="2"/>
       <c r="C16" s="41"/>
       <c r="D16" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="10">
         <v>20</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="47"/>
+      <c r="G16" s="73"/>
       <c r="H16" s="42"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3285,7 +3557,7 @@
     <mergeCell ref="G14:G16"/>
   </mergeCells>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>shift_late_income_status="Inactive"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3304,10 +3576,10 @@
   <dimension ref="A1:EM55"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3374,179 +3646,179 @@
     <col min="144" max="144" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:143" s="52" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51"/>
+    <row r="1" spans="1:143" s="50" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49"/>
     </row>
-    <row r="2" spans="1:143" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="53" t="s">
+    <row r="2" spans="1:143" s="50" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:143" s="52" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:143" s="50" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:143" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="74">
         <f>starting_year</f>
         <v>2023</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="S5" s="55">
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="S5" s="74">
         <f>E5+1</f>
         <v>2024</v>
       </c>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AG5" s="55">
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AG5" s="74">
         <f t="shared" ref="AG5" si="0">S5+1</f>
         <v>2025</v>
       </c>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="55"/>
-      <c r="AU5" s="55">
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="74"/>
+      <c r="AU5" s="74">
         <f t="shared" ref="AU5" si="1">AG5+1</f>
         <v>2026</v>
       </c>
-      <c r="AV5" s="55"/>
-      <c r="AW5" s="55"/>
-      <c r="AX5" s="55"/>
-      <c r="AY5" s="55"/>
-      <c r="AZ5" s="55"/>
-      <c r="BA5" s="55"/>
-      <c r="BB5" s="55"/>
-      <c r="BC5" s="55"/>
-      <c r="BD5" s="55"/>
-      <c r="BE5" s="55"/>
-      <c r="BF5" s="55"/>
-      <c r="BG5" s="55"/>
-      <c r="BI5" s="55">
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="74"/>
+      <c r="BB5" s="74"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="74"/>
+      <c r="BF5" s="74"/>
+      <c r="BG5" s="74"/>
+      <c r="BI5" s="74">
         <f t="shared" ref="BI5" si="2">AU5+1</f>
         <v>2027</v>
       </c>
-      <c r="BJ5" s="55"/>
-      <c r="BK5" s="55"/>
-      <c r="BL5" s="55"/>
-      <c r="BM5" s="55"/>
-      <c r="BN5" s="55"/>
-      <c r="BO5" s="55"/>
-      <c r="BP5" s="55"/>
-      <c r="BQ5" s="55"/>
-      <c r="BR5" s="55"/>
-      <c r="BS5" s="55"/>
-      <c r="BT5" s="55"/>
-      <c r="BU5" s="55"/>
-      <c r="BW5" s="55">
+      <c r="BJ5" s="74"/>
+      <c r="BK5" s="74"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="74"/>
+      <c r="BN5" s="74"/>
+      <c r="BO5" s="74"/>
+      <c r="BP5" s="74"/>
+      <c r="BQ5" s="74"/>
+      <c r="BR5" s="74"/>
+      <c r="BS5" s="74"/>
+      <c r="BT5" s="74"/>
+      <c r="BU5" s="74"/>
+      <c r="BW5" s="74">
         <f t="shared" ref="BW5" si="3">BI5+1</f>
         <v>2028</v>
       </c>
-      <c r="BX5" s="55"/>
-      <c r="BY5" s="55"/>
-      <c r="BZ5" s="55"/>
-      <c r="CA5" s="55"/>
-      <c r="CB5" s="55"/>
-      <c r="CC5" s="55"/>
-      <c r="CD5" s="55"/>
-      <c r="CE5" s="55"/>
-      <c r="CF5" s="55"/>
-      <c r="CG5" s="55"/>
-      <c r="CH5" s="55"/>
-      <c r="CI5" s="55"/>
-      <c r="CK5" s="55">
+      <c r="BX5" s="74"/>
+      <c r="BY5" s="74"/>
+      <c r="BZ5" s="74"/>
+      <c r="CA5" s="74"/>
+      <c r="CB5" s="74"/>
+      <c r="CC5" s="74"/>
+      <c r="CD5" s="74"/>
+      <c r="CE5" s="74"/>
+      <c r="CF5" s="74"/>
+      <c r="CG5" s="74"/>
+      <c r="CH5" s="74"/>
+      <c r="CI5" s="74"/>
+      <c r="CK5" s="74">
         <f t="shared" ref="CK5" si="4">BW5+1</f>
         <v>2029</v>
       </c>
-      <c r="CL5" s="55"/>
-      <c r="CM5" s="55"/>
-      <c r="CN5" s="55"/>
-      <c r="CO5" s="55"/>
-      <c r="CP5" s="55"/>
-      <c r="CQ5" s="55"/>
-      <c r="CR5" s="55"/>
-      <c r="CS5" s="55"/>
-      <c r="CT5" s="55"/>
-      <c r="CU5" s="55"/>
-      <c r="CV5" s="55"/>
-      <c r="CW5" s="55"/>
-      <c r="CY5" s="55">
+      <c r="CL5" s="74"/>
+      <c r="CM5" s="74"/>
+      <c r="CN5" s="74"/>
+      <c r="CO5" s="74"/>
+      <c r="CP5" s="74"/>
+      <c r="CQ5" s="74"/>
+      <c r="CR5" s="74"/>
+      <c r="CS5" s="74"/>
+      <c r="CT5" s="74"/>
+      <c r="CU5" s="74"/>
+      <c r="CV5" s="74"/>
+      <c r="CW5" s="74"/>
+      <c r="CY5" s="74">
         <f t="shared" ref="CY5" si="5">CK5+1</f>
         <v>2030</v>
       </c>
-      <c r="CZ5" s="55"/>
-      <c r="DA5" s="55"/>
-      <c r="DB5" s="55"/>
-      <c r="DC5" s="55"/>
-      <c r="DD5" s="55"/>
-      <c r="DE5" s="55"/>
-      <c r="DF5" s="55"/>
-      <c r="DG5" s="55"/>
-      <c r="DH5" s="55"/>
-      <c r="DI5" s="55"/>
-      <c r="DJ5" s="55"/>
-      <c r="DK5" s="55"/>
-      <c r="DM5" s="55">
+      <c r="CZ5" s="74"/>
+      <c r="DA5" s="74"/>
+      <c r="DB5" s="74"/>
+      <c r="DC5" s="74"/>
+      <c r="DD5" s="74"/>
+      <c r="DE5" s="74"/>
+      <c r="DF5" s="74"/>
+      <c r="DG5" s="74"/>
+      <c r="DH5" s="74"/>
+      <c r="DI5" s="74"/>
+      <c r="DJ5" s="74"/>
+      <c r="DK5" s="74"/>
+      <c r="DM5" s="74">
         <f t="shared" ref="DM5" si="6">CY5+1</f>
         <v>2031</v>
       </c>
-      <c r="DN5" s="55"/>
-      <c r="DO5" s="55"/>
-      <c r="DP5" s="55"/>
-      <c r="DQ5" s="55"/>
-      <c r="DR5" s="55"/>
-      <c r="DS5" s="55"/>
-      <c r="DT5" s="55"/>
-      <c r="DU5" s="55"/>
-      <c r="DV5" s="55"/>
-      <c r="DW5" s="55"/>
-      <c r="DX5" s="55"/>
-      <c r="DY5" s="55"/>
-      <c r="EA5" s="55">
+      <c r="DN5" s="74"/>
+      <c r="DO5" s="74"/>
+      <c r="DP5" s="74"/>
+      <c r="DQ5" s="74"/>
+      <c r="DR5" s="74"/>
+      <c r="DS5" s="74"/>
+      <c r="DT5" s="74"/>
+      <c r="DU5" s="74"/>
+      <c r="DV5" s="74"/>
+      <c r="DW5" s="74"/>
+      <c r="DX5" s="74"/>
+      <c r="DY5" s="74"/>
+      <c r="EA5" s="74">
         <f t="shared" ref="EA5" si="7">DM5+1</f>
         <v>2032</v>
       </c>
-      <c r="EB5" s="55"/>
-      <c r="EC5" s="55"/>
-      <c r="ED5" s="55"/>
-      <c r="EE5" s="55"/>
-      <c r="EF5" s="55"/>
-      <c r="EG5" s="55"/>
-      <c r="EH5" s="55"/>
-      <c r="EI5" s="55"/>
-      <c r="EJ5" s="55"/>
-      <c r="EK5" s="55"/>
-      <c r="EL5" s="55"/>
-      <c r="EM5" s="55"/>
+      <c r="EB5" s="74"/>
+      <c r="EC5" s="74"/>
+      <c r="ED5" s="74"/>
+      <c r="EE5" s="74"/>
+      <c r="EF5" s="74"/>
+      <c r="EG5" s="74"/>
+      <c r="EH5" s="74"/>
+      <c r="EI5" s="74"/>
+      <c r="EJ5" s="74"/>
+      <c r="EK5" s="74"/>
+      <c r="EL5" s="74"/>
+      <c r="EM5" s="74"/>
     </row>
     <row r="6" spans="1:143" x14ac:dyDescent="0.25">
       <c r="E6" s="31" t="str">
@@ -5125,10 +5397,14 @@
         <v>20</v>
       </c>
       <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="E10" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="24">
+        <v>3000</v>
+      </c>
       <c r="G10" s="24">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
@@ -5147,7 +5423,7 @@
       </c>
       <c r="Q10" s="25">
         <f>SUM(E10:P10)</f>
-        <v>3400</v>
+        <v>10400</v>
       </c>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
@@ -5299,9 +5575,15 @@
         <v>17</v>
       </c>
       <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="E11" s="24">
+        <v>15000</v>
+      </c>
+      <c r="F11" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G11" s="24">
+        <v>15000</v>
+      </c>
       <c r="H11" s="24">
         <v>155000</v>
       </c>
@@ -5315,7 +5597,7 @@
       <c r="P11" s="24"/>
       <c r="Q11" s="25">
         <f>SUM(E11:P11)</f>
-        <v>155000</v>
+        <v>200000</v>
       </c>
       <c r="S11" s="24"/>
       <c r="T11" s="24"/>
@@ -5657,11 +5939,15 @@
         <v>32</v>
       </c>
       <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="24">
+        <v>4000</v>
+      </c>
       <c r="F13" s="24">
-        <v>5000</v>
-      </c>
-      <c r="G13" s="24"/>
+        <v>4000</v>
+      </c>
+      <c r="G13" s="24">
+        <v>4000</v>
+      </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24">
         <v>8000</v>
@@ -5675,7 +5961,7 @@
       <c r="P13" s="24"/>
       <c r="Q13" s="25">
         <f>SUM(E13:P13)</f>
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="S13" s="24"/>
       <c r="T13" s="24"/>
@@ -6538,15 +6824,15 @@
       </c>
       <c r="E19" s="17">
         <f t="shared" ref="E19:BP19" ca="1" si="233">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>155000</v>
+        <v>177000</v>
       </c>
       <c r="F19" s="17">
         <f t="shared" ca="1" si="233"/>
-        <v>160000</v>
+        <v>177000</v>
       </c>
       <c r="G19" s="17">
         <f t="shared" ca="1" si="233"/>
-        <v>157000</v>
+        <v>177000</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" ca="1" si="233"/>
@@ -6586,7 +6872,7 @@
       </c>
       <c r="Q19" s="17">
         <f t="shared" ca="1" si="233"/>
-        <v>2031400</v>
+        <v>2090400</v>
       </c>
       <c r="S19" s="17">
         <f t="shared" ca="1" si="233"/>
@@ -7777,11 +8063,15 @@
         <v>9</v>
       </c>
       <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
+      <c r="E23" s="24">
+        <v>1500</v>
+      </c>
       <c r="F23" s="24">
-        <v>1000</v>
-      </c>
-      <c r="G23" s="24"/>
+        <v>1500</v>
+      </c>
+      <c r="G23" s="24">
+        <v>1500</v>
+      </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24">
@@ -7797,7 +8087,7 @@
       <c r="P23" s="24"/>
       <c r="Q23" s="25">
         <f t="shared" ref="Q23:Q38" si="347">SUM(E23:P23)</f>
-        <v>1900</v>
+        <v>5400</v>
       </c>
       <c r="S23" s="24"/>
       <c r="T23" s="24"/>
@@ -7949,9 +8239,15 @@
         <v>5</v>
       </c>
       <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="E24" s="24">
+        <v>4000</v>
+      </c>
+      <c r="F24" s="24">
+        <v>4000</v>
+      </c>
+      <c r="G24" s="24">
+        <v>4000</v>
+      </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
@@ -7963,7 +8259,7 @@
       <c r="P24" s="24"/>
       <c r="Q24" s="25">
         <f t="shared" si="347"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
@@ -8116,13 +8412,13 @@
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="24">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="F25" s="24">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="G25" s="24">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="H25" s="24">
         <v>8000</v>
@@ -8153,7 +8449,7 @@
       </c>
       <c r="Q25" s="25">
         <f t="shared" si="347"/>
-        <v>96000</v>
+        <v>87000</v>
       </c>
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
@@ -8305,9 +8601,15 @@
         <v>8</v>
       </c>
       <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="E26" s="24">
+        <v>2000</v>
+      </c>
+      <c r="F26" s="24">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="24">
+        <v>2000</v>
+      </c>
       <c r="H26" s="24">
         <v>100000</v>
       </c>
@@ -8321,7 +8623,7 @@
       <c r="P26" s="24"/>
       <c r="Q26" s="25">
         <f t="shared" si="347"/>
-        <v>100000</v>
+        <v>106000</v>
       </c>
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
@@ -8476,8 +8778,12 @@
       <c r="E27" s="24">
         <v>7500</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="F27" s="24">
+        <v>7500</v>
+      </c>
+      <c r="G27" s="24">
+        <v>7500</v>
+      </c>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
@@ -8491,7 +8797,7 @@
       <c r="P27" s="24"/>
       <c r="Q27" s="25">
         <f t="shared" si="347"/>
-        <v>8100</v>
+        <v>23100</v>
       </c>
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
@@ -8643,11 +8949,15 @@
         <v>3</v>
       </c>
       <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
+      <c r="E28" s="24">
+        <v>2000</v>
+      </c>
       <c r="F28" s="24">
-        <v>3800</v>
-      </c>
-      <c r="G28" s="24"/>
+        <v>2000</v>
+      </c>
+      <c r="G28" s="24">
+        <v>2000</v>
+      </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
@@ -8661,7 +8971,7 @@
       <c r="P28" s="24"/>
       <c r="Q28" s="25">
         <f t="shared" si="347"/>
-        <v>6600</v>
+        <v>8800</v>
       </c>
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
@@ -8813,9 +9123,15 @@
         <v>10</v>
       </c>
       <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="E29" s="24">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="24">
+        <v>1000</v>
+      </c>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
@@ -8827,7 +9143,7 @@
       <c r="P29" s="24"/>
       <c r="Q29" s="25">
         <f t="shared" si="347"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="S29" s="24"/>
       <c r="T29" s="24"/>
@@ -8979,10 +9295,14 @@
         <v>7</v>
       </c>
       <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
+      <c r="E30" s="24">
+        <v>500</v>
+      </c>
+      <c r="F30" s="24">
+        <v>500</v>
+      </c>
       <c r="G30" s="24">
-        <v>3400</v>
+        <v>500</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -8999,7 +9319,7 @@
       </c>
       <c r="Q30" s="25">
         <f t="shared" si="347"/>
-        <v>21200</v>
+        <v>19300</v>
       </c>
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
@@ -9151,9 +9471,15 @@
         <v>0</v>
       </c>
       <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="E31" s="24">
+        <v>3900</v>
+      </c>
+      <c r="F31" s="24">
+        <v>3900</v>
+      </c>
+      <c r="G31" s="24">
+        <v>3900</v>
+      </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
@@ -9165,7 +9491,7 @@
       <c r="P31" s="24"/>
       <c r="Q31" s="25">
         <f t="shared" si="347"/>
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -9507,9 +9833,15 @@
         <v>6</v>
       </c>
       <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="E33" s="24">
+        <v>900</v>
+      </c>
+      <c r="F33" s="24">
+        <v>900</v>
+      </c>
+      <c r="G33" s="24">
+        <v>900</v>
+      </c>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
@@ -9521,7 +9853,7 @@
       <c r="P33" s="24"/>
       <c r="Q33" s="25">
         <f t="shared" si="347"/>
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="S33" s="24"/>
       <c r="T33" s="24"/>
@@ -10384,15 +10716,15 @@
       </c>
       <c r="E39" s="17">
         <f t="shared" ref="E39:BP39" ca="1" si="366">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(expenses_max_row,COLUMN())))</f>
-        <v>86300</v>
+        <v>99100</v>
       </c>
       <c r="F39" s="17">
         <f t="shared" ca="1" si="366"/>
-        <v>83600</v>
+        <v>99100</v>
       </c>
       <c r="G39" s="17">
         <f t="shared" ca="1" si="366"/>
-        <v>82200</v>
+        <v>99100</v>
       </c>
       <c r="H39" s="17">
         <f t="shared" ca="1" si="366"/>
@@ -10432,7 +10764,7 @@
       </c>
       <c r="Q39" s="17">
         <f t="shared" ca="1" si="366"/>
-        <v>1151600</v>
+        <v>1196800</v>
       </c>
       <c r="S39" s="17">
         <f t="shared" ca="1" si="366"/>
@@ -11433,9 +11765,15 @@
         <v>14</v>
       </c>
       <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="E42" s="24">
+        <v>4000</v>
+      </c>
+      <c r="F42" s="24">
+        <v>4000</v>
+      </c>
+      <c r="G42" s="24">
+        <v>4000</v>
+      </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
@@ -11447,7 +11785,7 @@
       <c r="P42" s="24"/>
       <c r="Q42" s="25">
         <f>SUM(E42:P42)</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="S42" s="24"/>
       <c r="T42" s="24"/>
@@ -11599,10 +11937,14 @@
         <v>4</v>
       </c>
       <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
+      <c r="E43" s="24">
+        <v>7900</v>
+      </c>
+      <c r="F43" s="24">
+        <v>7900</v>
+      </c>
       <c r="G43" s="24">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
@@ -11619,7 +11961,7 @@
       </c>
       <c r="Q43" s="25">
         <f t="shared" ref="Q43:Q54" si="480">SUM(E43:P43)</f>
-        <v>24000</v>
+        <v>39700</v>
       </c>
       <c r="S43" s="24"/>
       <c r="T43" s="24"/>
@@ -11772,13 +12114,13 @@
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="24">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="F44" s="24">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="G44" s="24">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="H44" s="24">
         <v>40000</v>
@@ -11809,7 +12151,7 @@
       </c>
       <c r="Q44" s="25">
         <f t="shared" si="480"/>
-        <v>465900</v>
+        <v>435900</v>
       </c>
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
@@ -11961,9 +12303,15 @@
         <v>12</v>
       </c>
       <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+      <c r="E45" s="24">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="24">
+        <v>5000</v>
+      </c>
+      <c r="G45" s="24">
+        <v>5000</v>
+      </c>
       <c r="H45" s="24">
         <v>50000</v>
       </c>
@@ -11977,7 +12325,7 @@
       <c r="P45" s="24"/>
       <c r="Q45" s="25">
         <f t="shared" si="480"/>
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
@@ -12129,9 +12477,15 @@
         <v>16</v>
       </c>
       <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
+      <c r="E46" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F46" s="24">
+        <v>3000</v>
+      </c>
+      <c r="G46" s="24">
+        <v>3000</v>
+      </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
@@ -12143,7 +12497,7 @@
       <c r="P46" s="24"/>
       <c r="Q46" s="25">
         <f t="shared" si="480"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
@@ -12295,9 +12649,15 @@
         <v>15</v>
       </c>
       <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="E47" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F47" s="24">
+        <v>3000</v>
+      </c>
+      <c r="G47" s="24">
+        <v>3000</v>
+      </c>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
@@ -12309,7 +12669,7 @@
       <c r="P47" s="24"/>
       <c r="Q47" s="25">
         <f t="shared" si="480"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
@@ -12462,13 +12822,13 @@
       </c>
       <c r="D48" s="23"/>
       <c r="E48" s="24">
-        <v>18700</v>
+        <v>15000</v>
       </c>
       <c r="F48" s="24">
-        <v>26400</v>
+        <v>15000</v>
       </c>
       <c r="G48" s="24">
-        <v>16800</v>
+        <v>15000</v>
       </c>
       <c r="H48" s="24">
         <v>1200</v>
@@ -12497,7 +12857,7 @@
       </c>
       <c r="Q48" s="25">
         <f t="shared" si="480"/>
-        <v>219900</v>
+        <v>203000</v>
       </c>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
@@ -13671,15 +14031,15 @@
       <c r="D55" s="16"/>
       <c r="E55" s="17">
         <f t="shared" ref="E55:BP55" ca="1" si="490">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN()) &amp; ":" &amp; ADDRESS(savings_max_row,COLUMN())))</f>
-        <v>68700</v>
+        <v>77900</v>
       </c>
       <c r="F55" s="17">
         <f t="shared" ca="1" si="490"/>
-        <v>76400</v>
+        <v>77900</v>
       </c>
       <c r="G55" s="17">
         <f t="shared" ca="1" si="490"/>
-        <v>74800</v>
+        <v>77900</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" ca="1" si="490"/>
@@ -13719,7 +14079,7 @@
       </c>
       <c r="Q55" s="17">
         <f t="shared" ca="1" si="490"/>
-        <v>879800</v>
+        <v>893600</v>
       </c>
       <c r="S55" s="17">
         <f t="shared" ca="1" si="490"/>
@@ -14204,28 +14564,28 @@
     <mergeCell ref="BI5:BU5"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C13 S10:AE19 S22:AE39 S42:AE55 AG10:AS19 AU10:BG19 BI10:BU19 BW10:CI19 CK10:CW19 CY10:DK19 DM10:DY19 AG22:AS39 AU22:BG39 BI22:BU39 BW22:CI39 CK22:CW39 CY22:DK39 DM22:DY39 AG42:AS55 AU42:BG55 BI42:BU55 BW42:CI55 CK42:CW55 CY42:DK55 DM42:DY55 EA10:EM19 EA22:EM39 EA42:EM55 E10:Q19 E22:Q39 E42:Q55">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>ROW(A10) &lt;= income_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23:Q39 C22:C33 AE23:AE39 S22:AE38 S42:AE54 AS23:AS39 BG23:BG39 BU23:BU39 CI23:CI39 CW23:CW39 DK23:DK39 DY23:DY39 AG22:AS38 AU22:BG38 BI22:BU38 BW22:CI38 CK22:CW38 CY22:DK38 DM22:DY38 AG42:AS54 AU42:BG54 BI42:BU54 BW42:CI54 CK42:CW54 CY42:DK54 DM42:DY54 EM23:EM39 EA22:EM38 EA42:EM54 E22:Q38 E42:Q54">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>ROW(A22) &lt;= expenses_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C54 S42:AE54 AG42:AS54 AU42:BG54 BI42:BU54 BW42:CI54 CK42:CW54 CY42:DK54 DM42:DY54 EA42:EM54 E42:Q54">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>ROW(A42) &lt;= savings_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:Q7 S6:AE7 AG6:AS7 AU6:BG7 BI6:BU7 BW6:CI7 CK6:CW7 CY6:DK7 DM6:DY7 EA6:EM7">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="1" stopIfTrue="1">
       <formula>AND(E$19=0,E$39=0,E$55=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="2" stopIfTrue="1">
       <formula>E$7=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>E$7&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14241,10 +14601,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14258,15 +14619,15 @@
     <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51"/>
+    <row r="1" spans="1:10" s="50" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49"/>
     </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="53" t="s">
+    <row r="2" spans="1:10" s="50" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="51" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" s="50" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="32" t="s">
         <v>37</v>
@@ -14284,29 +14645,29 @@
         <v>41</v>
       </c>
       <c r="I10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="37" t="s">
         <v>43</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="34">
         <v>44916</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="64" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="35">
-        <v>3500</v>
+        <v>155000</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="38">
         <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
-        <v>3500</v>
+        <v>155000</v>
       </c>
       <c r="J11" s="46">
         <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
@@ -14319,21 +14680,21 @@
       <c r="D12" s="34">
         <v>44927</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="64" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G12" s="35">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="I12" s="38">
         <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
-        <v>2300</v>
+        <v>147000</v>
       </c>
       <c r="J12" s="46">
         <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
@@ -14346,19 +14707,19 @@
       <c r="D13" s="34">
         <v>44928</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="64" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="35">
-        <v>600</v>
+        <v>40000</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="38">
         <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
-        <v>1700</v>
+        <v>107000</v>
       </c>
       <c r="J13" s="46">
         <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
@@ -14367,33 +14728,1310 @@
         <v>44928</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="34">
+        <v>44929</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="65">
+        <v>4000</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>111000</v>
+      </c>
+      <c r="J14" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="34">
+        <v>44930</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="65">
+        <v>15000</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>126000</v>
+      </c>
+      <c r="J15" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="34">
+        <v>44931</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="65">
+        <v>3000</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>115700</v>
+      </c>
+      <c r="J16" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="34">
+        <v>44931</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="65">
+        <v>8000</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>115700</v>
+      </c>
+      <c r="J17" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="34">
+        <v>44931</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>115700</v>
+      </c>
+      <c r="J18" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="34">
+        <v>44931</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="65">
+        <v>1400</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>115700</v>
+      </c>
+      <c r="J19" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="34">
+        <v>44931</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="65">
+        <v>2500</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>115700</v>
+      </c>
+      <c r="J20" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="34">
+        <v>44931</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="65">
+        <v>400</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>115700</v>
+      </c>
+      <c r="J21" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="34">
+        <v>44932</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="65">
+        <v>5600</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>110100</v>
+      </c>
+      <c r="J22" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="34">
+        <v>44933</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="65">
+        <v>1800</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>108300</v>
+      </c>
+      <c r="J23" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="34">
+        <v>44934</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="65">
+        <v>500</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>107800</v>
+      </c>
+      <c r="J24" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="34">
+        <v>44935</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="65">
+        <v>3546</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>104254</v>
+      </c>
+      <c r="J25" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="34">
+        <v>44936</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="65">
+        <v>400</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>103854</v>
+      </c>
+      <c r="J26" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="34">
+        <v>44937</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="65">
+        <v>350</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>103504</v>
+      </c>
+      <c r="J27" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="34">
+        <v>44938</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="65">
+        <v>2100</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>101404</v>
+      </c>
+      <c r="J28" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="34">
+        <v>44939</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="65">
+        <v>2400</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>99004</v>
+      </c>
+      <c r="J29" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="34">
+        <v>44940</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="65">
+        <v>0</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>99004</v>
+      </c>
+      <c r="J30" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="34">
+        <v>44941</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="65">
+        <v>600</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>69064</v>
+      </c>
+      <c r="J31" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="34">
+        <v>44941</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="65">
+        <v>1340</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>69064</v>
+      </c>
+      <c r="J32" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="34">
+        <v>44941</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="65">
+        <v>3000</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>69064</v>
+      </c>
+      <c r="J33" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="34">
+        <v>44941</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="65">
+        <v>15000</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="I34" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>69064</v>
+      </c>
+      <c r="J34" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="34">
+        <v>44941</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="65">
+        <v>10000</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="I35" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>69064</v>
+      </c>
+      <c r="J35" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="34">
+        <v>44951</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="65">
+        <v>155000</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>224064</v>
+      </c>
+      <c r="J36" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="34">
+        <v>44962</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="65">
+        <v>50000</v>
+      </c>
+      <c r="H37" s="66"/>
+      <c r="I37" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>274064</v>
+      </c>
+      <c r="J37" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44962</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="34">
+        <v>44964</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="65">
+        <v>5000</v>
+      </c>
+      <c r="H38" s="66"/>
+      <c r="I38" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>269064</v>
+      </c>
+      <c r="J38" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="34">
+        <v>44965</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="65">
+        <v>6000</v>
+      </c>
+      <c r="H39" s="66"/>
+      <c r="I39" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>275064</v>
+      </c>
+      <c r="J39" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="34">
+        <v>44966</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="65">
+        <v>4000</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>271064</v>
+      </c>
+      <c r="J40" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="34">
+        <v>44967</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="65">
+        <v>70000</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="I41" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>201064</v>
+      </c>
+      <c r="J41" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="34">
+        <v>44968</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="65">
+        <v>7000</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="38">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>194064</v>
+      </c>
+      <c r="J42" s="46">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="86">
+        <v>44969</v>
+      </c>
+      <c r="E43" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="83">
+        <v>3500</v>
+      </c>
+      <c r="H43" s="89"/>
+      <c r="I43" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>197564</v>
+      </c>
+      <c r="J43" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="86">
+        <v>44970</v>
+      </c>
+      <c r="E44" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="83">
+        <v>200</v>
+      </c>
+      <c r="H44" s="89"/>
+      <c r="I44" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>197764</v>
+      </c>
+      <c r="J44" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="86">
+        <v>44971</v>
+      </c>
+      <c r="E45" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="83">
+        <v>4000</v>
+      </c>
+      <c r="H45" s="89"/>
+      <c r="I45" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>193764</v>
+      </c>
+      <c r="J45" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="86">
+        <v>44972</v>
+      </c>
+      <c r="E46" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="83">
+        <v>500</v>
+      </c>
+      <c r="H46" s="89"/>
+      <c r="I46" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>193264</v>
+      </c>
+      <c r="J46" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="86">
+        <v>44973</v>
+      </c>
+      <c r="E47" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="83">
+        <v>2500</v>
+      </c>
+      <c r="H47" s="89"/>
+      <c r="I47" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>190764</v>
+      </c>
+      <c r="J47" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="86">
+        <v>44974</v>
+      </c>
+      <c r="E48" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="83">
+        <v>500</v>
+      </c>
+      <c r="H48" s="89"/>
+      <c r="I48" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>190264</v>
+      </c>
+      <c r="J48" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="86">
+        <v>44975</v>
+      </c>
+      <c r="E49" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="83">
+        <v>190</v>
+      </c>
+      <c r="H49" s="89"/>
+      <c r="I49" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>190074</v>
+      </c>
+      <c r="J49" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="86">
+        <v>44976</v>
+      </c>
+      <c r="E50" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="83">
+        <v>989</v>
+      </c>
+      <c r="H50" s="89"/>
+      <c r="I50" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>189085</v>
+      </c>
+      <c r="J50" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="86">
+        <v>44977</v>
+      </c>
+      <c r="E51" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="83">
+        <v>700</v>
+      </c>
+      <c r="H51" s="89"/>
+      <c r="I51" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>188385</v>
+      </c>
+      <c r="J51" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="86">
+        <v>44978</v>
+      </c>
+      <c r="E52" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="83">
+        <v>600</v>
+      </c>
+      <c r="H52" s="89"/>
+      <c r="I52" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>187785</v>
+      </c>
+      <c r="J52" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="86">
+        <v>44979</v>
+      </c>
+      <c r="E53" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="83">
+        <v>600</v>
+      </c>
+      <c r="H53" s="89"/>
+      <c r="I53" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>187185</v>
+      </c>
+      <c r="J53" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D54" s="86">
+        <v>44980</v>
+      </c>
+      <c r="E54" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="83">
+        <v>790</v>
+      </c>
+      <c r="H54" s="89"/>
+      <c r="I54" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>186395</v>
+      </c>
+      <c r="J54" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D55" s="86">
+        <v>44981</v>
+      </c>
+      <c r="E55" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="83">
+        <v>2000</v>
+      </c>
+      <c r="H55" s="89"/>
+      <c r="I55" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>184395</v>
+      </c>
+      <c r="J55" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="86">
+        <v>44982</v>
+      </c>
+      <c r="E56" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="83">
+        <v>1500</v>
+      </c>
+      <c r="H56" s="89"/>
+      <c r="I56" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>182895</v>
+      </c>
+      <c r="J56" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44982</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="86">
+        <v>44983</v>
+      </c>
+      <c r="E57" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="83">
+        <v>5789</v>
+      </c>
+      <c r="H57" s="89"/>
+      <c r="I57" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>177106</v>
+      </c>
+      <c r="J57" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D58" s="86">
+        <v>44984</v>
+      </c>
+      <c r="E58" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="83">
+        <v>3456</v>
+      </c>
+      <c r="H58" s="89"/>
+      <c r="I58" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>173650</v>
+      </c>
+      <c r="J58" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D59" s="86">
+        <v>44985</v>
+      </c>
+      <c r="E59" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="83">
+        <v>2500</v>
+      </c>
+      <c r="H59" s="89"/>
+      <c r="I59" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>359150</v>
+      </c>
+      <c r="J59" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D60" s="86">
+        <v>44985</v>
+      </c>
+      <c r="E60" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="83">
+        <v>12000</v>
+      </c>
+      <c r="H60" s="89"/>
+      <c r="I60" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>359150</v>
+      </c>
+      <c r="J60" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D61" s="86">
+        <v>44985</v>
+      </c>
+      <c r="E61" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="83">
+        <v>200000</v>
+      </c>
+      <c r="H61" s="89"/>
+      <c r="I61" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>359150</v>
+      </c>
+      <c r="J61" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D62" s="86">
+        <v>44986</v>
+      </c>
+      <c r="E62" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="83">
+        <v>4000</v>
+      </c>
+      <c r="H62" s="89"/>
+      <c r="I62" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>355150</v>
+      </c>
+      <c r="J62" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D63" s="86">
+        <v>44987</v>
+      </c>
+      <c r="E63" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="83">
+        <v>15000</v>
+      </c>
+      <c r="H63" s="89"/>
+      <c r="I63" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>340150</v>
+      </c>
+      <c r="J63" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D64" s="86">
+        <v>44988</v>
+      </c>
+      <c r="E64" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="83">
+        <v>4000</v>
+      </c>
+      <c r="H64" s="89"/>
+      <c r="I64" s="84">
+        <f>SUMPRODUCT(tracking[Amount], (tracking[Date] &lt;=tracking[[#This Row],[Date]])*1, (tracking[Type]&lt;&gt;"Income")*(-1) + (tracking[Type]="Income"))</f>
+        <v>336150</v>
+      </c>
+      <c r="J64" s="85">
+        <f>IF(AND(tracking[[#This Row],[Type]]="Income", shift_late_income_status="Active", DAY(tracking[[#This Row],[Date]])&gt;=shift_late_income_starting_day),
+DATE(YEAR(tracking[[#This Row],[Date]]), MONTH(tracking[[#This Row],[Date]])+1, 1),
+ tracking[[#This Row],[Date]])</f>
+        <v>44988</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F11:F13">
+  <conditionalFormatting sqref="F11:F64">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>ISNA(MATCH(F11, INDIRECT(E11), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G13">
+  <conditionalFormatting sqref="G11:G64">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>E11="Income"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J13">
+  <conditionalFormatting sqref="J11:J64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(E11="Income", shift_late_income_status="Active", DAY(D11)&gt;=shift_late_income_starting_day)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter a valid date." sqref="D11:D13">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter a valid date." sqref="D11:D64">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a valid type from the dropdown." sqref="E11:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a valid type from the dropdown." sqref="E11:E64">
       <formula1>"Income, Expenses, Savings"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Category" error="Please select a valid category from the dropdown." sqref="F11:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Category" error="Please select a valid category from the dropdown." sqref="F11:F64">
       <formula1>INDIRECT(E11)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Amount" error="Please enter a valid amount." sqref="G11:G13">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Amount" error="Please enter a valid amount." sqref="G11:G64">
       <formula1>ISNUMBER(G11)</formula1>
     </dataValidation>
   </dataValidations>
@@ -14408,142 +16046,5709 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AR50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ9" sqref="AQ9:AR9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2" customWidth="1"/>
-    <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5703125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="16" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="52" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51"/>
+    <row r="1" spans="1:44" s="50" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49"/>
     </row>
-    <row r="2" spans="1:44" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="53" t="s">
+    <row r="2" spans="1:44" s="50" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+    </row>
+    <row r="3" spans="1:44" s="50" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ5" s="77" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" s="52" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AQ5" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR5" s="59"/>
+      <c r="AR5" s="78"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AN6" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO6" s="60"/>
-      <c r="AP6" s="60"/>
-      <c r="AQ6" s="61">
-        <v>2025</v>
-      </c>
-      <c r="AR6" s="61"/>
+      <c r="AN6" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO6" s="80"/>
+      <c r="AP6" s="80"/>
+      <c r="AQ6" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR6" s="79"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AQ8" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR8" s="59"/>
+      <c r="AQ8" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR8" s="78"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AN9" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR9" s="67"/>
+      <c r="AN9" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO9" s="80"/>
+      <c r="AP9" s="80"/>
+      <c r="AQ9" s="81">
+        <v>36526</v>
+      </c>
+      <c r="AR9" s="81"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="57" t="str">
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="76" t="str">
         <f>"Breakdown - " &amp;
 IF(selected_period="Total Year",
 selected_year &amp; " (Total Year)",
 selected_period_display &amp; " " &amp; selected_year)</f>
-        <v>Breakdown - 2025 (Total Year)</v>
-      </c>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AF11" s="57" t="str">
+        <v>Breakdown - January 2023</v>
+      </c>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AF11" s="76" t="str">
         <f>"Summary - " &amp;
 IF(selected_period="Total Year",
 selected_year &amp; " (Total Year)",
 selected_period_display &amp; " " &amp; selected_year)</f>
-        <v>Summary - 2025 (Total Year)</v>
-      </c>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="57"/>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="57"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="57"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="57"/>
-      <c r="AP11" s="57"/>
-      <c r="AQ11" s="57"/>
-      <c r="AR11" s="57"/>
+        <v>Summary - January 2023</v>
+      </c>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="76"/>
+      <c r="AJ11" s="76"/>
+      <c r="AK11" s="76"/>
+      <c r="AL11" s="76"/>
+      <c r="AM11" s="76"/>
+      <c r="AN11" s="76"/>
+      <c r="AO11" s="76"/>
+      <c r="AP11" s="76"/>
+      <c r="AQ11" s="76"/>
+      <c r="AR11" s="76"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
+      <c r="C12" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="S12" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="V12" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="W12" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="X12" s="60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="C13" s="41">
+        <f>income_header_row</f>
+        <v>9</v>
+      </c>
+      <c r="D13" s="42">
+        <f t="shared" ref="D13:D50" si="0">IF(is_header, row_id,
+      IF(NOT(is_empty),D12,-1))</f>
+        <v>9</v>
+      </c>
+      <c r="E13" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ref="F13:F50" si="1">1* NOT(OR(is_header,is_total,is_empty))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="42">
+        <f t="shared" ref="H13:H50" si="2">1 * OR(row_id="/1", row_id="/2", row_id=-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Income</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Income</v>
+      </c>
+      <c r="K13" s="67" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v/>
+      </c>
+      <c r="L13" s="68" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v/>
+      </c>
+      <c r="M13" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N13" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O13" s="41" t="str">
+        <f t="shared" ref="O13:O50" si="3">IF(is_cat, ADDRESS(sort_min_row, COLUMN(tracked)) &amp; ":" &amp;  ADDRESS(sort_max_row, COLUMN(tracked)), "")</f>
+        <v/>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f t="shared" ref="P13:P50" ca="1" si="4">IF(is_cat, RANK(tracked, INDIRECT(tracked_range),0),"")</f>
+        <v/>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f t="shared" ref="Q13:Q50" si="5">IF(is_cat, ADDRESS(sort_min_row, COLUMN(budget)) &amp; ":" &amp;  ADDRESS(sort_max_row, COLUMN(budget)), "")</f>
+        <v/>
+      </c>
+      <c r="R13" s="42" t="str">
+        <f t="shared" ref="R13:R50" ca="1" si="6">IF(is_cat, RANK(budget, INDIRECT(budget_range),0),"")</f>
+        <v/>
+      </c>
+      <c r="S13" s="41" t="str">
+        <f t="shared" ref="S13:S50" si="7">IF(is_cat, _xlfn.NUMBERVALUE(tracked_rank &amp; budget_rank),"")</f>
+        <v/>
+      </c>
+      <c r="T13" s="2" t="str">
+        <f t="shared" ref="T13:T50" si="8">IF(is_cat, ADDRESS(sort_min_row, COLUMN(comb_rank)) &amp; ":" &amp;  ADDRESS(sort_max_row, COLUMN(comb_rank)), "")</f>
+        <v/>
+      </c>
+      <c r="U13" s="2" t="str">
+        <f t="shared" ref="U13:U50" ca="1" si="9">IF(is_cat, RANK(comb_rank, INDIRECT(comb_rank_range),1), "")</f>
+        <v/>
+      </c>
+      <c r="V13" s="2" t="str">
+        <f t="shared" ref="V13:V50" si="10">IF(is_cat, ADDRESS(sort_min_row, COLUMN(comb_rank_norm)) &amp; ":" &amp;  ADDRESS(ROW(), COLUMN(comb_rank_norm)), "")</f>
+        <v/>
+      </c>
+      <c r="W13" s="42" t="str">
+        <f t="shared" ref="W13:W50" ca="1" si="11">IF(is_cat, comb_rank_norm + COUNTIF(INDIRECT(comb_rank_norm_run_range),comb_rank_norm)-1, "")</f>
+        <v/>
+      </c>
+      <c r="X13" s="42">
+        <f t="shared" ref="X13:X50" si="12">IF(is_cat, header_row_id + comb_rank_unique, row_id)</f>
+        <v>9</v>
+      </c>
+      <c r="Y13" s="69" t="str">
+        <f t="shared" ref="Y13:Y50" si="13">IF(is_empty, "", INDEX($J:$J, MATCH(row_id,$X:$X,0)))</f>
+        <v>Income</v>
+      </c>
+      <c r="Z13" s="71" t="str">
+        <f t="shared" ref="Z13:Z50" si="14">IF(is_empty, "", IF(is_header, "Tracked", INDEX($K:$K, MATCH(row_id,$X:$X,0))))</f>
+        <v>Tracked</v>
+      </c>
+      <c r="AA13" s="71" t="str">
+        <f t="shared" ref="AA13:AA50" si="15">IF(is_empty, "", IF(is_header, "Budget", INDEX($L:$L, MATCH(row_id,$X:$X,0))))</f>
+        <v>Budget</v>
+      </c>
+      <c r="AB13" s="70" t="str">
+        <f t="shared" ref="AB13:AB50" si="16">IF(is_empty, "", IF(is_header, "% Compl.", IFERROR(out_tracked / out_budget, "-")))</f>
+        <v>% Compl.</v>
+      </c>
+      <c r="AC13" s="71" t="str">
+        <f t="shared" ref="AC13:AC50" si="17">IF(is_empty, "", IF(is_header, "Remaining", IF(out_budget - out_tracked &gt; 0, out_budget - out_tracked, 0)))</f>
+        <v>Remaining</v>
+      </c>
+      <c r="AD13" s="71" t="str">
+        <f t="shared" ref="AD13:AD50" si="18">IF(is_empty, "", IF(is_header, "Excess", IF(out_budget - out_tracked &lt; 0, out_tracked- out_budget, 0)))</f>
+        <v>Excess</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="C14" s="41">
+        <f>IF(C13=-1,-1,
+      IF(C13&lt;income_max_row, C13+1,
+           IF(C13=income_max_row,income_total_row,
+               IF(C13=income_total_row, "/1",
+                      IF(C13="/1", expenses_header_row,
+                             IF(C13&lt;expenses_max_row, C13+1,
+                                   IF(C13=expenses_max_row, expenses_total_row,
+                                        IF(C13= expenses_total_row, "/2",
+                                              IF(C13="/2", savings_header_row,
+                                                    IF(C13&lt;savings_max_row, C13+1,
+                                                         IF(C13=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="D14" s="42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E14" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Income</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Dividends</v>
+      </c>
+      <c r="K14" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>3000</v>
+      </c>
+      <c r="L14" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>3000</v>
+      </c>
+      <c r="M14" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>14</v>
+      </c>
+      <c r="N14" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>17</v>
+      </c>
+      <c r="O14" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$14:$K$17</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$14:$L$17</v>
+      </c>
+      <c r="R14" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="S14" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="T14" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$14:$S$17</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="V14" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$14:$U$14</v>
+      </c>
+      <c r="W14" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="X14" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="Y14" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Salary</v>
+      </c>
+      <c r="Z14" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>155000</v>
+      </c>
+      <c r="AA14" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>155000</v>
+      </c>
+      <c r="AB14" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="C15" s="41">
+        <f>IF(C14=-1,-1,
+      IF(C14&lt;income_max_row, C14+1,
+           IF(C14=income_max_row,income_total_row,
+               IF(C14=income_total_row, "/1",
+                      IF(C14="/1", expenses_header_row,
+                             IF(C14&lt;expenses_max_row, C14+1,
+                                   IF(C14=expenses_max_row, expenses_total_row,
+                                        IF(C14= expenses_total_row, "/2",
+                                              IF(C14="/2", savings_header_row,
+                                                    IF(C14&lt;savings_max_row, C14+1,
+                                                         IF(C14=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>11</v>
+      </c>
+      <c r="D15" s="42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Income</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Others</v>
+      </c>
+      <c r="K15" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>15000</v>
+      </c>
+      <c r="L15" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>15000</v>
+      </c>
+      <c r="M15" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>14</v>
+      </c>
+      <c r="N15" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>17</v>
+      </c>
+      <c r="O15" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$14:$K$17</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$14:$L$17</v>
+      </c>
+      <c r="R15" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="S15" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="T15" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$14:$S$17</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V15" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$14:$U$15</v>
+      </c>
+      <c r="W15" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X15" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="Y15" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Others</v>
+      </c>
+      <c r="Z15" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>15000</v>
+      </c>
+      <c r="AA15" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>15000</v>
+      </c>
+      <c r="AB15" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="C16" s="41">
+        <f>IF(C15=-1,-1,
+      IF(C15&lt;income_max_row, C15+1,
+           IF(C15=income_max_row,income_total_row,
+               IF(C15=income_total_row, "/1",
+                      IF(C15="/1", expenses_header_row,
+                             IF(C15&lt;expenses_max_row, C15+1,
+                                   IF(C15=expenses_max_row, expenses_total_row,
+                                        IF(C15= expenses_total_row, "/2",
+                                              IF(C15="/2", savings_header_row,
+                                                    IF(C15&lt;savings_max_row, C15+1,
+                                                         IF(C15=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>12</v>
+      </c>
+      <c r="D16" s="42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Income</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Salary</v>
+      </c>
+      <c r="K16" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>155000</v>
+      </c>
+      <c r="L16" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>155000</v>
+      </c>
+      <c r="M16" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>14</v>
+      </c>
+      <c r="N16" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>17</v>
+      </c>
+      <c r="O16" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$14:$K$17</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$14:$L$17</v>
+      </c>
+      <c r="R16" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="T16" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$14:$S$17</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$14:$U$16</v>
+      </c>
+      <c r="W16" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="Y16" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Selling Stocks/Funds</v>
+      </c>
+      <c r="Z16" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>4000</v>
+      </c>
+      <c r="AA16" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>4000</v>
+      </c>
+      <c r="AB16" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C17" s="41">
+        <f>IF(C16=-1,-1,
+      IF(C16&lt;income_max_row, C16+1,
+           IF(C16=income_max_row,income_total_row,
+               IF(C16=income_total_row, "/1",
+                      IF(C16="/1", expenses_header_row,
+                             IF(C16&lt;expenses_max_row, C16+1,
+                                   IF(C16=expenses_max_row, expenses_total_row,
+                                        IF(C16= expenses_total_row, "/2",
+                                              IF(C16="/2", savings_header_row,
+                                                    IF(C16&lt;savings_max_row, C16+1,
+                                                         IF(C16=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>13</v>
+      </c>
+      <c r="D17" s="42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Income</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Selling Stocks/Funds</v>
+      </c>
+      <c r="K17" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>4000</v>
+      </c>
+      <c r="L17" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>4000</v>
+      </c>
+      <c r="M17" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>14</v>
+      </c>
+      <c r="N17" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>17</v>
+      </c>
+      <c r="O17" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$14:$K$17</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$14:$L$17</v>
+      </c>
+      <c r="R17" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="S17" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="T17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$14:$S$17</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="V17" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$14:$U$17</v>
+      </c>
+      <c r="W17" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="X17" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="Y17" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Dividends</v>
+      </c>
+      <c r="Z17" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>3000</v>
+      </c>
+      <c r="AA17" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>3000</v>
+      </c>
+      <c r="AB17" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AC17" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C18" s="41">
+        <f>IF(C17=-1,-1,
+      IF(C17&lt;income_max_row, C17+1,
+           IF(C17=income_max_row,income_total_row,
+               IF(C17=income_total_row, "/1",
+                      IF(C17="/1", expenses_header_row,
+                             IF(C17&lt;expenses_max_row, C17+1,
+                                   IF(C17=expenses_max_row, expenses_total_row,
+                                        IF(C17= expenses_total_row, "/2",
+                                              IF(C17="/2", savings_header_row,
+                                                    IF(C17&lt;savings_max_row, C17+1,
+                                                         IF(C17=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>19</v>
+      </c>
+      <c r="D18" s="42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E18" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Income</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Total</v>
+      </c>
+      <c r="K18" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>177000</v>
+      </c>
+      <c r="L18" s="68">
+        <f ca="1">IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>177000</v>
+      </c>
+      <c r="M18" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N18" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O18" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R18" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S18" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T18" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U18" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="V18" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W18" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X18" s="42">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="Y18" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Total</v>
+      </c>
+      <c r="Z18" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>177000</v>
+      </c>
+      <c r="AA18" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>177000</v>
+      </c>
+      <c r="AB18" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AC18" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C19" s="41" t="str">
+        <f>IF(C18=-1,-1,
+      IF(C18&lt;income_max_row, C18+1,
+           IF(C18=income_max_row,income_total_row,
+               IF(C18=income_total_row, "/1",
+                      IF(C18="/1", expenses_header_row,
+                             IF(C18&lt;expenses_max_row, C18+1,
+                                   IF(C18=expenses_max_row, expenses_total_row,
+                                        IF(C18= expenses_total_row, "/2",
+                                              IF(C18="/2", savings_header_row,
+                                                    IF(C18&lt;savings_max_row, C18+1,
+                                                         IF(C18=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>/1</v>
+      </c>
+      <c r="D19" s="42">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E19" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v/>
+      </c>
+      <c r="K19" s="67" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v/>
+      </c>
+      <c r="L19" s="68" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v/>
+      </c>
+      <c r="M19" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N19" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O19" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R19" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S19" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T19" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U19" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="V19" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W19" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X19" s="42" t="str">
+        <f t="shared" si="12"/>
+        <v>/1</v>
+      </c>
+      <c r="Y19" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Z19" s="71" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA19" s="71" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AB19" s="70" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AC19" s="71" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD19" s="71" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C20" s="41">
+        <f>IF(C19=-1,-1,
+      IF(C19&lt;income_max_row, C19+1,
+           IF(C19=income_max_row,income_total_row,
+               IF(C19=income_total_row, "/1",
+                      IF(C19="/1", expenses_header_row,
+                             IF(C19&lt;expenses_max_row, C19+1,
+                                   IF(C19=expenses_max_row, expenses_total_row,
+                                        IF(C19= expenses_total_row, "/2",
+                                              IF(C19="/2", savings_header_row,
+                                                    IF(C19&lt;savings_max_row, C19+1,
+                                                         IF(C19=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>21</v>
+      </c>
+      <c r="D20" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E20" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="K20" s="67" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v/>
+      </c>
+      <c r="L20" s="68" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v/>
+      </c>
+      <c r="M20" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N20" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O20" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R20" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S20" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T20" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U20" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="V20" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W20" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X20" s="42">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="Y20" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Expenses</v>
+      </c>
+      <c r="Z20" s="71" t="str">
+        <f t="shared" si="14"/>
+        <v>Tracked</v>
+      </c>
+      <c r="AA20" s="71" t="str">
+        <f t="shared" si="15"/>
+        <v>Budget</v>
+      </c>
+      <c r="AB20" s="70" t="str">
+        <f t="shared" si="16"/>
+        <v>% Compl.</v>
+      </c>
+      <c r="AC20" s="71" t="str">
+        <f t="shared" si="17"/>
+        <v>Remaining</v>
+      </c>
+      <c r="AD20" s="71" t="str">
+        <f t="shared" si="18"/>
+        <v>Excess</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C21" s="41">
+        <f>IF(C20=-1,-1,
+      IF(C20&lt;income_max_row, C20+1,
+           IF(C20=income_max_row,income_total_row,
+               IF(C20=income_total_row, "/1",
+                      IF(C20="/1", expenses_header_row,
+                             IF(C20&lt;expenses_max_row, C20+1,
+                                   IF(C20=expenses_max_row, expenses_total_row,
+                                        IF(C20= expenses_total_row, "/2",
+                                              IF(C20="/2", savings_header_row,
+                                                    IF(C20&lt;savings_max_row, C20+1,
+                                                         IF(C20=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>22</v>
+      </c>
+      <c r="D21" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E21" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Debt</v>
+      </c>
+      <c r="K21" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>8000</v>
+      </c>
+      <c r="L21" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>70000</v>
+      </c>
+      <c r="M21" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>21</v>
+      </c>
+      <c r="N21" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>32</v>
+      </c>
+      <c r="O21" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$21:$K$32</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$21:$L$32</v>
+      </c>
+      <c r="R21" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="T21" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$21:$S$32</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V21" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$21:$U$21</v>
+      </c>
+      <c r="W21" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X21" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="Y21" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Debt</v>
+      </c>
+      <c r="Z21" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>8000</v>
+      </c>
+      <c r="AA21" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>70000</v>
+      </c>
+      <c r="AB21" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="AC21" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>62000</v>
+      </c>
+      <c r="AD21" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C22" s="41">
+        <f>IF(C21=-1,-1,
+      IF(C21&lt;income_max_row, C21+1,
+           IF(C21=income_max_row,income_total_row,
+               IF(C21=income_total_row, "/1",
+                      IF(C21="/1", expenses_header_row,
+                             IF(C21&lt;expenses_max_row, C21+1,
+                                   IF(C21=expenses_max_row, expenses_total_row,
+                                        IF(C21= expenses_total_row, "/2",
+                                              IF(C21="/2", savings_header_row,
+                                                    IF(C21&lt;savings_max_row, C21+1,
+                                                         IF(C21=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>23</v>
+      </c>
+      <c r="D22" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E22" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Education</v>
+      </c>
+      <c r="K22" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>1000</v>
+      </c>
+      <c r="L22" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>1500</v>
+      </c>
+      <c r="M22" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>21</v>
+      </c>
+      <c r="N22" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>32</v>
+      </c>
+      <c r="O22" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$21:$K$32</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$21:$L$32</v>
+      </c>
+      <c r="R22" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="S22" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="T22" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$21:$S$32</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="V22" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$21:$U$22</v>
+      </c>
+      <c r="W22" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="X22" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="Y22" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Food</v>
+      </c>
+      <c r="Z22" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>8000</v>
+      </c>
+      <c r="AA22" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>5000</v>
+      </c>
+      <c r="AB22" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.6</v>
+      </c>
+      <c r="AC22" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C23" s="41">
+        <f>IF(C22=-1,-1,
+      IF(C22&lt;income_max_row, C22+1,
+           IF(C22=income_max_row,income_total_row,
+               IF(C22=income_total_row, "/1",
+                      IF(C22="/1", expenses_header_row,
+                             IF(C22&lt;expenses_max_row, C22+1,
+                                   IF(C22=expenses_max_row, expenses_total_row,
+                                        IF(C22= expenses_total_row, "/2",
+                                              IF(C22="/2", savings_header_row,
+                                                    IF(C22&lt;savings_max_row, C22+1,
+                                                         IF(C22=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>24</v>
+      </c>
+      <c r="D23" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E23" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Entertainment</v>
+      </c>
+      <c r="K23" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>1400</v>
+      </c>
+      <c r="L23" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>4000</v>
+      </c>
+      <c r="M23" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>21</v>
+      </c>
+      <c r="N23" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>32</v>
+      </c>
+      <c r="O23" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$21:$K$32</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$21:$L$32</v>
+      </c>
+      <c r="R23" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="S23" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="T23" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$21:$S$32</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="V23" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$21:$U$23</v>
+      </c>
+      <c r="W23" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="X23" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="Y23" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Insurance</v>
+      </c>
+      <c r="Z23" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>5600</v>
+      </c>
+      <c r="AA23" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>7500</v>
+      </c>
+      <c r="AB23" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="AC23" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>1900</v>
+      </c>
+      <c r="AD23" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C24" s="41">
+        <f>IF(C23=-1,-1,
+      IF(C23&lt;income_max_row, C23+1,
+           IF(C23=income_max_row,income_total_row,
+               IF(C23=income_total_row, "/1",
+                      IF(C23="/1", expenses_header_row,
+                             IF(C23&lt;expenses_max_row, C23+1,
+                                   IF(C23=expenses_max_row, expenses_total_row,
+                                        IF(C23= expenses_total_row, "/2",
+                                              IF(C23="/2", savings_header_row,
+                                                    IF(C23&lt;savings_max_row, C23+1,
+                                                         IF(C23=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>25</v>
+      </c>
+      <c r="D24" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E24" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Food</v>
+      </c>
+      <c r="K24" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>8000</v>
+      </c>
+      <c r="L24" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>5000</v>
+      </c>
+      <c r="M24" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>21</v>
+      </c>
+      <c r="N24" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>32</v>
+      </c>
+      <c r="O24" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$21:$K$32</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$21:$L$32</v>
+      </c>
+      <c r="R24" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="S24" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="T24" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$21:$S$32</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V24" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$21:$U$24</v>
+      </c>
+      <c r="W24" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X24" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="Y24" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rent</v>
+      </c>
+      <c r="Z24" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>3546</v>
+      </c>
+      <c r="AA24" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>3900</v>
+      </c>
+      <c r="AB24" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.90923076923076918</v>
+      </c>
+      <c r="AC24" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>354</v>
+      </c>
+      <c r="AD24" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C25" s="41">
+        <f>IF(C24=-1,-1,
+      IF(C24&lt;income_max_row, C24+1,
+           IF(C24=income_max_row,income_total_row,
+               IF(C24=income_total_row, "/1",
+                      IF(C24="/1", expenses_header_row,
+                             IF(C24&lt;expenses_max_row, C24+1,
+                                   IF(C24=expenses_max_row, expenses_total_row,
+                                        IF(C24= expenses_total_row, "/2",
+                                              IF(C24="/2", savings_header_row,
+                                                    IF(C24&lt;savings_max_row, C24+1,
+                                                         IF(C24=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>26</v>
+      </c>
+      <c r="D25" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E25" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Gifts</v>
+      </c>
+      <c r="K25" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>2500</v>
+      </c>
+      <c r="L25" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>2000</v>
+      </c>
+      <c r="M25" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>21</v>
+      </c>
+      <c r="N25" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>32</v>
+      </c>
+      <c r="O25" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$21:$K$32</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$21:$L$32</v>
+      </c>
+      <c r="R25" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="S25" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="T25" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$21:$S$32</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V25" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$21:$U$25</v>
+      </c>
+      <c r="W25" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="X25" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="Y25" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Gifts</v>
+      </c>
+      <c r="Z25" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>2500</v>
+      </c>
+      <c r="AA25" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>2000</v>
+      </c>
+      <c r="AB25" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC25" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C26" s="41">
+        <f>IF(C25=-1,-1,
+      IF(C25&lt;income_max_row, C25+1,
+           IF(C25=income_max_row,income_total_row,
+               IF(C25=income_total_row, "/1",
+                      IF(C25="/1", expenses_header_row,
+                             IF(C25&lt;expenses_max_row, C25+1,
+                                   IF(C25=expenses_max_row, expenses_total_row,
+                                        IF(C25= expenses_total_row, "/2",
+                                              IF(C25="/2", savings_header_row,
+                                                    IF(C25&lt;savings_max_row, C25+1,
+                                                         IF(C25=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>27</v>
+      </c>
+      <c r="D26" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E26" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Insurance</v>
+      </c>
+      <c r="K26" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>5600</v>
+      </c>
+      <c r="L26" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>7500</v>
+      </c>
+      <c r="M26" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>21</v>
+      </c>
+      <c r="N26" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>32</v>
+      </c>
+      <c r="O26" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$21:$K$32</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$21:$L$32</v>
+      </c>
+      <c r="R26" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="S26" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="T26" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$21:$S$32</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="V26" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$21:$U$26</v>
+      </c>
+      <c r="W26" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="X26" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="Y26" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Medical</v>
+      </c>
+      <c r="Z26" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>1800</v>
+      </c>
+      <c r="AA26" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>2000</v>
+      </c>
+      <c r="AB26" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.9</v>
+      </c>
+      <c r="AC26" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>200</v>
+      </c>
+      <c r="AD26" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C27" s="41">
+        <f>IF(C26=-1,-1,
+      IF(C26&lt;income_max_row, C26+1,
+           IF(C26=income_max_row,income_total_row,
+               IF(C26=income_total_row, "/1",
+                      IF(C26="/1", expenses_header_row,
+                             IF(C26&lt;expenses_max_row, C26+1,
+                                   IF(C26=expenses_max_row, expenses_total_row,
+                                        IF(C26= expenses_total_row, "/2",
+                                              IF(C26="/2", savings_header_row,
+                                                    IF(C26&lt;savings_max_row, C26+1,
+                                                         IF(C26=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>28</v>
+      </c>
+      <c r="D27" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E27" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Medical</v>
+      </c>
+      <c r="K27" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>1800</v>
+      </c>
+      <c r="L27" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>2000</v>
+      </c>
+      <c r="M27" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>21</v>
+      </c>
+      <c r="N27" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>32</v>
+      </c>
+      <c r="O27" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$21:$K$32</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$21:$L$32</v>
+      </c>
+      <c r="R27" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="S27" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="T27" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$21:$S$32</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="V27" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$21:$U$27</v>
+      </c>
+      <c r="W27" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="X27" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="Y27" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Entertainment</v>
+      </c>
+      <c r="Z27" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>1400</v>
+      </c>
+      <c r="AA27" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>4000</v>
+      </c>
+      <c r="AB27" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.35</v>
+      </c>
+      <c r="AC27" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>2600</v>
+      </c>
+      <c r="AD27" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C28" s="41">
+        <f>IF(C27=-1,-1,
+      IF(C27&lt;income_max_row, C27+1,
+           IF(C27=income_max_row,income_total_row,
+               IF(C27=income_total_row, "/1",
+                      IF(C27="/1", expenses_header_row,
+                             IF(C27&lt;expenses_max_row, C27+1,
+                                   IF(C27=expenses_max_row, expenses_total_row,
+                                        IF(C27= expenses_total_row, "/2",
+                                              IF(C27="/2", savings_header_row,
+                                                    IF(C27&lt;savings_max_row, C27+1,
+                                                         IF(C27=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>29</v>
+      </c>
+      <c r="D28" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E28" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Miscellaneous</v>
+      </c>
+      <c r="K28" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>400</v>
+      </c>
+      <c r="L28" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>1000</v>
+      </c>
+      <c r="M28" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>21</v>
+      </c>
+      <c r="N28" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>32</v>
+      </c>
+      <c r="O28" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$21:$K$32</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Q28" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$21:$L$32</v>
+      </c>
+      <c r="R28" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="S28" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="T28" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$21:$S$32</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="V28" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$21:$U$28</v>
+      </c>
+      <c r="W28" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="X28" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="Y28" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Education</v>
+      </c>
+      <c r="Z28" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="AA28" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>1500</v>
+      </c>
+      <c r="AB28" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC28" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="AD28" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C29" s="41">
+        <f>IF(C28=-1,-1,
+      IF(C28&lt;income_max_row, C28+1,
+           IF(C28=income_max_row,income_total_row,
+               IF(C28=income_total_row, "/1",
+                      IF(C28="/1", expenses_header_row,
+                             IF(C28&lt;expenses_max_row, C28+1,
+                                   IF(C28=expenses_max_row, expenses_total_row,
+                                        IF(C28= expenses_total_row, "/2",
+                                              IF(C28="/2", savings_header_row,
+                                                    IF(C28&lt;savings_max_row, C28+1,
+                                                         IF(C28=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>30</v>
+      </c>
+      <c r="D29" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E29" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Personal Care</v>
+      </c>
+      <c r="K29" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>500</v>
+      </c>
+      <c r="L29" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>500</v>
+      </c>
+      <c r="M29" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>21</v>
+      </c>
+      <c r="N29" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>32</v>
+      </c>
+      <c r="O29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$21:$K$32</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="Q29" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$21:$L$32</v>
+      </c>
+      <c r="R29" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="S29" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>912</v>
+      </c>
+      <c r="T29" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$21:$S$32</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="V29" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$21:$U$29</v>
+      </c>
+      <c r="W29" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="X29" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="Y29" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Miscellaneous</v>
+      </c>
+      <c r="Z29" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AA29" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>1000</v>
+      </c>
+      <c r="AB29" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC29" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>600</v>
+      </c>
+      <c r="AD29" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C30" s="41">
+        <f>IF(C29=-1,-1,
+      IF(C29&lt;income_max_row, C29+1,
+           IF(C29=income_max_row,income_total_row,
+               IF(C29=income_total_row, "/1",
+                      IF(C29="/1", expenses_header_row,
+                             IF(C29&lt;expenses_max_row, C29+1,
+                                   IF(C29=expenses_max_row, expenses_total_row,
+                                        IF(C29= expenses_total_row, "/2",
+                                              IF(C29="/2", savings_header_row,
+                                                    IF(C29&lt;savings_max_row, C29+1,
+                                                         IF(C29=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>31</v>
+      </c>
+      <c r="D30" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E30" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Rent</v>
+      </c>
+      <c r="K30" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>3546</v>
+      </c>
+      <c r="L30" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>3900</v>
+      </c>
+      <c r="M30" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>21</v>
+      </c>
+      <c r="N30" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>32</v>
+      </c>
+      <c r="O30" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$21:$K$32</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q30" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$21:$L$32</v>
+      </c>
+      <c r="R30" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S30" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="T30" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$21:$S$32</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="V30" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$21:$U$30</v>
+      </c>
+      <c r="W30" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="X30" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="Y30" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Personal Care</v>
+      </c>
+      <c r="Z30" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="AA30" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>500</v>
+      </c>
+      <c r="AB30" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AC30" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C31" s="41">
+        <f>IF(C30=-1,-1,
+      IF(C30&lt;income_max_row, C30+1,
+           IF(C30=income_max_row,income_total_row,
+               IF(C30=income_total_row, "/1",
+                      IF(C30="/1", expenses_header_row,
+                             IF(C30&lt;expenses_max_row, C30+1,
+                                   IF(C30=expenses_max_row, expenses_total_row,
+                                        IF(C30= expenses_total_row, "/2",
+                                              IF(C30="/2", savings_header_row,
+                                                    IF(C30&lt;savings_max_row, C30+1,
+                                                         IF(C30=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>32</v>
+      </c>
+      <c r="D31" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E31" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Transportation</v>
+      </c>
+      <c r="K31" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>400</v>
+      </c>
+      <c r="L31" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>800</v>
+      </c>
+      <c r="M31" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>21</v>
+      </c>
+      <c r="N31" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>32</v>
+      </c>
+      <c r="O31" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$21:$K$32</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Q31" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$21:$L$32</v>
+      </c>
+      <c r="R31" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="S31" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>1011</v>
+      </c>
+      <c r="T31" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$21:$S$32</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="V31" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$21:$U$31</v>
+      </c>
+      <c r="W31" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="X31" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="Y31" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Transportation</v>
+      </c>
+      <c r="Z31" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AA31" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>800</v>
+      </c>
+      <c r="AB31" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC31" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>400</v>
+      </c>
+      <c r="AD31" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C32" s="41">
+        <f>IF(C31=-1,-1,
+      IF(C31&lt;income_max_row, C31+1,
+           IF(C31=income_max_row,income_total_row,
+               IF(C31=income_total_row, "/1",
+                      IF(C31="/1", expenses_header_row,
+                             IF(C31&lt;expenses_max_row, C31+1,
+                                   IF(C31=expenses_max_row, expenses_total_row,
+                                        IF(C31= expenses_total_row, "/2",
+                                              IF(C31="/2", savings_header_row,
+                                                    IF(C31&lt;savings_max_row, C31+1,
+                                                         IF(C31=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>33</v>
+      </c>
+      <c r="D32" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E32" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Utilities</v>
+      </c>
+      <c r="K32" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>350</v>
+      </c>
+      <c r="L32" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>900</v>
+      </c>
+      <c r="M32" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>21</v>
+      </c>
+      <c r="N32" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>32</v>
+      </c>
+      <c r="O32" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$21:$K$32</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q32" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$21:$L$32</v>
+      </c>
+      <c r="R32" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="S32" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>1210</v>
+      </c>
+      <c r="T32" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$21:$S$32</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="V32" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$21:$U$32</v>
+      </c>
+      <c r="W32" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="X32" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="Y32" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Utilities</v>
+      </c>
+      <c r="Z32" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>350</v>
+      </c>
+      <c r="AA32" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>900</v>
+      </c>
+      <c r="AB32" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AC32" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>550</v>
+      </c>
+      <c r="AD32" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C33" s="41">
+        <f>IF(C32=-1,-1,
+      IF(C32&lt;income_max_row, C32+1,
+           IF(C32=income_max_row,income_total_row,
+               IF(C32=income_total_row, "/1",
+                      IF(C32="/1", expenses_header_row,
+                             IF(C32&lt;expenses_max_row, C32+1,
+                                   IF(C32=expenses_max_row, expenses_total_row,
+                                        IF(C32= expenses_total_row, "/2",
+                                              IF(C32="/2", savings_header_row,
+                                                    IF(C32&lt;savings_max_row, C32+1,
+                                                         IF(C32=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>39</v>
+      </c>
+      <c r="D33" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E33" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Expenses</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Total</v>
+      </c>
+      <c r="K33" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>33496</v>
+      </c>
+      <c r="L33" s="68">
+        <f ca="1">IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>99100</v>
+      </c>
+      <c r="M33" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N33" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O33" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P33" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q33" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R33" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S33" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T33" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U33" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="V33" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W33" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X33" s="42">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="Y33" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Total</v>
+      </c>
+      <c r="Z33" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>33496</v>
+      </c>
+      <c r="AA33" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>99100</v>
+      </c>
+      <c r="AB33" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.33800201816347125</v>
+      </c>
+      <c r="AC33" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>65604</v>
+      </c>
+      <c r="AD33" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C34" s="41" t="str">
+        <f>IF(C33=-1,-1,
+      IF(C33&lt;income_max_row, C33+1,
+           IF(C33=income_max_row,income_total_row,
+               IF(C33=income_total_row, "/1",
+                      IF(C33="/1", expenses_header_row,
+                             IF(C33&lt;expenses_max_row, C33+1,
+                                   IF(C33=expenses_max_row, expenses_total_row,
+                                        IF(C33= expenses_total_row, "/2",
+                                              IF(C33="/2", savings_header_row,
+                                                    IF(C33&lt;savings_max_row, C33+1,
+                                                         IF(C33=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>/2</v>
+      </c>
+      <c r="D34" s="42">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E34" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v/>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v/>
+      </c>
+      <c r="K34" s="67" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v/>
+      </c>
+      <c r="L34" s="68" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v/>
+      </c>
+      <c r="M34" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N34" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O34" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P34" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q34" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R34" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S34" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T34" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U34" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="V34" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W34" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X34" s="42" t="str">
+        <f t="shared" si="12"/>
+        <v>/2</v>
+      </c>
+      <c r="Y34" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Z34" s="71" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA34" s="71" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AB34" s="70" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AC34" s="71" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD34" s="71" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C35" s="41">
+        <f>IF(C34=-1,-1,
+      IF(C34&lt;income_max_row, C34+1,
+           IF(C34=income_max_row,income_total_row,
+               IF(C34=income_total_row, "/1",
+                      IF(C34="/1", expenses_header_row,
+                             IF(C34&lt;expenses_max_row, C34+1,
+                                   IF(C34=expenses_max_row, expenses_total_row,
+                                        IF(C34= expenses_total_row, "/2",
+                                              IF(C34="/2", savings_header_row,
+                                                    IF(C34&lt;savings_max_row, C34+1,
+                                                         IF(C34=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>41</v>
+      </c>
+      <c r="D35" s="42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E35" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Savings</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Savings</v>
+      </c>
+      <c r="K35" s="67" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v/>
+      </c>
+      <c r="L35" s="68" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v/>
+      </c>
+      <c r="M35" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N35" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O35" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P35" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q35" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R35" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S35" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T35" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U35" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="V35" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W35" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X35" s="42">
+        <f t="shared" si="12"/>
+        <v>41</v>
+      </c>
+      <c r="Y35" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Savings</v>
+      </c>
+      <c r="Z35" s="71" t="str">
+        <f t="shared" si="14"/>
+        <v>Tracked</v>
+      </c>
+      <c r="AA35" s="71" t="str">
+        <f t="shared" si="15"/>
+        <v>Budget</v>
+      </c>
+      <c r="AB35" s="70" t="str">
+        <f t="shared" si="16"/>
+        <v>% Compl.</v>
+      </c>
+      <c r="AC35" s="71" t="str">
+        <f t="shared" si="17"/>
+        <v>Remaining</v>
+      </c>
+      <c r="AD35" s="71" t="str">
+        <f t="shared" si="18"/>
+        <v>Excess</v>
+      </c>
+    </row>
+    <row r="36" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C36" s="41">
+        <f>IF(C35=-1,-1,
+      IF(C35&lt;income_max_row, C35+1,
+           IF(C35=income_max_row,income_total_row,
+               IF(C35=income_total_row, "/1",
+                      IF(C35="/1", expenses_header_row,
+                             IF(C35&lt;expenses_max_row, C35+1,
+                                   IF(C35=expenses_max_row, expenses_total_row,
+                                        IF(C35= expenses_total_row, "/2",
+                                              IF(C35="/2", savings_header_row,
+                                                    IF(C35&lt;savings_max_row, C35+1,
+                                                         IF(C35=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>42</v>
+      </c>
+      <c r="D36" s="42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E36" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Savings</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Fixed Deposit</v>
+      </c>
+      <c r="K36" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>2100</v>
+      </c>
+      <c r="L36" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>4000</v>
+      </c>
+      <c r="M36" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>36</v>
+      </c>
+      <c r="N36" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>43</v>
+      </c>
+      <c r="O36" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$36:$K$43</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q36" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$36:$L$43</v>
+      </c>
+      <c r="R36" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="S36" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="T36" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$36:$S$43</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="V36" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$36:$U$36</v>
+      </c>
+      <c r="W36" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="X36" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="Y36" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Mutual Funds</v>
+      </c>
+      <c r="Z36" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>40000</v>
+      </c>
+      <c r="AA36" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>30000</v>
+      </c>
+      <c r="AB36" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AC36" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C37" s="41">
+        <f>IF(C36=-1,-1,
+      IF(C36&lt;income_max_row, C36+1,
+           IF(C36=income_max_row,income_total_row,
+               IF(C36=income_total_row, "/1",
+                      IF(C36="/1", expenses_header_row,
+                             IF(C36&lt;expenses_max_row, C36+1,
+                                   IF(C36=expenses_max_row, expenses_total_row,
+                                        IF(C36= expenses_total_row, "/2",
+                                              IF(C36="/2", savings_header_row,
+                                                    IF(C36&lt;savings_max_row, C36+1,
+                                                         IF(C36=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>43</v>
+      </c>
+      <c r="D37" s="42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E37" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Savings</v>
+      </c>
+      <c r="J37" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Insurance</v>
+      </c>
+      <c r="K37" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>2400</v>
+      </c>
+      <c r="L37" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>7900</v>
+      </c>
+      <c r="M37" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>36</v>
+      </c>
+      <c r="N37" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>43</v>
+      </c>
+      <c r="O37" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$36:$K$43</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Q37" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$36:$L$43</v>
+      </c>
+      <c r="R37" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="S37" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="T37" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$36:$S$43</v>
+      </c>
+      <c r="U37" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V37" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$36:$U$37</v>
+      </c>
+      <c r="W37" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="X37" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>46</v>
+      </c>
+      <c r="Y37" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Savings Account</v>
+      </c>
+      <c r="Z37" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>15000</v>
+      </c>
+      <c r="AA37" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>15000</v>
+      </c>
+      <c r="AB37" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AC37" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C38" s="41">
+        <f>IF(C37=-1,-1,
+      IF(C37&lt;income_max_row, C37+1,
+           IF(C37=income_max_row,income_total_row,
+               IF(C37=income_total_row, "/1",
+                      IF(C37="/1", expenses_header_row,
+                             IF(C37&lt;expenses_max_row, C37+1,
+                                   IF(C37=expenses_max_row, expenses_total_row,
+                                        IF(C37= expenses_total_row, "/2",
+                                              IF(C37="/2", savings_header_row,
+                                                    IF(C37&lt;savings_max_row, C37+1,
+                                                         IF(C37=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>44</v>
+      </c>
+      <c r="D38" s="42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E38" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Savings</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Mutual Funds</v>
+      </c>
+      <c r="K38" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>40000</v>
+      </c>
+      <c r="L38" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>30000</v>
+      </c>
+      <c r="M38" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>36</v>
+      </c>
+      <c r="N38" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>43</v>
+      </c>
+      <c r="O38" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$36:$K$43</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$36:$L$43</v>
+      </c>
+      <c r="R38" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S38" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="T38" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$36:$S$43</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V38" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$36:$U$38</v>
+      </c>
+      <c r="W38" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X38" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="Y38" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Stocks Investment</v>
+      </c>
+      <c r="Z38" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>10000</v>
+      </c>
+      <c r="AA38" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="AB38" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AC38" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C39" s="41">
+        <f>IF(C38=-1,-1,
+      IF(C38&lt;income_max_row, C38+1,
+           IF(C38=income_max_row,income_total_row,
+               IF(C38=income_total_row, "/1",
+                      IF(C38="/1", expenses_header_row,
+                             IF(C38&lt;expenses_max_row, C38+1,
+                                   IF(C38=expenses_max_row, expenses_total_row,
+                                        IF(C38= expenses_total_row, "/2",
+                                              IF(C38="/2", savings_header_row,
+                                                    IF(C38&lt;savings_max_row, C38+1,
+                                                         IF(C38=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>45</v>
+      </c>
+      <c r="D39" s="42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E39" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Savings</v>
+      </c>
+      <c r="J39" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>NPS</v>
+      </c>
+      <c r="K39" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>600</v>
+      </c>
+      <c r="L39" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>5000</v>
+      </c>
+      <c r="M39" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>36</v>
+      </c>
+      <c r="N39" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>43</v>
+      </c>
+      <c r="O39" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$36:$K$43</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="Q39" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$36:$L$43</v>
+      </c>
+      <c r="R39" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="S39" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="T39" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$36:$S$43</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="V39" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$36:$U$39</v>
+      </c>
+      <c r="W39" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="X39" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="Y39" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Recurring Deposit</v>
+      </c>
+      <c r="Z39" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>3000</v>
+      </c>
+      <c r="AA39" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>3000</v>
+      </c>
+      <c r="AB39" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AC39" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD39" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C40" s="41">
+        <f>IF(C39=-1,-1,
+      IF(C39&lt;income_max_row, C39+1,
+           IF(C39=income_max_row,income_total_row,
+               IF(C39=income_total_row, "/1",
+                      IF(C39="/1", expenses_header_row,
+                             IF(C39&lt;expenses_max_row, C39+1,
+                                   IF(C39=expenses_max_row, expenses_total_row,
+                                        IF(C39= expenses_total_row, "/2",
+                                              IF(C39="/2", savings_header_row,
+                                                    IF(C39&lt;savings_max_row, C39+1,
+                                                         IF(C39=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>46</v>
+      </c>
+      <c r="D40" s="42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E40" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Savings</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>PPF</v>
+      </c>
+      <c r="K40" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>1340</v>
+      </c>
+      <c r="L40" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>3000</v>
+      </c>
+      <c r="M40" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>36</v>
+      </c>
+      <c r="N40" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>43</v>
+      </c>
+      <c r="O40" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$36:$K$43</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Q40" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$36:$L$43</v>
+      </c>
+      <c r="R40" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="S40" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="T40" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$36:$S$43</v>
+      </c>
+      <c r="U40" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="V40" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$36:$U$40</v>
+      </c>
+      <c r="W40" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="X40" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="Y40" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Insurance</v>
+      </c>
+      <c r="Z40" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>2400</v>
+      </c>
+      <c r="AA40" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>7900</v>
+      </c>
+      <c r="AB40" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.30379746835443039</v>
+      </c>
+      <c r="AC40" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>5500</v>
+      </c>
+      <c r="AD40" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C41" s="41">
+        <f>IF(C40=-1,-1,
+      IF(C40&lt;income_max_row, C40+1,
+           IF(C40=income_max_row,income_total_row,
+               IF(C40=income_total_row, "/1",
+                      IF(C40="/1", expenses_header_row,
+                             IF(C40&lt;expenses_max_row, C40+1,
+                                   IF(C40=expenses_max_row, expenses_total_row,
+                                        IF(C40= expenses_total_row, "/2",
+                                              IF(C40="/2", savings_header_row,
+                                                    IF(C40&lt;savings_max_row, C40+1,
+                                                         IF(C40=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>47</v>
+      </c>
+      <c r="D41" s="42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E41" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Savings</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Recurring Deposit</v>
+      </c>
+      <c r="K41" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>3000</v>
+      </c>
+      <c r="L41" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>3000</v>
+      </c>
+      <c r="M41" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>36</v>
+      </c>
+      <c r="N41" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>43</v>
+      </c>
+      <c r="O41" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$36:$K$43</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q41" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$36:$L$43</v>
+      </c>
+      <c r="R41" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="S41" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="T41" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$36:$S$43</v>
+      </c>
+      <c r="U41" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="V41" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$36:$U$41</v>
+      </c>
+      <c r="W41" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="X41" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="Y41" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Fixed Deposit</v>
+      </c>
+      <c r="Z41" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>2100</v>
+      </c>
+      <c r="AA41" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>4000</v>
+      </c>
+      <c r="AB41" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AC41" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>1900</v>
+      </c>
+      <c r="AD41" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C42" s="41">
+        <f>IF(C41=-1,-1,
+      IF(C41&lt;income_max_row, C41+1,
+           IF(C41=income_max_row,income_total_row,
+               IF(C41=income_total_row, "/1",
+                      IF(C41="/1", expenses_header_row,
+                             IF(C41&lt;expenses_max_row, C41+1,
+                                   IF(C41=expenses_max_row, expenses_total_row,
+                                        IF(C41= expenses_total_row, "/2",
+                                              IF(C41="/2", savings_header_row,
+                                                    IF(C41&lt;savings_max_row, C41+1,
+                                                         IF(C41=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>48</v>
+      </c>
+      <c r="D42" s="42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E42" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Savings</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Savings Account</v>
+      </c>
+      <c r="K42" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>15000</v>
+      </c>
+      <c r="L42" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>15000</v>
+      </c>
+      <c r="M42" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>36</v>
+      </c>
+      <c r="N42" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>43</v>
+      </c>
+      <c r="O42" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$36:$K$43</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q42" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$36:$L$43</v>
+      </c>
+      <c r="R42" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="S42" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="T42" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$36:$S$43</v>
+      </c>
+      <c r="U42" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V42" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$36:$U$42</v>
+      </c>
+      <c r="W42" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X42" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="Y42" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>PPF</v>
+      </c>
+      <c r="Z42" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>1340</v>
+      </c>
+      <c r="AA42" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>3000</v>
+      </c>
+      <c r="AB42" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.44666666666666666</v>
+      </c>
+      <c r="AC42" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>1660</v>
+      </c>
+      <c r="AD42" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C43" s="41">
+        <f>IF(C42=-1,-1,
+      IF(C42&lt;income_max_row, C42+1,
+           IF(C42=income_max_row,income_total_row,
+               IF(C42=income_total_row, "/1",
+                      IF(C42="/1", expenses_header_row,
+                             IF(C42&lt;expenses_max_row, C42+1,
+                                   IF(C42=expenses_max_row, expenses_total_row,
+                                        IF(C42= expenses_total_row, "/2",
+                                              IF(C42="/2", savings_header_row,
+                                                    IF(C42&lt;savings_max_row, C42+1,
+                                                         IF(C42=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>49</v>
+      </c>
+      <c r="D43" s="42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E43" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Savings</v>
+      </c>
+      <c r="J43" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Stocks Investment</v>
+      </c>
+      <c r="K43" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>10000</v>
+      </c>
+      <c r="L43" s="68">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>10000</v>
+      </c>
+      <c r="M43" s="41">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v>36</v>
+      </c>
+      <c r="N43" s="42">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v>43</v>
+      </c>
+      <c r="O43" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v>$K$36:$K$43</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Q43" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>$L$36:$L$43</v>
+      </c>
+      <c r="R43" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="S43" s="41">
+        <f t="shared" ca="1" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="T43" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>$S$36:$S$43</v>
+      </c>
+      <c r="U43" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="V43" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>$U$36:$U$43</v>
+      </c>
+      <c r="W43" s="42">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="X43" s="42">
+        <f t="shared" ca="1" si="12"/>
+        <v>44</v>
+      </c>
+      <c r="Y43" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>NPS</v>
+      </c>
+      <c r="Z43" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>600</v>
+      </c>
+      <c r="AA43" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>5000</v>
+      </c>
+      <c r="AB43" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.12</v>
+      </c>
+      <c r="AC43" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>4400</v>
+      </c>
+      <c r="AD43" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C44" s="41">
+        <f>IF(C43=-1,-1,
+      IF(C43&lt;income_max_row, C43+1,
+           IF(C43=income_max_row,income_total_row,
+               IF(C43=income_total_row, "/1",
+                      IF(C43="/1", expenses_header_row,
+                             IF(C43&lt;expenses_max_row, C43+1,
+                                   IF(C43=expenses_max_row, expenses_total_row,
+                                        IF(C43= expenses_total_row, "/2",
+                                              IF(C43="/2", savings_header_row,
+                                                    IF(C43&lt;savings_max_row, C43+1,
+                                                         IF(C43=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>55</v>
+      </c>
+      <c r="D44" s="42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E44" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v>Savings</v>
+      </c>
+      <c r="J44" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v>Total</v>
+      </c>
+      <c r="K44" s="67">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v>74440</v>
+      </c>
+      <c r="L44" s="68">
+        <f ca="1">IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v>77900</v>
+      </c>
+      <c r="M44" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N44" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O44" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P44" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q44" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R44" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S44" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T44" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U44" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="V44" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W44" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X44" s="42">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="Y44" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Total</v>
+      </c>
+      <c r="Z44" s="71">
+        <f t="shared" ca="1" si="14"/>
+        <v>74440</v>
+      </c>
+      <c r="AA44" s="71">
+        <f t="shared" ca="1" si="15"/>
+        <v>77900</v>
+      </c>
+      <c r="AB44" s="70">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.95558408215661106</v>
+      </c>
+      <c r="AC44" s="71">
+        <f t="shared" ca="1" si="17"/>
+        <v>3460</v>
+      </c>
+      <c r="AD44" s="71">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C45" s="41">
+        <f>IF(C44=-1,-1,
+      IF(C44&lt;income_max_row, C44+1,
+           IF(C44=income_max_row,income_total_row,
+               IF(C44=income_total_row, "/1",
+                      IF(C44="/1", expenses_header_row,
+                             IF(C44&lt;expenses_max_row, C44+1,
+                                   IF(C44=expenses_max_row, expenses_total_row,
+                                        IF(C44= expenses_total_row, "/2",
+                                              IF(C44="/2", savings_header_row,
+                                                    IF(C44&lt;savings_max_row, C44+1,
+                                                         IF(C44=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>-1</v>
+      </c>
+      <c r="D45" s="42">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E45" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v/>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v/>
+      </c>
+      <c r="K45" s="67" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v/>
+      </c>
+      <c r="L45" s="68" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v/>
+      </c>
+      <c r="M45" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N45" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O45" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P45" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q45" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R45" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S45" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T45" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U45" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="V45" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W45" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X45" s="42">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="Y45" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Z45" s="71" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA45" s="71" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AB45" s="70" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AC45" s="71" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD45" s="71" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C46" s="41">
+        <f>IF(C45=-1,-1,
+      IF(C45&lt;income_max_row, C45+1,
+           IF(C45=income_max_row,income_total_row,
+               IF(C45=income_total_row, "/1",
+                      IF(C45="/1", expenses_header_row,
+                             IF(C45&lt;expenses_max_row, C45+1,
+                                   IF(C45=expenses_max_row, expenses_total_row,
+                                        IF(C45= expenses_total_row, "/2",
+                                              IF(C45="/2", savings_header_row,
+                                                    IF(C45&lt;savings_max_row, C45+1,
+                                                         IF(C45=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>-1</v>
+      </c>
+      <c r="D46" s="42">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E46" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v/>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v/>
+      </c>
+      <c r="K46" s="67" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v/>
+      </c>
+      <c r="L46" s="68" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v/>
+      </c>
+      <c r="M46" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N46" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O46" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P46" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q46" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R46" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S46" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T46" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U46" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="V46" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W46" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X46" s="42">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="Y46" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Z46" s="71" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA46" s="71" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AB46" s="70" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AC46" s="71" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD46" s="71" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C47" s="41">
+        <f>IF(C46=-1,-1,
+      IF(C46&lt;income_max_row, C46+1,
+           IF(C46=income_max_row,income_total_row,
+               IF(C46=income_total_row, "/1",
+                      IF(C46="/1", expenses_header_row,
+                             IF(C46&lt;expenses_max_row, C46+1,
+                                   IF(C46=expenses_max_row, expenses_total_row,
+                                        IF(C46= expenses_total_row, "/2",
+                                              IF(C46="/2", savings_header_row,
+                                                    IF(C46&lt;savings_max_row, C46+1,
+                                                         IF(C46=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>-1</v>
+      </c>
+      <c r="D47" s="42">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E47" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v/>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v/>
+      </c>
+      <c r="K47" s="67" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v/>
+      </c>
+      <c r="L47" s="68" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v/>
+      </c>
+      <c r="M47" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N47" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O47" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P47" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q47" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R47" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S47" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T47" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U47" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="V47" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W47" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X47" s="42">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="Y47" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Z47" s="71" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA47" s="71" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AB47" s="70" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AC47" s="71" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD47" s="71" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C48" s="41">
+        <f>IF(C47=-1,-1,
+      IF(C47&lt;income_max_row, C47+1,
+           IF(C47=income_max_row,income_total_row,
+               IF(C47=income_total_row, "/1",
+                      IF(C47="/1", expenses_header_row,
+                             IF(C47&lt;expenses_max_row, C47+1,
+                                   IF(C47=expenses_max_row, expenses_total_row,
+                                        IF(C47= expenses_total_row, "/2",
+                                              IF(C47="/2", savings_header_row,
+                                                    IF(C47&lt;savings_max_row, C47+1,
+                                                         IF(C47=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>-1</v>
+      </c>
+      <c r="D48" s="42">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E48" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v/>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v/>
+      </c>
+      <c r="K48" s="67" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v/>
+      </c>
+      <c r="L48" s="68" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v/>
+      </c>
+      <c r="M48" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N48" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O48" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P48" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q48" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R48" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S48" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T48" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U48" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="V48" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W48" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X48" s="42">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="Y48" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Z48" s="71" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA48" s="71" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AB48" s="70" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AC48" s="71" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD48" s="71" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C49" s="41">
+        <f>IF(C48=-1,-1,
+      IF(C48&lt;income_max_row, C48+1,
+           IF(C48=income_max_row,income_total_row,
+               IF(C48=income_total_row, "/1",
+                      IF(C48="/1", expenses_header_row,
+                             IF(C48&lt;expenses_max_row, C48+1,
+                                   IF(C48=expenses_max_row, expenses_total_row,
+                                        IF(C48= expenses_total_row, "/2",
+                                              IF(C48="/2", savings_header_row,
+                                                    IF(C48&lt;savings_max_row, C48+1,
+                                                         IF(C48=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>-1</v>
+      </c>
+      <c r="D49" s="42">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E49" s="41">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="41" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v/>
+      </c>
+      <c r="J49" s="2" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v/>
+      </c>
+      <c r="K49" s="67" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v/>
+      </c>
+      <c r="L49" s="68" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v/>
+      </c>
+      <c r="M49" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N49" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O49" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P49" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q49" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R49" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S49" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T49" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U49" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="V49" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W49" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X49" s="42">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="Y49" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Z49" s="71" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA49" s="71" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AB49" s="70" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AC49" s="71" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD49" s="71" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C50" s="43">
+        <f>IF(C49=-1,-1,
+      IF(C49&lt;income_max_row, C49+1,
+           IF(C49=income_max_row,income_total_row,
+               IF(C49=income_total_row, "/1",
+                      IF(C49="/1", expenses_header_row,
+                             IF(C49&lt;expenses_max_row, C49+1,
+                                   IF(C49=expenses_max_row, expenses_total_row,
+                                        IF(C49= expenses_total_row, "/2",
+                                              IF(C49="/2", savings_header_row,
+                                                    IF(C49&lt;savings_max_row, C49+1,
+                                                         IF(C49=savings_max_row, savings_total_row,
+                                                              -1)))))))))))</f>
+        <v>-1</v>
+      </c>
+      <c r="D50" s="45">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E50" s="43">
+        <f>1 * OR(row_id=income_header_row, row_id=expenses_header_row, row_id=savings_header_row)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="44">
+        <f>1* OR(row_id=income_total_row,row_id=expenses_total_row, row_id=savings_total_row)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="43" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, header_row_id),"")</f>
+        <v/>
+      </c>
+      <c r="J50" s="44" t="str">
+        <f>IFERROR(INDEX('Budget Planning'!$C:$C, row_id),"")</f>
+        <v/>
+      </c>
+      <c r="K50" s="67" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+      IF(is_total,
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+     ),
+           IF(selected_period="Total Year",
+              SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year)),
+     SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (tracking[Category]=item) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=selected_period))
+   )
+)
+)</f>
+        <v/>
+      </c>
+      <c r="L50" s="68" t="str">
+        <f>IF(OR(is_header,is_empty),"",
+INDEX('Budget Planning'!$E:$EM,row_id,
+               MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
+        <v/>
+      </c>
+      <c r="M50" s="41" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_min_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_min_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_min_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="N50" s="42" t="str">
+        <f>IF(is_cat,
+      IF(header_row_id=income_header_row, MATCH(income_max_row,$C:$C,0),
+            IF(header_row_id=expenses_header_row, MATCH(expenses_max_row,$C:$C,0),
+                 IF(header_row_id=savings_header_row, MATCH(savings_max_row,$C:$C,0), ""))), "" )</f>
+        <v/>
+      </c>
+      <c r="O50" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P50" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q50" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R50" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S50" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T50" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U50" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="V50" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W50" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X50" s="42">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="Y50" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Z50" s="71" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA50" s="71" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AB50" s="70" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AC50" s="71" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD50" s="71" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C2:AF2"/>
     <mergeCell ref="Y11:AD11"/>
     <mergeCell ref="AF11:AR11"/>
     <mergeCell ref="AQ5:AR5"/>
@@ -14553,8 +21758,65 @@
     <mergeCell ref="AN9:AP9"/>
     <mergeCell ref="AQ9:AR9"/>
   </mergeCells>
+  <conditionalFormatting sqref="Y13:AD50">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+      <formula>row_id=income_header_row</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+      <formula>row_id=expenses_header_row</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
+      <formula>row_id=savings_header_row</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="4">
+      <formula>is_total</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB13:AB50">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3A988FE4-8E96-43B1-AF34-F67C773B8D3F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+      <formula>AND(OR(is_cat, is_total), out_budget&gt;0, out_percentage_completed&gt;=1, header_row_id=income_header_row)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+      <formula>AND(OR(is_cat, is_total), out_budget&gt;0, out_percentage_completed&gt;=1, header_row_id=expenses_header_row)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
+      <formula>AND(OR(is_cat, is_total), out_budget&gt;0, out_percentage_completed&gt;=1, header_row_id=savings_header_row)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3A988FE4-8E96-43B1-AF34-F67C773B8D3F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AB13:AB50</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Year" error="Please select a valid year from the drondown.">
@@ -14580,7 +21842,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14593,80 +21855,80 @@
     <col min="6" max="6" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="52" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51"/>
+    <row r="1" spans="1:6" s="50" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49"/>
     </row>
-    <row r="2" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="53" t="s">
+    <row r="2" spans="1:6" s="50" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="50" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="82" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="52" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="49">
+        <v>53</v>
+      </c>
+      <c r="E8" s="47">
         <f>current_date</f>
         <v>45137</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="49">
+        <v>54</v>
+      </c>
+      <c r="E9" s="47">
         <f>MAX(tracking[Date])</f>
-        <v>44928</v>
+        <v>44988</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="str">
         <f>IF(E9=0,"", "(" &amp; _xlfn.DAYS(E8,E9) &amp; " days ago)")</f>
-        <v>(209 days ago)</v>
+        <v>(149 days ago)</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <f>COUNT(tracking[Date])</f>
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="str">
         <f>"(" &amp; SUMPRODUCT(--(YEAR(tracking[Date])=YEAR(current_date))) &amp; " this year)"</f>
-        <v>(2 this year)</v>
+        <v>(53 this year)</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="50">
+        <v>58</v>
+      </c>
+      <c r="E13" s="48">
         <f>_xlfn.IFNA(INDEX(tracking[Balance], MATCH(Calculations!E9,tracking[Date],0)),"-")</f>
-        <v>1700</v>
+        <v>336150</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="str">
         <f>IF(E13&gt;0, "of tracked income left to be allocated","allocated not covered by income")</f>
@@ -14674,41 +21936,41 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="C17" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D19" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <f>IF('Budget Dashboard'!$AQ$6="Current Year", YEAR(current_date),'Budget Dashboard'!$AQ$6)</f>
-        <v>2025</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="69" t="str">
+      <c r="D20" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="58">
         <f>IF('Budget Dashboard'!$AQ$9="Total Year","Total Year",
 IF('Budget Dashboard'!$AQ$9="Current Month",MONTH(current_date),
 MONTH('Budget Dashboard'!$AQ$9)))</f>
-        <v>Total Year</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D21" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="70" t="str">
+        <v>74</v>
+      </c>
+      <c r="E21" s="59" t="str">
         <f>IF(selected_period="Total Year", "Total Year",
 TEXT(DATE(selected_year,selected_period,1),"mmmm"))</f>
-        <v>Total Year</v>
+        <v>January</v>
       </c>
     </row>
   </sheetData>
@@ -14765,133 +22027,133 @@
     <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="52" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51"/>
+    <row r="1" spans="1:5" s="50" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49"/>
     </row>
-    <row r="2" spans="1:5" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="53" t="s">
+    <row r="2" spans="1:5" s="50" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="50" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="52" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="52" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>69</v>
+      <c r="E7" s="52" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>70</v>
+      <c r="C8" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="63">
+      <c r="C9" s="53">
         <f>starting_year</f>
         <v>2023</v>
       </c>
-      <c r="E9" s="63" t="s">
-        <v>71</v>
+      <c r="E9" s="53" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="63">
+      <c r="C10" s="53">
         <f>C9+1</f>
         <v>2024</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="55">
         <v>36526</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="63">
+      <c r="C11" s="53">
         <f t="shared" ref="C11:C18" si="0">C10+1</f>
         <v>2025</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="55">
         <v>36557</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="63">
+      <c r="C12" s="53">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="55">
         <v>36586</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="63">
+      <c r="C13" s="53">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="55">
         <v>36617</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="63">
+      <c r="C14" s="53">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="55">
         <v>36647</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="63">
+      <c r="C15" s="53">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="55">
         <v>36678</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="63">
+      <c r="C16" s="53">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="55">
         <v>36708</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="63">
+      <c r="C17" s="53">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="55">
         <v>36739</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="64">
+      <c r="C18" s="54">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="55">
         <v>36770</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="65">
+      <c r="E19" s="55">
         <v>36800</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="65">
+      <c r="E20" s="55">
         <v>36831</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="66">
+      <c r="E21" s="56">
         <v>36861</v>
       </c>
     </row>

--- a/Expense_Tracker.xlsx
+++ b/Expense_Tracker.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Budget Planning" sheetId="4" r:id="rId2"/>
     <sheet name="Budget Tracking" sheetId="5" r:id="rId3"/>
     <sheet name="Budget Dashboard" sheetId="6" r:id="rId4"/>
-    <sheet name="Calculations" sheetId="2" r:id="rId5"/>
-    <sheet name="Dropdown Data" sheetId="1" r:id="rId6"/>
+    <sheet name="Calculations" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Dropdown Data" sheetId="1" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Dropdown Data'!#REF!</definedName>
@@ -32,7 +32,7 @@
     <definedName name="comb_rank_norm_run_range" localSheetId="3">'Budget Dashboard'!$V1</definedName>
     <definedName name="comb_rank_range" localSheetId="3">'Budget Dashboard'!$T1</definedName>
     <definedName name="comb_rank_unique" localSheetId="3">'Budget Dashboard'!$W1</definedName>
-    <definedName name="current_date">DATE(2023,7,30)</definedName>
+    <definedName name="current_date">TODAY()</definedName>
     <definedName name="expenses_header_row">ROW(expenses[[#Headers],[Expenses]])</definedName>
     <definedName name="expenses_max_row">MAX(INDEX((expenses[]&lt;&gt; "")*ROW(expenses[]),0))</definedName>
     <definedName name="expenses_min_row">MIN(INDEX((expenses[]&lt;&gt; "")*ROW(expenses[]),0))</definedName>
@@ -54,6 +54,7 @@
     <definedName name="savings_header_row">ROW(savings[[#Headers],[Savings]])</definedName>
     <definedName name="savings_max_row">MAX(INDEX((savings[]&lt;&gt; "")*ROW(savings[]),0))</definedName>
     <definedName name="savings_min_row">MIN(INDEX((savings[]&lt;&gt; "")*ROW(savings[]),0))</definedName>
+    <definedName name="savings_rate_calculation_type">Settings!$E$22</definedName>
     <definedName name="savings_total_row">ROW('Budget Planning'!$C$55)</definedName>
     <definedName name="selected_period">Calculations!$E$20</definedName>
     <definedName name="selected_period_display">Calculations!$E$21</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="127">
   <si>
     <t>Rent</t>
   </si>
@@ -468,18 +469,48 @@
   <si>
     <t>Show Rem. Budget:</t>
   </si>
+  <si>
+    <t>Days in Period:</t>
+  </si>
+  <si>
+    <t>Days Passed in Period:</t>
+  </si>
+  <si>
+    <t>Days Passed in Period %:</t>
+  </si>
+  <si>
+    <t>Period Tracking Balance:</t>
+  </si>
+  <si>
+    <t>Period Savings Rate:</t>
+  </si>
+  <si>
+    <t>KPI Calculation in Dashboard:</t>
+  </si>
+  <si>
+    <t>Savings Rate as % of Income:</t>
+  </si>
+  <si>
+    <t>% allocated to Savings</t>
+  </si>
+  <si>
+    <t>Choose how you want the savings rate (SR) to be calculated in the dashboard KPI tiles:
+1) Active Option (% allocated to Savings):                            SR = Savings / Income
+2) Passive Option (% not allocated to Expenses):                SR = (Income - Expenses) / Income</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$-14009]d\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="mmm"/>
     <numFmt numFmtId="166" formatCode="d/mmm/yy"/>
     <numFmt numFmtId="167" formatCode="mmmm"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -1112,7 +1143,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1395,6 +1426,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2296,16 +2330,16 @@
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>161000</c:v>
+                  <c:v>516000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3500</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2486,22 +2520,22 @@
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>70000</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>10600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6046</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>989</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3880</c:v>
+                  <c:v>10219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2524,16 +2558,16 @@
                         <c:v>Debt</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Insurance</c:v>
+                        <c:v>Food</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>Food</c:v>
+                        <c:v>Insurance</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>Rent</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Education</c:v>
+                        <c:v>Gifts</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>Other</c:v>
@@ -2713,19 +2747,19 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Mutual Funds</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Savings Account</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Stocks Investment</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mutual Funds</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>NPS</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>PPF</c:v>
+                  <c:v>Recurring Deposit</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Other</c:v>
@@ -2740,22 +2774,22 @@
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12000</c:v>
+                  <c:v>60789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7000</c:v>
+                  <c:v>27000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5789</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>8600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3456</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000</c:v>
+                  <c:v>12796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,13 +3267,13 @@
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>33496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>74440</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>177000</c:v>
@@ -3251,13 +3285,13 @@
                   <c:v>38245</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3823,10 +3857,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>65604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3460</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3841,91 +3875,91 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>95100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>58900</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>208800</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>101200</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>163000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>78800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>84200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>155000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>106200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>48800</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>155000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>78800</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>76200</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>155500</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>81600</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>73900</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>155000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>78800</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>76200</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>155500</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>99400</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>56100</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>155000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>79400</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>75600</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>155400</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>87700</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>67700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4350,7 +4384,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>23000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -4508,13 +4542,13 @@
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>177000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74440</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4526,13 +4560,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>177000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -4687,10 +4721,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65604</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3460</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4705,91 +4739,91 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58900</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>310000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>208800</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>101200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>163000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>78800</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>155000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>106200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48800</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>155000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>78800</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>76200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>155500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>81600</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>73900</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>155000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>78800</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>76200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>155500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>99400</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>56100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>155000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>79400</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>75600</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>155400</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>87700</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>67700</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4878,7 +4912,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -5113,6 +5147,138 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculations!$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.58356164383561648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="524532952"/>
+        <c:axId val="524536480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="524532952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="524536480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="524536480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="524532952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5234,6 +5400,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7335,6 +7541,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Calculations!$E$49" lockText="1" noThreeD="1"/>
 </file>
@@ -7523,7 +8234,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr/>
-              <a:t>30-Jul-23</a:t>
+              <a:t>1-Aug-23</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="1200" b="1"/>
           </a:p>
@@ -7753,7 +8464,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr/>
-              <a:t>(149 days ago)</a:t>
+              <a:t>(151 days ago)</a:t>
             </a:fld>
             <a:endParaRPr lang="en-IN" sz="1200" b="1"/>
           </a:p>
@@ -9000,6 +9711,968 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>94575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="Group 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="314326" y="533400"/>
+          <a:ext cx="2105024" cy="828000"/>
+          <a:chOff x="285751" y="466725"/>
+          <a:chExt cx="2105024" cy="828000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="285751" y="466725"/>
+            <a:ext cx="2105024" cy="828000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="825500" dist="127000" dir="5400000" sx="95000" sy="95000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="15000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="TextBox 16"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="517774" y="533400"/>
+            <a:ext cx="1577725" cy="247652"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="1"/>
+              <a:t>Selected Year &amp;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="1" baseline="0"/>
+              <a:t> Period</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="selected_year">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="523875" y="847725"/>
+            <a:ext cx="640800" cy="230400"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{DDC437F5-5375-4908-B921-CEFF352106B7}" type="TxLink">
+              <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>2023</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="1000" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="selected_period_display">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266825" y="847725"/>
+            <a:ext cx="895350" cy="230400"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{0CD74135-F3B4-43E3-9850-F0CD928B110A}" type="TxLink">
+              <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Total Year</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="1000" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>523500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>94575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Group 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2638425" y="533400"/>
+          <a:ext cx="1476000" cy="828000"/>
+          <a:chOff x="2667000" y="466725"/>
+          <a:chExt cx="1476000" cy="828000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Rounded Rectangle 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2667000" y="466725"/>
+            <a:ext cx="1476000" cy="828000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="825500" dist="127000" dir="5400000" sx="95000" sy="95000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="15000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2790825" y="552452"/>
+            <a:ext cx="1238250" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="1"/>
+              <a:t>Period</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="1" baseline="0"/>
+              <a:t> Completed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="27" name="Chart 26"/>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="2843025" y="723900"/>
+          <a:ext cx="1123950" cy="466725"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="Calculations!E24">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="TextBox 25"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3114488" y="847724"/>
+            <a:ext cx="581025" cy="200027"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{B4AB815E-7ABC-4E37-8EF8-CD9CF87CD097}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>58%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="1200" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>94575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="Group 31"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4352926" y="533400"/>
+          <a:ext cx="3429000" cy="828000"/>
+          <a:chOff x="6381750" y="447674"/>
+          <a:chExt cx="3552825" cy="828000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="Rounded Rectangle 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6381750" y="447674"/>
+            <a:ext cx="3552825" cy="828000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="825500" dist="127000" dir="5400000" sx="95000" sy="95000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="15000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="TextBox 33"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6457949" y="533399"/>
+            <a:ext cx="2324101" cy="247652"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="1"/>
+              <a:t>Period Tracking Balance</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="Calculations!E25">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="TextBox 34"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6467474" y="790576"/>
+            <a:ext cx="1028701" cy="276224"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:fld id="{4757A927-9C8D-468E-B196-BC05079A7F30}" type="TxLink">
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:t> 3,36,150 </a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="2000" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="Calculations!E26">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="TextBox 35"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7496175" y="790576"/>
+            <a:ext cx="2295525" cy="276224"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:fld id="{7CCA4A7D-B632-47E7-8FC1-0216E09A96C6}" type="TxLink">
+              <a:rPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:t>of tracked income left to be allocated</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="1050" b="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>94575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="Group 28"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8067676" y="533400"/>
+          <a:ext cx="2800349" cy="828000"/>
+          <a:chOff x="8039101" y="466725"/>
+          <a:chExt cx="2800349" cy="828000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8039101" y="466725"/>
+            <a:ext cx="2800349" cy="828000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="825500" dist="127000" dir="5400000" sx="95000" sy="95000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="15000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="TextBox 38"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8112644" y="552450"/>
+            <a:ext cx="1402831" cy="247652"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="1"/>
+              <a:t>Period Savings Rate</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="Calculations!E27">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="TextBox 39"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9026712" y="809627"/>
+            <a:ext cx="688788" cy="276224"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{11BD2A91-EE48-464B-961C-A9998739281F}" type="TxLink">
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>22.3%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-IN" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="TextBox 27"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8153401" y="809627"/>
+            <a:ext cx="1009649" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1050">
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>You are saving</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="TextBox 42"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9563100" y="809627"/>
+            <a:ext cx="1200149" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1050">
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>of your income.</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9351,10 +11024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9363,7 +11036,7 @@
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="6" max="6" width="1.5703125" customWidth="1"/>
     <col min="7" max="7" width="85.85546875" customWidth="1"/>
     <col min="8" max="8" width="2" customWidth="1"/>
@@ -9704,10 +11377,12 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="41"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="39" t="s">
+        <v>123</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -9745,10 +11420,16 @@
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="41"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="107" t="s">
+        <v>126</v>
+      </c>
       <c r="H22" s="42"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -9767,7 +11448,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="107"/>
       <c r="H23" s="42"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -9782,12 +11463,12 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -9801,12 +11482,12 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -9970,20 +11651,43 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G22:G24"/>
   </mergeCells>
   <conditionalFormatting sqref="E16">
     <cfRule type="expression" dxfId="34" priority="1">
       <formula>shift_late_income_status="Inactive"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please select a valid value from the dropdown." sqref="E14">
       <formula1>"Active, Inactive"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please select a valid value from the dropdown." sqref="E22">
+      <formula1>"% allocated to Savings, % not allocated to Expenses"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22500,8 +24204,8 @@
     <col min="22" max="22" width="20.5703125" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="14" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="19.28515625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" customWidth="1"/>
     <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -22569,8 +24273,8 @@
       </c>
       <c r="AO6" s="113"/>
       <c r="AP6" s="113"/>
-      <c r="AQ6" s="112">
-        <v>2023</v>
+      <c r="AQ6" s="112" t="s">
+        <v>67</v>
       </c>
       <c r="AR6" s="112"/>
     </row>
@@ -22586,8 +24290,8 @@
       </c>
       <c r="AO9" s="113"/>
       <c r="AP9" s="113"/>
-      <c r="AQ9" s="114">
-        <v>36557</v>
+      <c r="AQ9" s="114" t="s">
+        <v>69</v>
       </c>
       <c r="AR9" s="114"/>
     </row>
@@ -22615,11 +24319,11 @@
       <c r="W11" s="50"/>
       <c r="X11" s="50"/>
       <c r="Y11" s="109" t="str">
-        <f>"Breakdown - " &amp;
+        <f ca="1">"Breakdown - " &amp;
 IF(selected_period="Total Year",
 selected_year &amp; " (Total Year)",
 selected_period_display &amp; " " &amp; selected_year)</f>
-        <v>Breakdown - February 2023</v>
+        <v>Breakdown - 2023 (Total Year)</v>
       </c>
       <c r="Z11" s="109"/>
       <c r="AA11" s="109"/>
@@ -22627,11 +24331,11 @@
       <c r="AC11" s="109"/>
       <c r="AD11" s="109"/>
       <c r="AF11" s="109" t="str">
-        <f>"Summary - " &amp;
+        <f ca="1">"Summary - " &amp;
 IF(selected_period="Total Year",
 selected_year &amp; " (Total Year)",
 selected_period_display &amp; " " &amp; selected_year)</f>
-        <v>Summary - February 2023</v>
+        <v>Summary - 2023 (Total Year)</v>
       </c>
       <c r="AG11" s="109"/>
       <c r="AH11" s="109"/>
@@ -22905,7 +24609,7 @@
         <v>Dividends</v>
       </c>
       <c r="K14" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -22917,13 +24621,13 @@
    )
 )
 )</f>
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="L14" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>3000</v>
+        <v>10400</v>
       </c>
       <c r="M14" s="41">
         <f>IF(is_cat,
@@ -22985,23 +24689,23 @@
       </c>
       <c r="Z14" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>161000</v>
+        <v>516000</v>
       </c>
       <c r="AA14" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>155000</v>
+        <v>1860000</v>
       </c>
       <c r="AB14" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>1.0387096774193549</v>
+        <v>0.27741935483870966</v>
       </c>
       <c r="AC14" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1344000</v>
       </c>
       <c r="AD14" s="71">
         <f t="shared" ca="1" si="18"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="82"/>
       <c r="AG14" s="2"/>
@@ -23061,7 +24765,7 @@
         <v>Others</v>
       </c>
       <c r="K15" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -23073,13 +24777,13 @@
    )
 )
 )</f>
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="L15" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="M15" s="41">
         <f>IF(is_cat,
@@ -23141,23 +24845,23 @@
       </c>
       <c r="Z15" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="AA15" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="AB15" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>3.3333333333333335</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AC15" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="AD15" s="71">
         <f t="shared" ca="1" si="18"/>
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="82"/>
       <c r="AG15" s="2"/>
@@ -23214,7 +24918,7 @@
         <v>Salary</v>
       </c>
       <c r="K16" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -23226,13 +24930,13 @@
    )
 )
 )</f>
-        <v>161000</v>
+        <v>516000</v>
       </c>
       <c r="L16" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>155000</v>
+        <v>1860000</v>
       </c>
       <c r="M16" s="41">
         <f>IF(is_cat,
@@ -23294,19 +24998,19 @@
       </c>
       <c r="Z16" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="AA16" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="AB16" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AC16" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>500</v>
+        <v>12500</v>
       </c>
       <c r="AD16" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -23321,7 +25025,7 @@
       </c>
       <c r="AJ16" s="97">
         <f ca="1">Calculations!F35</f>
-        <v>161000</v>
+        <v>516000</v>
       </c>
       <c r="AK16" s="83"/>
       <c r="AM16" s="82"/>
@@ -23376,7 +25080,7 @@
         <v>Selling Stocks/Funds</v>
       </c>
       <c r="K17" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -23388,13 +25092,13 @@
    )
 )
 )</f>
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L17" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="M17" s="41">
         <f>IF(is_cat,
@@ -23456,19 +25160,19 @@
       </c>
       <c r="Z17" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="AA17" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>3000</v>
+        <v>10400</v>
       </c>
       <c r="AB17" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="AC17" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>2800</v>
+        <v>7200</v>
       </c>
       <c r="AD17" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -23483,7 +25187,7 @@
       </c>
       <c r="AJ17" s="97">
         <f ca="1">Calculations!F36</f>
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="AK17" s="83"/>
       <c r="AM17" s="82"/>
@@ -23538,7 +25242,7 @@
         <v>Total</v>
       </c>
       <c r="K18" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -23550,13 +25254,13 @@
    )
 )
 )</f>
-        <v>214700</v>
+        <v>591700</v>
       </c>
       <c r="L18" s="68">
         <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>177000</v>
+        <v>2090400</v>
       </c>
       <c r="M18" s="41" t="str">
         <f>IF(is_cat,
@@ -23618,23 +25322,23 @@
       </c>
       <c r="Z18" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>214700</v>
+        <v>591700</v>
       </c>
       <c r="AA18" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>177000</v>
+        <v>2090400</v>
       </c>
       <c r="AB18" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2129943502824858</v>
+        <v>0.28305587447378494</v>
       </c>
       <c r="AC18" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1498700</v>
       </c>
       <c r="AD18" s="71">
         <f t="shared" ca="1" si="18"/>
-        <v>37700</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="82"/>
       <c r="AG18" s="2"/>
@@ -23645,7 +25349,7 @@
       </c>
       <c r="AJ18" s="97">
         <f ca="1">Calculations!F37</f>
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="AK18" s="83"/>
       <c r="AM18" s="82"/>
@@ -23807,7 +25511,7 @@
       </c>
       <c r="AJ19" s="97">
         <f ca="1">Calculations!F38</f>
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="AK19" s="83"/>
       <c r="AM19" s="82"/>
@@ -24024,7 +25728,7 @@
         <v>Debt</v>
       </c>
       <c r="K21" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -24036,13 +25740,13 @@
    )
 )
 )</f>
-        <v>70000</v>
+        <v>78000</v>
       </c>
       <c r="L21" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>70000</v>
+        <v>870000</v>
       </c>
       <c r="M21" s="41">
         <f>IF(is_cat,
@@ -24104,19 +25808,19 @@
       </c>
       <c r="Z21" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>70000</v>
+        <v>78000</v>
       </c>
       <c r="AA21" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>70000</v>
+        <v>870000</v>
       </c>
       <c r="AB21" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>8.9655172413793102E-2</v>
       </c>
       <c r="AC21" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>792000</v>
       </c>
       <c r="AD21" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -24186,7 +25890,7 @@
         <v>Education</v>
       </c>
       <c r="K22" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -24198,13 +25902,13 @@
    )
 )
 )</f>
-        <v>989</v>
+        <v>1989</v>
       </c>
       <c r="L22" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>1500</v>
+        <v>5400</v>
       </c>
       <c r="M22" s="41">
         <f>IF(is_cat,
@@ -24226,7 +25930,7 @@
       </c>
       <c r="P22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="2" t="str">
         <f t="shared" si="5"/>
@@ -24234,11 +25938,11 @@
       </c>
       <c r="R22" s="42">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S22" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>710</v>
       </c>
       <c r="T22" s="2" t="str">
         <f t="shared" si="8"/>
@@ -24246,7 +25950,7 @@
       </c>
       <c r="U22" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V22" s="2" t="str">
         <f t="shared" si="10"/>
@@ -24254,31 +25958,31 @@
       </c>
       <c r="W22" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X22" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Y22" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Insurance</v>
+        <v>Food</v>
       </c>
       <c r="Z22" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="AA22" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>7500</v>
+        <v>87000</v>
       </c>
       <c r="AB22" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.66666666666666663</v>
+        <v>0.18390804597701149</v>
       </c>
       <c r="AC22" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>2500</v>
+        <v>71000</v>
       </c>
       <c r="AD22" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -24293,7 +25997,7 @@
       </c>
       <c r="AJ22" s="99">
         <f ca="1">Calculations!F41</f>
-        <v>214700</v>
+        <v>591700</v>
       </c>
       <c r="AK22" s="83"/>
       <c r="AM22" s="82"/>
@@ -24348,7 +26052,7 @@
         <v>Entertainment</v>
       </c>
       <c r="K23" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -24360,13 +26064,13 @@
    )
 )
 )</f>
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="L23" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M23" s="41">
         <f>IF(is_cat,
@@ -24388,7 +26092,7 @@
       </c>
       <c r="P23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q23" s="2" t="str">
         <f t="shared" si="5"/>
@@ -24396,11 +26100,11 @@
       </c>
       <c r="R23" s="42">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S23" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="T23" s="2" t="str">
         <f t="shared" si="8"/>
@@ -24424,23 +26128,23 @@
       </c>
       <c r="Y23" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Food</v>
+        <v>Insurance</v>
       </c>
       <c r="Z23" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>4000</v>
+        <v>10600</v>
       </c>
       <c r="AA23" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>5000</v>
+        <v>23100</v>
       </c>
       <c r="AB23" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.8</v>
+        <v>0.45887445887445888</v>
       </c>
       <c r="AC23" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>1000</v>
+        <v>12500</v>
       </c>
       <c r="AD23" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -24504,7 +26208,7 @@
         <v>Food</v>
       </c>
       <c r="K24" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -24516,13 +26220,13 @@
    )
 )
 )</f>
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="L24" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>5000</v>
+        <v>87000</v>
       </c>
       <c r="M24" s="41">
         <f>IF(is_cat,
@@ -24544,7 +26248,7 @@
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="2" t="str">
         <f t="shared" si="5"/>
@@ -24556,7 +26260,7 @@
       </c>
       <c r="S24" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="T24" s="2" t="str">
         <f t="shared" si="8"/>
@@ -24564,7 +26268,7 @@
       </c>
       <c r="U24" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V24" s="2" t="str">
         <f t="shared" si="10"/>
@@ -24572,11 +26276,11 @@
       </c>
       <c r="W24" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X24" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y24" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -24584,19 +26288,19 @@
       </c>
       <c r="Z24" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>2500</v>
+        <v>6046</v>
       </c>
       <c r="AA24" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>3900</v>
+        <v>11700</v>
       </c>
       <c r="AB24" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.64102564102564108</v>
+        <v>0.51675213675213671</v>
       </c>
       <c r="AC24" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>1400</v>
+        <v>5654</v>
       </c>
       <c r="AD24" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -24660,7 +26364,7 @@
         <v>Gifts</v>
       </c>
       <c r="K25" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -24672,13 +26376,13 @@
    )
 )
 )</f>
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="L25" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>2000</v>
+        <v>106000</v>
       </c>
       <c r="M25" s="41">
         <f>IF(is_cat,
@@ -24700,7 +26404,7 @@
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q25" s="2" t="str">
         <f t="shared" si="5"/>
@@ -24708,11 +26412,11 @@
       </c>
       <c r="R25" s="42">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S25" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="T25" s="2" t="str">
         <f t="shared" si="8"/>
@@ -24720,7 +26424,7 @@
       </c>
       <c r="U25" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V25" s="2" t="str">
         <f t="shared" si="10"/>
@@ -24728,31 +26432,31 @@
       </c>
       <c r="W25" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X25" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y25" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Education</v>
+        <v>Gifts</v>
       </c>
       <c r="Z25" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>989</v>
+        <v>3000</v>
       </c>
       <c r="AA25" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>1500</v>
+        <v>106000</v>
       </c>
       <c r="AB25" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.65933333333333333</v>
+        <v>2.8301886792452831E-2</v>
       </c>
       <c r="AC25" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>511</v>
+        <v>103000</v>
       </c>
       <c r="AD25" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -24804,7 +26508,7 @@
         <v>Insurance</v>
       </c>
       <c r="K26" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -24816,13 +26520,13 @@
    )
 )
 )</f>
-        <v>5000</v>
+        <v>10600</v>
       </c>
       <c r="L26" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>7500</v>
+        <v>23100</v>
       </c>
       <c r="M26" s="41">
         <f>IF(is_cat,
@@ -24844,7 +26548,7 @@
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="2" t="str">
         <f t="shared" si="5"/>
@@ -24852,11 +26556,11 @@
       </c>
       <c r="R26" s="42">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S26" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="T26" s="2" t="str">
         <f t="shared" si="8"/>
@@ -24864,7 +26568,7 @@
       </c>
       <c r="U26" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V26" s="2" t="str">
         <f t="shared" si="10"/>
@@ -24872,31 +26576,31 @@
       </c>
       <c r="W26" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X26" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y26" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Miscellaneous</v>
+        <v>Medical</v>
       </c>
       <c r="Z26" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>700</v>
+        <v>1990</v>
       </c>
       <c r="AA26" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>1000</v>
+        <v>8800</v>
       </c>
       <c r="AB26" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.7</v>
+        <v>0.22613636363636364</v>
       </c>
       <c r="AC26" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>300</v>
+        <v>6810</v>
       </c>
       <c r="AD26" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -24960,7 +26664,7 @@
         <v>Medical</v>
       </c>
       <c r="K27" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -24972,13 +26676,13 @@
    )
 )
 )</f>
-        <v>190</v>
+        <v>1990</v>
       </c>
       <c r="L27" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="M27" s="41">
         <f>IF(is_cat,
@@ -25000,7 +26704,7 @@
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q27" s="2" t="str">
         <f t="shared" si="5"/>
@@ -25008,11 +26712,11 @@
       </c>
       <c r="R27" s="42">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S27" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="T27" s="2" t="str">
         <f t="shared" si="8"/>
@@ -25020,7 +26724,7 @@
       </c>
       <c r="U27" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V27" s="2" t="str">
         <f t="shared" si="10"/>
@@ -25028,11 +26732,11 @@
       </c>
       <c r="W27" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X27" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y27" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -25040,19 +26744,19 @@
       </c>
       <c r="Z27" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="AA27" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="AB27" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.125</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="AC27" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>3500</v>
+        <v>10100</v>
       </c>
       <c r="AD27" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -25116,7 +26820,7 @@
         <v>Miscellaneous</v>
       </c>
       <c r="K28" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -25128,13 +26832,13 @@
    )
 )
 )</f>
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L28" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M28" s="41">
         <f>IF(is_cat,
@@ -25156,7 +26860,7 @@
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="2" t="str">
         <f t="shared" si="5"/>
@@ -25164,11 +26868,11 @@
       </c>
       <c r="R28" s="42">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S28" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>1011</v>
       </c>
       <c r="T28" s="2" t="str">
         <f t="shared" si="8"/>
@@ -25176,7 +26880,7 @@
       </c>
       <c r="U28" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="V28" s="2" t="str">
         <f t="shared" si="10"/>
@@ -25184,31 +26888,31 @@
       </c>
       <c r="W28" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X28" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y28" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Gifts</v>
+        <v>Transportation</v>
       </c>
       <c r="Z28" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>500</v>
+        <v>1190</v>
       </c>
       <c r="AA28" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>2000</v>
+        <v>47800</v>
       </c>
       <c r="AB28" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.25</v>
+        <v>2.4895397489539749E-2</v>
       </c>
       <c r="AC28" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>1500</v>
+        <v>46610</v>
       </c>
       <c r="AD28" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -25266,7 +26970,7 @@
         <v>Personal Care</v>
       </c>
       <c r="K29" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -25278,13 +26982,13 @@
    )
 )
 )</f>
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L29" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>500</v>
+        <v>19300</v>
       </c>
       <c r="M29" s="41">
         <f>IF(is_cat,
@@ -25306,7 +27010,7 @@
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="2" t="str">
         <f t="shared" si="5"/>
@@ -25314,11 +27018,11 @@
       </c>
       <c r="R29" s="42">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S29" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>812</v>
+        <v>106</v>
       </c>
       <c r="T29" s="2" t="str">
         <f t="shared" si="8"/>
@@ -25326,7 +27030,7 @@
       </c>
       <c r="U29" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V29" s="2" t="str">
         <f t="shared" si="10"/>
@@ -25334,31 +27038,31 @@
       </c>
       <c r="W29" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X29" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Y29" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Medical</v>
+        <v>Personal Care</v>
       </c>
       <c r="Z29" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>190</v>
+        <v>1100</v>
       </c>
       <c r="AA29" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>2000</v>
+        <v>19300</v>
       </c>
       <c r="AB29" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>9.5000000000000001E-2</v>
+        <v>5.6994818652849742E-2</v>
       </c>
       <c r="AC29" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>1810</v>
+        <v>18200</v>
       </c>
       <c r="AD29" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -25373,7 +27077,7 @@
       </c>
       <c r="AJ29" s="97">
         <f ca="1">Calculations!J35</f>
-        <v>70000</v>
+        <v>78000</v>
       </c>
       <c r="AK29" s="83"/>
       <c r="AM29" s="82"/>
@@ -25381,11 +27085,11 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="96" t="str">
         <f ca="1">Calculations!M35</f>
-        <v>Savings Account</v>
+        <v>Mutual Funds</v>
       </c>
       <c r="AQ29" s="97">
         <f ca="1">Calculations!N35</f>
-        <v>12000</v>
+        <v>60789</v>
       </c>
       <c r="AR29" s="83"/>
     </row>
@@ -25434,7 +27138,7 @@
         <v>Rent</v>
       </c>
       <c r="K30" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -25446,13 +27150,13 @@
    )
 )
 )</f>
-        <v>2500</v>
+        <v>6046</v>
       </c>
       <c r="L30" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>3900</v>
+        <v>11700</v>
       </c>
       <c r="M30" s="41">
         <f>IF(is_cat,
@@ -25482,11 +27186,11 @@
       </c>
       <c r="R30" s="42">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S30" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T30" s="2" t="str">
         <f t="shared" si="8"/>
@@ -25510,23 +27214,23 @@
       </c>
       <c r="Y30" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Transportation</v>
+        <v>Education</v>
       </c>
       <c r="Z30" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>790</v>
+        <v>1989</v>
       </c>
       <c r="AA30" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>800</v>
+        <v>5400</v>
       </c>
       <c r="AB30" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.98750000000000004</v>
+        <v>0.36833333333333335</v>
       </c>
       <c r="AC30" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>3411</v>
       </c>
       <c r="AD30" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -25537,11 +27241,11 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="96" t="str">
         <f ca="1">Calculations!I36</f>
-        <v>Insurance</v>
+        <v>Food</v>
       </c>
       <c r="AJ30" s="97">
         <f ca="1">Calculations!J36</f>
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="AK30" s="83"/>
       <c r="AM30" s="82"/>
@@ -25549,11 +27253,11 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="96" t="str">
         <f ca="1">Calculations!M36</f>
-        <v>Stocks Investment</v>
+        <v>Savings Account</v>
       </c>
       <c r="AQ30" s="97">
         <f ca="1">Calculations!N36</f>
-        <v>7000</v>
+        <v>27000</v>
       </c>
       <c r="AR30" s="83"/>
     </row>
@@ -25602,7 +27306,7 @@
         <v>Transportation</v>
       </c>
       <c r="K31" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -25614,13 +27318,13 @@
    )
 )
 )</f>
-        <v>790</v>
+        <v>1190</v>
       </c>
       <c r="L31" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>800</v>
+        <v>47800</v>
       </c>
       <c r="M31" s="41">
         <f>IF(is_cat,
@@ -25642,7 +27346,7 @@
       </c>
       <c r="P31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q31" s="2" t="str">
         <f t="shared" si="5"/>
@@ -25650,11 +27354,11 @@
       </c>
       <c r="R31" s="42">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="S31" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>611</v>
+        <v>94</v>
       </c>
       <c r="T31" s="2" t="str">
         <f t="shared" si="8"/>
@@ -25662,7 +27366,7 @@
       </c>
       <c r="U31" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V31" s="2" t="str">
         <f t="shared" si="10"/>
@@ -25670,31 +27374,31 @@
       </c>
       <c r="W31" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X31" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Y31" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Utilities</v>
+        <v>Miscellaneous</v>
       </c>
       <c r="Z31" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="AA31" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="AB31" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.66666666666666663</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="AC31" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="AD31" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -25705,11 +27409,11 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="96" t="str">
         <f ca="1">Calculations!I37</f>
-        <v>Food</v>
+        <v>Insurance</v>
       </c>
       <c r="AJ31" s="97">
         <f ca="1">Calculations!J37</f>
-        <v>4000</v>
+        <v>10600</v>
       </c>
       <c r="AK31" s="83"/>
       <c r="AM31" s="82"/>
@@ -25717,11 +27421,11 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="96" t="str">
         <f ca="1">Calculations!M37</f>
-        <v>Mutual Funds</v>
+        <v>Stocks Investment</v>
       </c>
       <c r="AQ31" s="97">
         <f ca="1">Calculations!N37</f>
-        <v>5789</v>
+        <v>17000</v>
       </c>
       <c r="AR31" s="83"/>
     </row>
@@ -25770,7 +27474,7 @@
         <v>Utilities</v>
       </c>
       <c r="K32" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -25782,13 +27486,13 @@
    )
 )
 )</f>
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="L32" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="M32" s="41">
         <f>IF(is_cat,
@@ -25810,7 +27514,7 @@
       </c>
       <c r="P32" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q32" s="2" t="str">
         <f t="shared" si="5"/>
@@ -25818,11 +27522,11 @@
       </c>
       <c r="R32" s="42">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S32" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>810</v>
+        <v>1212</v>
       </c>
       <c r="T32" s="2" t="str">
         <f t="shared" si="8"/>
@@ -25830,7 +27534,7 @@
       </c>
       <c r="U32" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V32" s="2" t="str">
         <f t="shared" si="10"/>
@@ -25838,35 +27542,35 @@
       </c>
       <c r="W32" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X32" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y32" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Personal Care</v>
+        <v>Utilities</v>
       </c>
       <c r="Z32" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="AA32" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>500</v>
+        <v>2700</v>
       </c>
       <c r="AB32" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2</v>
+        <v>0.35185185185185186</v>
       </c>
       <c r="AC32" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="AD32" s="71">
         <f t="shared" ca="1" si="18"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="82"/>
       <c r="AG32" s="2"/>
@@ -25877,7 +27581,7 @@
       </c>
       <c r="AJ32" s="97">
         <f ca="1">Calculations!J38</f>
-        <v>2500</v>
+        <v>6046</v>
       </c>
       <c r="AK32" s="83"/>
       <c r="AM32" s="82"/>
@@ -25889,7 +27593,7 @@
       </c>
       <c r="AQ32" s="97">
         <f ca="1">Calculations!N38</f>
-        <v>4000</v>
+        <v>8600</v>
       </c>
       <c r="AR32" s="83"/>
     </row>
@@ -25938,7 +27642,7 @@
         <v>Total</v>
       </c>
       <c r="K33" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -25950,13 +27654,13 @@
    )
 )
 )</f>
-        <v>86369</v>
+        <v>123865</v>
       </c>
       <c r="L33" s="68">
         <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>99100</v>
+        <v>1196800</v>
       </c>
       <c r="M33" s="41" t="str">
         <f>IF(is_cat,
@@ -26018,19 +27722,19 @@
       </c>
       <c r="Z33" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>86369</v>
+        <v>123865</v>
       </c>
       <c r="AA33" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>99100</v>
+        <v>1196800</v>
       </c>
       <c r="AB33" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.87153380423814331</v>
+        <v>0.10349682486631016</v>
       </c>
       <c r="AC33" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>12731</v>
+        <v>1072935</v>
       </c>
       <c r="AD33" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -26041,11 +27745,11 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="96" t="str">
         <f ca="1">Calculations!I39</f>
-        <v>Education</v>
+        <v>Gifts</v>
       </c>
       <c r="AJ33" s="97">
         <f ca="1">Calculations!J39</f>
-        <v>989</v>
+        <v>3000</v>
       </c>
       <c r="AK33" s="83"/>
       <c r="AM33" s="82"/>
@@ -26053,11 +27757,11 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="96" t="str">
         <f ca="1">Calculations!M39</f>
-        <v>PPF</v>
+        <v>Recurring Deposit</v>
       </c>
       <c r="AQ33" s="97">
         <f ca="1">Calculations!N39</f>
-        <v>3456</v>
+        <v>5500</v>
       </c>
       <c r="AR33" s="83"/>
     </row>
@@ -26213,7 +27917,7 @@
       </c>
       <c r="AJ34" s="97">
         <f ca="1">Calculations!J40</f>
-        <v>3880</v>
+        <v>10219</v>
       </c>
       <c r="AK34" s="83"/>
       <c r="AM34" s="82"/>
@@ -26225,7 +27929,7 @@
       </c>
       <c r="AQ34" s="97">
         <f ca="1">Calculations!N40</f>
-        <v>6000</v>
+        <v>12796</v>
       </c>
       <c r="AR34" s="83"/>
     </row>
@@ -26381,7 +28085,7 @@
       </c>
       <c r="AJ35" s="99">
         <f ca="1">Calculations!J41</f>
-        <v>86369</v>
+        <v>123865</v>
       </c>
       <c r="AK35" s="83"/>
       <c r="AM35" s="82"/>
@@ -26393,7 +28097,7 @@
       </c>
       <c r="AQ35" s="99">
         <f ca="1">Calculations!N41</f>
-        <v>38245</v>
+        <v>131685</v>
       </c>
       <c r="AR35" s="83"/>
     </row>
@@ -26442,7 +28146,7 @@
         <v>Fixed Deposit</v>
       </c>
       <c r="K36" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -26454,13 +28158,13 @@
    )
 )
 )</f>
-        <v>2000</v>
+        <v>4100</v>
       </c>
       <c r="L36" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M36" s="41">
         <f>IF(is_cat,
@@ -26518,23 +28222,23 @@
       </c>
       <c r="Y36" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Savings Account</v>
+        <v>Mutual Funds</v>
       </c>
       <c r="Z36" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>12000</v>
+        <v>60789</v>
       </c>
       <c r="AA36" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>15000</v>
+        <v>435900</v>
       </c>
       <c r="AB36" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.8</v>
+        <v>0.13945629731589815</v>
       </c>
       <c r="AC36" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>3000</v>
+        <v>375111</v>
       </c>
       <c r="AD36" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -26598,7 +28302,7 @@
         <v>Insurance</v>
       </c>
       <c r="K37" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -26610,13 +28314,13 @@
    )
 )
 )</f>
-        <v>1500</v>
+        <v>3900</v>
       </c>
       <c r="L37" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>7900</v>
+        <v>39700</v>
       </c>
       <c r="M37" s="41">
         <f>IF(is_cat,
@@ -26646,11 +28350,11 @@
       </c>
       <c r="R37" s="42">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S37" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T37" s="2" t="str">
         <f t="shared" si="8"/>
@@ -26674,23 +28378,23 @@
       </c>
       <c r="Y37" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Stocks Investment</v>
+        <v>Savings Account</v>
       </c>
       <c r="Z37" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>7000</v>
+        <v>27000</v>
       </c>
       <c r="AA37" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>10000</v>
+        <v>203000</v>
       </c>
       <c r="AB37" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.7</v>
+        <v>0.13300492610837439</v>
       </c>
       <c r="AC37" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>3000</v>
+        <v>176000</v>
       </c>
       <c r="AD37" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -26754,7 +28458,7 @@
         <v>Mutual Funds</v>
       </c>
       <c r="K38" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -26766,13 +28470,13 @@
    )
 )
 )</f>
-        <v>5789</v>
+        <v>60789</v>
       </c>
       <c r="L38" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>30000</v>
+        <v>435900</v>
       </c>
       <c r="M38" s="41">
         <f>IF(is_cat,
@@ -26794,7 +28498,7 @@
       </c>
       <c r="P38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="2" t="str">
         <f t="shared" si="5"/>
@@ -26806,7 +28510,7 @@
       </c>
       <c r="S38" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="T38" s="2" t="str">
         <f t="shared" si="8"/>
@@ -26814,7 +28518,7 @@
       </c>
       <c r="U38" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V38" s="2" t="str">
         <f t="shared" si="10"/>
@@ -26822,31 +28526,31 @@
       </c>
       <c r="W38" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X38" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y38" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Mutual Funds</v>
+        <v>Stocks Investment</v>
       </c>
       <c r="Z38" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>5789</v>
+        <v>17000</v>
       </c>
       <c r="AA38" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>30000</v>
+        <v>120000</v>
       </c>
       <c r="AB38" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.19296666666666668</v>
+        <v>0.14166666666666666</v>
       </c>
       <c r="AC38" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>24211</v>
+        <v>103000</v>
       </c>
       <c r="AD38" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -26898,7 +28602,7 @@
         <v>NPS</v>
       </c>
       <c r="K39" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -26910,13 +28614,13 @@
    )
 )
 )</f>
-        <v>4000</v>
+        <v>8600</v>
       </c>
       <c r="L39" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>5000</v>
+        <v>65000</v>
       </c>
       <c r="M39" s="41">
         <f>IF(is_cat,
@@ -26946,11 +28650,11 @@
       </c>
       <c r="R39" s="42">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S39" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T39" s="2" t="str">
         <f t="shared" si="8"/>
@@ -26978,19 +28682,19 @@
       </c>
       <c r="Z39" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>4000</v>
+        <v>8600</v>
       </c>
       <c r="AA39" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>5000</v>
+        <v>65000</v>
       </c>
       <c r="AB39" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.8</v>
+        <v>0.13230769230769232</v>
       </c>
       <c r="AC39" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>1000</v>
+        <v>56400</v>
       </c>
       <c r="AD39" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -27042,7 +28746,7 @@
         <v>PPF</v>
       </c>
       <c r="K40" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -27054,13 +28758,13 @@
    )
 )
 )</f>
-        <v>3456</v>
+        <v>4796</v>
       </c>
       <c r="L40" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="M40" s="41">
         <f>IF(is_cat,
@@ -27082,7 +28786,7 @@
       </c>
       <c r="P40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q40" s="2" t="str">
         <f t="shared" si="5"/>
@@ -27094,7 +28798,7 @@
       </c>
       <c r="S40" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="T40" s="2" t="str">
         <f t="shared" si="8"/>
@@ -27102,7 +28806,7 @@
       </c>
       <c r="U40" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V40" s="2" t="str">
         <f t="shared" si="10"/>
@@ -27110,35 +28814,35 @@
       </c>
       <c r="W40" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X40" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y40" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>PPF</v>
+        <v>Recurring Deposit</v>
       </c>
       <c r="Z40" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>3456</v>
+        <v>5500</v>
       </c>
       <c r="AA40" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="AB40" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>1.1519999999999999</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="AC40" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="AD40" s="71">
         <f t="shared" ca="1" si="18"/>
-        <v>456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:44" x14ac:dyDescent="0.25">
@@ -27186,7 +28890,7 @@
         <v>Recurring Deposit</v>
       </c>
       <c r="K41" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -27198,13 +28902,13 @@
    )
 )
 )</f>
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L41" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="M41" s="41">
         <f>IF(is_cat,
@@ -27226,7 +28930,7 @@
       </c>
       <c r="P41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q41" s="2" t="str">
         <f t="shared" si="5"/>
@@ -27238,7 +28942,7 @@
       </c>
       <c r="S41" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="T41" s="2" t="str">
         <f t="shared" si="8"/>
@@ -27246,7 +28950,7 @@
       </c>
       <c r="U41" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V41" s="2" t="str">
         <f t="shared" si="10"/>
@@ -27254,31 +28958,31 @@
       </c>
       <c r="W41" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X41" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y41" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Recurring Deposit</v>
+        <v>PPF</v>
       </c>
       <c r="Z41" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>2500</v>
+        <v>4796</v>
       </c>
       <c r="AA41" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="AB41" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.83333333333333337</v>
+        <v>0.53288888888888886</v>
       </c>
       <c r="AC41" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>500</v>
+        <v>4204</v>
       </c>
       <c r="AD41" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -27330,7 +29034,7 @@
         <v>Savings Account</v>
       </c>
       <c r="K42" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -27342,13 +29046,13 @@
    )
 )
 )</f>
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="L42" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>15000</v>
+        <v>203000</v>
       </c>
       <c r="M42" s="41">
         <f>IF(is_cat,
@@ -27370,7 +29074,7 @@
       </c>
       <c r="P42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q42" s="2" t="str">
         <f t="shared" si="5"/>
@@ -27382,7 +29086,7 @@
       </c>
       <c r="S42" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="T42" s="2" t="str">
         <f t="shared" si="8"/>
@@ -27390,7 +29094,7 @@
       </c>
       <c r="U42" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V42" s="2" t="str">
         <f t="shared" si="10"/>
@@ -27398,11 +29102,11 @@
       </c>
       <c r="W42" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X42" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y42" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -27410,19 +29114,19 @@
       </c>
       <c r="Z42" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>2000</v>
+        <v>4100</v>
       </c>
       <c r="AA42" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="AB42" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.5</v>
+        <v>0.34166666666666667</v>
       </c>
       <c r="AC42" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>2000</v>
+        <v>7900</v>
       </c>
       <c r="AD42" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -27474,7 +29178,7 @@
         <v>Stocks Investment</v>
       </c>
       <c r="K43" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -27486,13 +29190,13 @@
    )
 )
 )</f>
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L43" s="68">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="M43" s="41">
         <f>IF(is_cat,
@@ -27514,7 +29218,7 @@
       </c>
       <c r="P43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="2" t="str">
         <f t="shared" si="5"/>
@@ -27526,7 +29230,7 @@
       </c>
       <c r="S43" s="41">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="T43" s="2" t="str">
         <f t="shared" si="8"/>
@@ -27534,7 +29238,7 @@
       </c>
       <c r="U43" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V43" s="2" t="str">
         <f t="shared" si="10"/>
@@ -27542,11 +29246,11 @@
       </c>
       <c r="W43" s="42">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X43" s="42">
         <f t="shared" ca="1" si="12"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y43" s="69" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -27554,19 +29258,19 @@
       </c>
       <c r="Z43" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>1500</v>
+        <v>3900</v>
       </c>
       <c r="AA43" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>7900</v>
+        <v>39700</v>
       </c>
       <c r="AB43" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.189873417721519</v>
+        <v>9.8236775818639793E-2</v>
       </c>
       <c r="AC43" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>6400</v>
+        <v>35800</v>
       </c>
       <c r="AD43" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -27618,7 +29322,7 @@
         <v>Total</v>
       </c>
       <c r="K44" s="67">
-        <f>IF(OR(is_header,is_empty),"",
+        <f ca="1">IF(OR(is_header,is_empty),"",
       IF(is_total,
            IF(selected_period="Total Year",
               SUMPRODUCT(tracking[Amount], (tracking[Type]=type) * (YEAR(tracking[Effective Date])=selected_year)),
@@ -27630,13 +29334,13 @@
    )
 )
 )</f>
-        <v>38245</v>
+        <v>131685</v>
       </c>
       <c r="L44" s="68">
         <f ca="1">IF(OR(is_header,is_empty),"",
 INDEX('Budget Planning'!$E:$EM,row_id,
                MATCH(IF(selected_period="Total Year", selected_year, DATE(selected_year, selected_period,1)),'Budget Planning'!$E$9:$EM$9,0)))</f>
-        <v>77900</v>
+        <v>893600</v>
       </c>
       <c r="M44" s="41" t="str">
         <f>IF(is_cat,
@@ -27698,19 +29402,19 @@
       </c>
       <c r="Z44" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>38245</v>
+        <v>131685</v>
       </c>
       <c r="AA44" s="71">
         <f t="shared" ca="1" si="15"/>
-        <v>77900</v>
+        <v>893600</v>
       </c>
       <c r="AB44" s="70">
         <f t="shared" ca="1" si="16"/>
-        <v>0.49094993581514762</v>
+        <v>0.14736459265890778</v>
       </c>
       <c r="AC44" s="71">
         <f t="shared" ca="1" si="17"/>
-        <v>39655</v>
+        <v>761915</v>
       </c>
       <c r="AD44" s="71">
         <f t="shared" ca="1" si="18"/>
@@ -28869,8 +30573,8 @@
   </sheetPr>
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28878,7 +30582,7 @@
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
     <col min="3" max="3" width="1.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="34.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
@@ -28917,8 +30621,8 @@
         <v>53</v>
       </c>
       <c r="E8" s="47">
-        <f>current_date</f>
-        <v>45137</v>
+        <f ca="1">current_date</f>
+        <v>45139</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -28935,8 +30639,8 @@
         <v>55</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(E9=0,"", "(" &amp; _xlfn.DAYS(E8,E9) &amp; " days ago)")</f>
-        <v>(149 days ago)</v>
+        <f ca="1">IF(E9=0,"", "(" &amp; _xlfn.DAYS(E8,E9) &amp; " days ago)")</f>
+        <v>(151 days ago)</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -28953,7 +30657,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="str">
-        <f>"(" &amp; SUMPRODUCT(--(YEAR(tracking[Date])=YEAR(current_date))) &amp; " this year)"</f>
+        <f ca="1">"(" &amp; SUMPRODUCT(--(YEAR(tracking[Date])=YEAR(current_date))) &amp; " this year)"</f>
         <v>(53 this year)</v>
       </c>
     </row>
@@ -28988,7 +30692,7 @@
         <v>72</v>
       </c>
       <c r="E19">
-        <f>IF('Budget Dashboard'!$AQ$6="Current Year", YEAR(current_date),'Budget Dashboard'!$AQ$6)</f>
+        <f ca="1">IF('Budget Dashboard'!$AQ$6="Current Year", YEAR(current_date),'Budget Dashboard'!$AQ$6)</f>
         <v>2023</v>
       </c>
     </row>
@@ -28996,11 +30700,11 @@
       <c r="D20" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="58" t="str">
         <f>IF('Budget Dashboard'!$AQ$9="Total Year","Total Year",
 IF('Budget Dashboard'!$AQ$9="Current Month",MONTH(current_date),
 MONTH('Budget Dashboard'!$AQ$9)))</f>
-        <v>2</v>
+        <v>Total Year</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
@@ -29010,7 +30714,65 @@
       <c r="E21" s="59" t="str">
         <f>IF(selected_period="Total Year", "Total Year",
 TEXT(DATE(selected_year,selected_period,1),"mmmm"))</f>
-        <v>February</v>
+        <v>Total Year</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22">
+        <f ca="1">IF(selected_period="Total Year", DATE(selected_year,12,31) - DATE(selected_year-1,12,31), DAY(EOMONTH(DATE(selected_year, selected_period, 1), 0)))</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23">
+        <f ca="1">IF(selected_year=YEAR(current_date),
+       IF(selected_period="Total Year", current_date-DATE(selected_year-1, 12,31),
+        IF(selected_period=MONTH(current_date), DAY(current_date),
+             IF(selected_period&lt;MONTH(current_date),E22,0))),
+        IF(selected_year&lt;YEAR(current_date), E22, 0))</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="124">
+        <f ca="1">E23/E22</f>
+        <v>0.58356164383561648</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="125">
+        <f ca="1">F41-(J41+N41)</f>
+        <v>336150</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="str">
+        <f ca="1">IF(E25&gt;0, "of tracked income left to be allocated","allocated not covered by income")</f>
+        <v>of tracked income left to be allocated</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="126">
+        <f ca="1">IFERROR(IF(savings_rate_calculation_type="% allocated to Savings", N41/F41, (F41-J41)/F41),"-")</f>
+        <v>0.22255365894879162</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
@@ -29071,7 +30833,7 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(income_header_row + Calculations!D35,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>161000</v>
+        <v>516000</v>
       </c>
       <c r="H35" s="90">
         <v>1</v>
@@ -29086,14 +30848,14 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(expenses_header_row + Calculations!H35,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>70000</v>
+        <v>78000</v>
       </c>
       <c r="L35" s="90">
         <v>1</v>
       </c>
       <c r="M35" s="90" t="str">
         <f ca="1" xml:space="preserve"> IF(N35="","",INDEX('Budget Dashboard'!$J:$J, MATCH(savings_header_row + Calculations!L35,'Budget Dashboard'!$X:$X,0)))</f>
-        <v>Savings Account</v>
+        <v>Mutual Funds</v>
       </c>
       <c r="N35" s="93">
         <f ca="1">IF(L35&gt;COUNTA(savings[]), "",
@@ -29101,7 +30863,7 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(savings_header_row + Calculations!L35,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>12000</v>
+        <v>60789</v>
       </c>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
@@ -29118,14 +30880,14 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(income_header_row + Calculations!D36,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="H36" s="90">
         <v>2</v>
       </c>
       <c r="I36" s="90" t="str">
         <f ca="1" xml:space="preserve"> IF(J36="","",INDEX('Budget Dashboard'!$J:$J, MATCH(expenses_header_row + Calculations!H36,'Budget Dashboard'!$X:$X,0)))</f>
-        <v>Insurance</v>
+        <v>Food</v>
       </c>
       <c r="J36" s="93">
         <f ca="1">IF(H36&gt;COUNTA(expenses[]), "",
@@ -29133,14 +30895,14 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(expenses_header_row + Calculations!H36,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L36" s="90">
         <v>2</v>
       </c>
       <c r="M36" s="90" t="str">
         <f ca="1" xml:space="preserve"> IF(N36="","",INDEX('Budget Dashboard'!$J:$J, MATCH(savings_header_row + Calculations!L36,'Budget Dashboard'!$X:$X,0)))</f>
-        <v>Stocks Investment</v>
+        <v>Savings Account</v>
       </c>
       <c r="N36" s="93">
         <f ca="1">IF(L36&gt;COUNTA(savings[]), "",
@@ -29148,7 +30910,7 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(savings_header_row + Calculations!L36,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>7000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="37" spans="4:14" x14ac:dyDescent="0.25">
@@ -29165,14 +30927,14 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(income_header_row + Calculations!D37,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="H37" s="90">
         <v>3</v>
       </c>
       <c r="I37" s="90" t="str">
         <f ca="1" xml:space="preserve"> IF(J37="","",INDEX('Budget Dashboard'!$J:$J, MATCH(expenses_header_row + Calculations!H37,'Budget Dashboard'!$X:$X,0)))</f>
-        <v>Food</v>
+        <v>Insurance</v>
       </c>
       <c r="J37" s="93">
         <f ca="1">IF(H37&gt;COUNTA(expenses[]), "",
@@ -29180,14 +30942,14 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(expenses_header_row + Calculations!H37,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>4000</v>
+        <v>10600</v>
       </c>
       <c r="L37" s="90">
         <v>3</v>
       </c>
       <c r="M37" s="90" t="str">
         <f ca="1" xml:space="preserve"> IF(N37="","",INDEX('Budget Dashboard'!$J:$J, MATCH(savings_header_row + Calculations!L37,'Budget Dashboard'!$X:$X,0)))</f>
-        <v>Mutual Funds</v>
+        <v>Stocks Investment</v>
       </c>
       <c r="N37" s="93">
         <f ca="1">IF(L37&gt;COUNTA(savings[]), "",
@@ -29195,7 +30957,7 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(savings_header_row + Calculations!L37,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>5789</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="38" spans="4:14" x14ac:dyDescent="0.25">
@@ -29212,7 +30974,7 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(income_header_row + Calculations!D38,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="H38" s="90">
         <v>4</v>
@@ -29227,7 +30989,7 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(expenses_header_row + Calculations!H38,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>2500</v>
+        <v>6046</v>
       </c>
       <c r="L38" s="90">
         <v>4</v>
@@ -29242,7 +31004,7 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(savings_header_row + Calculations!L38,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>4000</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="39" spans="4:14" x14ac:dyDescent="0.25">
@@ -29266,7 +31028,7 @@
       </c>
       <c r="I39" s="90" t="str">
         <f ca="1" xml:space="preserve"> IF(J39="","",INDEX('Budget Dashboard'!$J:$J, MATCH(expenses_header_row + Calculations!H39,'Budget Dashboard'!$X:$X,0)))</f>
-        <v>Education</v>
+        <v>Gifts</v>
       </c>
       <c r="J39" s="93">
         <f ca="1">IF(H39&gt;COUNTA(expenses[]), "",
@@ -29274,14 +31036,14 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(expenses_header_row + Calculations!H39,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>989</v>
+        <v>3000</v>
       </c>
       <c r="L39" s="90">
         <v>5</v>
       </c>
       <c r="M39" s="90" t="str">
         <f ca="1" xml:space="preserve"> IF(N39="","",INDEX('Budget Dashboard'!$J:$J, MATCH(savings_header_row + Calculations!L39,'Budget Dashboard'!$X:$X,0)))</f>
-        <v>PPF</v>
+        <v>Recurring Deposit</v>
       </c>
       <c r="N39" s="93">
         <f ca="1">IF(L39&gt;COUNTA(savings[]), "",
@@ -29289,7 +31051,7 @@
               INDEX('Budget Dashboard'!$K:$K, MATCH(savings_header_row + Calculations!L39,'Budget Dashboard'!$X:$X,0))
             )
 )</f>
-        <v>3456</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="40" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29313,7 +31075,7 @@
       </c>
       <c r="J40" s="94">
         <f ca="1">IF(J41-SUM(J35:J39)=0,"",J41-SUM(J35:J39))</f>
-        <v>3880</v>
+        <v>10219</v>
       </c>
       <c r="L40" s="91">
         <v>6</v>
@@ -29324,7 +31086,7 @@
       </c>
       <c r="N40" s="94">
         <f ca="1">IF(N41-SUM(N35:N39)=0,"",N41-SUM(N35:N39))</f>
-        <v>6000</v>
+        <v>12796</v>
       </c>
     </row>
     <row r="41" spans="4:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -29334,7 +31096,7 @@
       </c>
       <c r="F41" s="95">
         <f ca="1">INDEX('Budget Dashboard'!$K:$K, MATCH(income_total_row,'Budget Dashboard'!$X:$X,0))</f>
-        <v>214700</v>
+        <v>591700</v>
       </c>
       <c r="H41" s="90"/>
       <c r="I41" s="92" t="s">
@@ -29342,7 +31104,7 @@
       </c>
       <c r="J41" s="95">
         <f ca="1">INDEX('Budget Dashboard'!$K:$K, MATCH(expenses_total_row,'Budget Dashboard'!$X:$X,0))</f>
-        <v>86369</v>
+        <v>123865</v>
       </c>
       <c r="L41" s="90"/>
       <c r="M41" s="92" t="s">
@@ -29350,7 +31112,7 @@
       </c>
       <c r="N41" s="95">
         <f ca="1">INDEX('Budget Dashboard'!$K:$K, MATCH(savings_total_row,'Budget Dashboard'!$X:$X,0))</f>
-        <v>38245</v>
+        <v>131685</v>
       </c>
     </row>
     <row r="47" spans="4:14" x14ac:dyDescent="0.25">
@@ -29462,19 +31224,19 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D55" s="116">
-        <f>DATE(selected_year,1,1)</f>
+        <f ca="1">DATE(selected_year,1,1)</f>
         <v>44927</v>
       </c>
       <c r="E55" s="103" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="103">
-        <f>MONTH(D55)</f>
+        <f ca="1">MONTH(D55)</f>
         <v>1</v>
       </c>
       <c r="G55" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="103">
         <f>1*$E$49</f>
@@ -29485,7 +31247,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>177000</v>
       </c>
       <c r="K55" s="105">
@@ -29498,7 +31260,7 @@
       </c>
       <c r="M55" s="105">
         <f ca="1">cc_in_focus * cc_show_type * MIN(cc_tracked, cc_budget)</f>
-        <v>0</v>
+        <v>177000</v>
       </c>
       <c r="N55" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
@@ -29510,7 +31272,7 @@
       </c>
       <c r="P55" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * MIN(cc_tracked, cc_budget)</f>
-        <v>177000</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
@@ -29527,12 +31289,12 @@
         <v>26</v>
       </c>
       <c r="F56" s="103">
-        <f>MONTH(D55)</f>
+        <f ca="1">MONTH(D55)</f>
         <v>1</v>
       </c>
       <c r="G56" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="103">
         <f>1*$E$50</f>
@@ -29543,7 +31305,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>33496</v>
       </c>
       <c r="K56" s="105">
@@ -29556,11 +31318,11 @@
       </c>
       <c r="M56" s="105">
         <f ca="1">cc_in_focus * cc_show_type * MIN(cc_tracked, cc_budget)</f>
-        <v>0</v>
+        <v>33496</v>
       </c>
       <c r="N56" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>65604</v>
       </c>
       <c r="O56" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -29568,11 +31330,11 @@
       </c>
       <c r="P56" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * MIN(cc_tracked, cc_budget)</f>
-        <v>33496</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>65604</v>
+        <v>0</v>
       </c>
       <c r="R56" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -29585,12 +31347,12 @@
         <v>30</v>
       </c>
       <c r="F57" s="103">
-        <f>MONTH(D55)</f>
+        <f ca="1">MONTH(D55)</f>
         <v>1</v>
       </c>
       <c r="G57" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="103">
         <f>1*$E$51</f>
@@ -29601,7 +31363,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>74440</v>
       </c>
       <c r="K57" s="105">
@@ -29614,11 +31376,11 @@
       </c>
       <c r="M57" s="105">
         <f ca="1">cc_in_focus * cc_show_type * MIN(cc_tracked, cc_budget)</f>
-        <v>0</v>
+        <v>74440</v>
       </c>
       <c r="N57" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>3460</v>
       </c>
       <c r="O57" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -29626,11 +31388,11 @@
       </c>
       <c r="P57" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * MIN(cc_tracked, cc_budget)</f>
-        <v>74440</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>3460</v>
+        <v>0</v>
       </c>
       <c r="R57" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -29656,14 +31418,14 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D59" s="115">
-        <f>DATE(selected_year,2,1)</f>
+        <f ca="1">DATE(selected_year,2,1)</f>
         <v>44958</v>
       </c>
       <c r="E59" s="102" t="s">
         <v>18</v>
       </c>
       <c r="F59" s="103">
-        <f t="shared" ref="F59:F102" si="1">MONTH(D59)</f>
+        <f t="shared" ref="F59:F102" ca="1" si="1">MONTH(D59)</f>
         <v>2</v>
       </c>
       <c r="G59" s="103">
@@ -29679,7 +31441,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>214700</v>
       </c>
       <c r="K59" s="105">
@@ -29721,7 +31483,7 @@
         <v>26</v>
       </c>
       <c r="F60" s="103">
-        <f t="shared" ref="F60:F102" si="4">MONTH(D59)</f>
+        <f t="shared" ref="F60:F102" ca="1" si="4">MONTH(D59)</f>
         <v>2</v>
       </c>
       <c r="G60" s="103">
@@ -29737,7 +31499,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>86369</v>
       </c>
       <c r="K60" s="105">
@@ -29779,7 +31541,7 @@
         <v>30</v>
       </c>
       <c r="F61" s="103">
-        <f>MONTH(D59)</f>
+        <f ca="1">MONTH(D59)</f>
         <v>2</v>
       </c>
       <c r="G61" s="103">
@@ -29795,7 +31557,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>38245</v>
       </c>
       <c r="K61" s="105">
@@ -29850,19 +31612,19 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D63" s="115">
-        <f>DATE(selected_year,3,1)</f>
+        <f ca="1">DATE(selected_year,3,1)</f>
         <v>44986</v>
       </c>
       <c r="E63" s="102" t="s">
         <v>18</v>
       </c>
       <c r="F63" s="103">
-        <f t="shared" ref="F63:F102" si="7">MONTH(D63)</f>
+        <f t="shared" ref="F63:F102" ca="1" si="7">MONTH(D63)</f>
         <v>3</v>
       </c>
       <c r="G63" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="103">
         <f t="shared" ref="H63" si="8">1*$E$49</f>
@@ -29873,7 +31635,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>200000</v>
       </c>
       <c r="K63" s="105">
@@ -29886,7 +31648,7 @@
       </c>
       <c r="M63" s="105">
         <f ca="1">cc_in_focus * cc_show_type * MIN(cc_tracked, cc_budget)</f>
-        <v>0</v>
+        <v>177000</v>
       </c>
       <c r="N63" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
@@ -29894,11 +31656,11 @@
       </c>
       <c r="O63" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="P63" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * MIN(cc_tracked, cc_budget)</f>
-        <v>177000</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
@@ -29906,7 +31668,7 @@
       </c>
       <c r="R63" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
-        <v>23000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -29915,12 +31677,12 @@
         <v>26</v>
       </c>
       <c r="F64" s="103">
-        <f t="shared" ref="F64:F102" si="10">MONTH(D63)</f>
+        <f t="shared" ref="F64:F102" ca="1" si="10">MONTH(D63)</f>
         <v>3</v>
       </c>
       <c r="G64" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="103">
         <f t="shared" ref="H64" si="11">1*$E$50</f>
@@ -29931,7 +31693,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>4000</v>
       </c>
       <c r="K64" s="105">
@@ -29944,11 +31706,11 @@
       </c>
       <c r="M64" s="105">
         <f ca="1">cc_in_focus * cc_show_type * MIN(cc_tracked, cc_budget)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="N64" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>95100</v>
       </c>
       <c r="O64" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -29956,11 +31718,11 @@
       </c>
       <c r="P64" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * MIN(cc_tracked, cc_budget)</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>95100</v>
+        <v>0</v>
       </c>
       <c r="R64" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -29973,12 +31735,12 @@
         <v>30</v>
       </c>
       <c r="F65" s="103">
-        <f t="shared" ref="F65" si="12">MONTH(D63)</f>
+        <f t="shared" ref="F65" ca="1" si="12">MONTH(D63)</f>
         <v>3</v>
       </c>
       <c r="G65" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="103">
         <f t="shared" ref="H65" si="13">1*$E$51</f>
@@ -29989,7 +31751,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>19000</v>
       </c>
       <c r="K65" s="105">
@@ -30002,11 +31764,11 @@
       </c>
       <c r="M65" s="105">
         <f ca="1">cc_in_focus * cc_show_type * MIN(cc_tracked, cc_budget)</f>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="N65" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>58900</v>
       </c>
       <c r="O65" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30014,11 +31776,11 @@
       </c>
       <c r="P65" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * MIN(cc_tracked, cc_budget)</f>
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>58900</v>
+        <v>0</v>
       </c>
       <c r="R65" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30044,19 +31806,19 @@
     </row>
     <row r="67" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D67" s="115">
-        <f>DATE(selected_year,4,1)</f>
+        <f ca="1">DATE(selected_year,4,1)</f>
         <v>45017</v>
       </c>
       <c r="E67" s="102" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="103">
-        <f t="shared" ref="F67:F102" si="14">MONTH(D67)</f>
+        <f t="shared" ref="F67:F102" ca="1" si="14">MONTH(D67)</f>
         <v>4</v>
       </c>
       <c r="G67" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="103">
         <f t="shared" ref="H67" si="15">1*$E$49</f>
@@ -30067,7 +31829,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K67" s="105">
@@ -30084,7 +31846,7 @@
       </c>
       <c r="N67" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>310000</v>
       </c>
       <c r="O67" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30096,7 +31858,7 @@
       </c>
       <c r="Q67" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>310000</v>
+        <v>0</v>
       </c>
       <c r="R67" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30109,12 +31871,12 @@
         <v>26</v>
       </c>
       <c r="F68" s="103">
-        <f t="shared" ref="F68:F102" si="17">MONTH(D67)</f>
+        <f t="shared" ref="F68:F102" ca="1" si="17">MONTH(D67)</f>
         <v>4</v>
       </c>
       <c r="G68" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="103">
         <f t="shared" ref="H68" si="18">1*$E$50</f>
@@ -30125,7 +31887,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K68" s="105">
@@ -30142,7 +31904,7 @@
       </c>
       <c r="N68" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>208800</v>
       </c>
       <c r="O68" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30154,7 +31916,7 @@
       </c>
       <c r="Q68" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>208800</v>
+        <v>0</v>
       </c>
       <c r="R68" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30167,12 +31929,12 @@
         <v>30</v>
       </c>
       <c r="F69" s="103">
-        <f t="shared" ref="F69" si="19">MONTH(D67)</f>
+        <f t="shared" ref="F69" ca="1" si="19">MONTH(D67)</f>
         <v>4</v>
       </c>
       <c r="G69" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="103">
         <f t="shared" ref="H69" si="20">1*$E$51</f>
@@ -30183,7 +31945,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K69" s="105">
@@ -30200,7 +31962,7 @@
       </c>
       <c r="N69" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>101200</v>
       </c>
       <c r="O69" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30212,7 +31974,7 @@
       </c>
       <c r="Q69" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>101200</v>
+        <v>0</v>
       </c>
       <c r="R69" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30238,19 +32000,19 @@
     </row>
     <row r="71" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D71" s="115">
-        <f>DATE(selected_year,5,1)</f>
+        <f ca="1">DATE(selected_year,5,1)</f>
         <v>45047</v>
       </c>
       <c r="E71" s="102" t="s">
         <v>18</v>
       </c>
       <c r="F71" s="103">
-        <f t="shared" ref="F71:F102" si="21">MONTH(D71)</f>
+        <f t="shared" ref="F71:F102" ca="1" si="21">MONTH(D71)</f>
         <v>5</v>
       </c>
       <c r="G71" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="103">
         <f t="shared" ref="H71" si="22">1*$E$49</f>
@@ -30261,7 +32023,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K71" s="105">
@@ -30278,7 +32040,7 @@
       </c>
       <c r="N71" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>163000</v>
       </c>
       <c r="O71" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30290,7 +32052,7 @@
       </c>
       <c r="Q71" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>163000</v>
+        <v>0</v>
       </c>
       <c r="R71" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30303,12 +32065,12 @@
         <v>26</v>
       </c>
       <c r="F72" s="103">
-        <f t="shared" ref="F72:F102" si="24">MONTH(D71)</f>
+        <f t="shared" ref="F72:F102" ca="1" si="24">MONTH(D71)</f>
         <v>5</v>
       </c>
       <c r="G72" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="103">
         <f t="shared" ref="H72" si="25">1*$E$50</f>
@@ -30319,7 +32081,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K72" s="105">
@@ -30336,7 +32098,7 @@
       </c>
       <c r="N72" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>78800</v>
       </c>
       <c r="O72" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30348,7 +32110,7 @@
       </c>
       <c r="Q72" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>78800</v>
+        <v>0</v>
       </c>
       <c r="R72" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30361,12 +32123,12 @@
         <v>30</v>
       </c>
       <c r="F73" s="103">
-        <f t="shared" ref="F73" si="26">MONTH(D71)</f>
+        <f t="shared" ref="F73" ca="1" si="26">MONTH(D71)</f>
         <v>5</v>
       </c>
       <c r="G73" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="103">
         <f t="shared" ref="H73" si="27">1*$E$51</f>
@@ -30377,7 +32139,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K73" s="105">
@@ -30394,7 +32156,7 @@
       </c>
       <c r="N73" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>84200</v>
       </c>
       <c r="O73" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30406,7 +32168,7 @@
       </c>
       <c r="Q73" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>84200</v>
+        <v>0</v>
       </c>
       <c r="R73" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30432,19 +32194,19 @@
     </row>
     <row r="75" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D75" s="115">
-        <f>DATE(selected_year,6,1)</f>
+        <f ca="1">DATE(selected_year,6,1)</f>
         <v>45078</v>
       </c>
       <c r="E75" s="102" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="103">
-        <f t="shared" ref="F75:F102" si="28">MONTH(D75)</f>
+        <f t="shared" ref="F75:F102" ca="1" si="28">MONTH(D75)</f>
         <v>6</v>
       </c>
       <c r="G75" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="103">
         <f t="shared" ref="H75" si="29">1*$E$49</f>
@@ -30455,7 +32217,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K75" s="105">
@@ -30472,7 +32234,7 @@
       </c>
       <c r="N75" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="O75" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30484,7 +32246,7 @@
       </c>
       <c r="Q75" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>155000</v>
+        <v>0</v>
       </c>
       <c r="R75" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30497,12 +32259,12 @@
         <v>26</v>
       </c>
       <c r="F76" s="103">
-        <f t="shared" ref="F76:F102" si="31">MONTH(D75)</f>
+        <f t="shared" ref="F76:F102" ca="1" si="31">MONTH(D75)</f>
         <v>6</v>
       </c>
       <c r="G76" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="103">
         <f t="shared" ref="H76" si="32">1*$E$50</f>
@@ -30513,7 +32275,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K76" s="105">
@@ -30530,7 +32292,7 @@
       </c>
       <c r="N76" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="O76" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30542,7 +32304,7 @@
       </c>
       <c r="Q76" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>106200</v>
+        <v>0</v>
       </c>
       <c r="R76" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30555,12 +32317,12 @@
         <v>30</v>
       </c>
       <c r="F77" s="103">
-        <f t="shared" ref="F77" si="33">MONTH(D75)</f>
+        <f t="shared" ref="F77" ca="1" si="33">MONTH(D75)</f>
         <v>6</v>
       </c>
       <c r="G77" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="103">
         <f t="shared" ref="H77" si="34">1*$E$51</f>
@@ -30571,7 +32333,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K77" s="105">
@@ -30588,7 +32350,7 @@
       </c>
       <c r="N77" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>48800</v>
       </c>
       <c r="O77" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30600,7 +32362,7 @@
       </c>
       <c r="Q77" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>48800</v>
+        <v>0</v>
       </c>
       <c r="R77" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30626,19 +32388,19 @@
     </row>
     <row r="79" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D79" s="115">
-        <f>DATE(selected_year,7,1)</f>
+        <f ca="1">DATE(selected_year,7,1)</f>
         <v>45108</v>
       </c>
       <c r="E79" s="102" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="103">
-        <f t="shared" ref="F79:F102" si="35">MONTH(D79)</f>
+        <f t="shared" ref="F79:F102" ca="1" si="35">MONTH(D79)</f>
         <v>7</v>
       </c>
       <c r="G79" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="103">
         <f t="shared" ref="H79" si="36">1*$E$49</f>
@@ -30649,7 +32411,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K79" s="105">
@@ -30666,7 +32428,7 @@
       </c>
       <c r="N79" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="O79" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30678,7 +32440,7 @@
       </c>
       <c r="Q79" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>155000</v>
+        <v>0</v>
       </c>
       <c r="R79" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30691,12 +32453,12 @@
         <v>26</v>
       </c>
       <c r="F80" s="103">
-        <f t="shared" ref="F80:F102" si="38">MONTH(D79)</f>
+        <f t="shared" ref="F80:F102" ca="1" si="38">MONTH(D79)</f>
         <v>7</v>
       </c>
       <c r="G80" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="103">
         <f t="shared" ref="H80" si="39">1*$E$50</f>
@@ -30707,7 +32469,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K80" s="105">
@@ -30724,7 +32486,7 @@
       </c>
       <c r="N80" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>78800</v>
       </c>
       <c r="O80" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30736,7 +32498,7 @@
       </c>
       <c r="Q80" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>78800</v>
+        <v>0</v>
       </c>
       <c r="R80" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30749,12 +32511,12 @@
         <v>30</v>
       </c>
       <c r="F81" s="103">
-        <f t="shared" ref="F81" si="40">MONTH(D79)</f>
+        <f t="shared" ref="F81" ca="1" si="40">MONTH(D79)</f>
         <v>7</v>
       </c>
       <c r="G81" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="103">
         <f t="shared" ref="H81" si="41">1*$E$51</f>
@@ -30765,7 +32527,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K81" s="105">
@@ -30782,7 +32544,7 @@
       </c>
       <c r="N81" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>76200</v>
       </c>
       <c r="O81" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30794,7 +32556,7 @@
       </c>
       <c r="Q81" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>76200</v>
+        <v>0</v>
       </c>
       <c r="R81" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30820,19 +32582,19 @@
     </row>
     <row r="83" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D83" s="115">
-        <f>DATE(selected_year,8,1)</f>
+        <f ca="1">DATE(selected_year,8,1)</f>
         <v>45139</v>
       </c>
       <c r="E83" s="102" t="s">
         <v>18</v>
       </c>
       <c r="F83" s="103">
-        <f t="shared" ref="F83:F102" si="42">MONTH(D83)</f>
+        <f t="shared" ref="F83:F102" ca="1" si="42">MONTH(D83)</f>
         <v>8</v>
       </c>
       <c r="G83" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="103">
         <f t="shared" ref="H83" si="43">1*$E$49</f>
@@ -30843,7 +32605,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K83" s="105">
@@ -30860,7 +32622,7 @@
       </c>
       <c r="N83" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>155500</v>
       </c>
       <c r="O83" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30872,7 +32634,7 @@
       </c>
       <c r="Q83" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>155500</v>
+        <v>0</v>
       </c>
       <c r="R83" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30885,12 +32647,12 @@
         <v>26</v>
       </c>
       <c r="F84" s="103">
-        <f t="shared" ref="F84:F102" si="45">MONTH(D83)</f>
+        <f t="shared" ref="F84:F102" ca="1" si="45">MONTH(D83)</f>
         <v>8</v>
       </c>
       <c r="G84" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="103">
         <f t="shared" ref="H84" si="46">1*$E$50</f>
@@ -30901,7 +32663,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K84" s="105">
@@ -30918,7 +32680,7 @@
       </c>
       <c r="N84" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>81600</v>
       </c>
       <c r="O84" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30930,7 +32692,7 @@
       </c>
       <c r="Q84" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>81600</v>
+        <v>0</v>
       </c>
       <c r="R84" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30943,12 +32705,12 @@
         <v>30</v>
       </c>
       <c r="F85" s="103">
-        <f t="shared" ref="F85" si="47">MONTH(D83)</f>
+        <f t="shared" ref="F85" ca="1" si="47">MONTH(D83)</f>
         <v>8</v>
       </c>
       <c r="G85" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="103">
         <f t="shared" ref="H85" si="48">1*$E$51</f>
@@ -30959,7 +32721,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K85" s="105">
@@ -30976,7 +32738,7 @@
       </c>
       <c r="N85" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>73900</v>
       </c>
       <c r="O85" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -30988,7 +32750,7 @@
       </c>
       <c r="Q85" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>73900</v>
+        <v>0</v>
       </c>
       <c r="R85" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31014,19 +32776,19 @@
     </row>
     <row r="87" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D87" s="115">
-        <f>DATE(selected_year,9,1)</f>
+        <f ca="1">DATE(selected_year,9,1)</f>
         <v>45170</v>
       </c>
       <c r="E87" s="102" t="s">
         <v>18</v>
       </c>
       <c r="F87" s="103">
-        <f t="shared" ref="F87:F102" si="49">MONTH(D87)</f>
+        <f t="shared" ref="F87:F102" ca="1" si="49">MONTH(D87)</f>
         <v>9</v>
       </c>
       <c r="G87" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" s="103">
         <f t="shared" ref="H87" si="50">1*$E$49</f>
@@ -31037,7 +32799,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K87" s="105">
@@ -31054,7 +32816,7 @@
       </c>
       <c r="N87" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="O87" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31066,7 +32828,7 @@
       </c>
       <c r="Q87" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>155000</v>
+        <v>0</v>
       </c>
       <c r="R87" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31079,12 +32841,12 @@
         <v>26</v>
       </c>
       <c r="F88" s="103">
-        <f t="shared" ref="F88:F102" si="52">MONTH(D87)</f>
+        <f t="shared" ref="F88:F102" ca="1" si="52">MONTH(D87)</f>
         <v>9</v>
       </c>
       <c r="G88" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" s="103">
         <f t="shared" ref="H88" si="53">1*$E$50</f>
@@ -31095,7 +32857,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K88" s="105">
@@ -31112,7 +32874,7 @@
       </c>
       <c r="N88" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>78800</v>
       </c>
       <c r="O88" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31124,7 +32886,7 @@
       </c>
       <c r="Q88" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>78800</v>
+        <v>0</v>
       </c>
       <c r="R88" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31137,12 +32899,12 @@
         <v>30</v>
       </c>
       <c r="F89" s="103">
-        <f t="shared" ref="F89" si="54">MONTH(D87)</f>
+        <f t="shared" ref="F89" ca="1" si="54">MONTH(D87)</f>
         <v>9</v>
       </c>
       <c r="G89" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" s="103">
         <f t="shared" ref="H89" si="55">1*$E$51</f>
@@ -31153,7 +32915,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K89" s="105">
@@ -31170,7 +32932,7 @@
       </c>
       <c r="N89" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>76200</v>
       </c>
       <c r="O89" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31182,7 +32944,7 @@
       </c>
       <c r="Q89" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>76200</v>
+        <v>0</v>
       </c>
       <c r="R89" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31208,19 +32970,19 @@
     </row>
     <row r="91" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D91" s="115">
-        <f>DATE(selected_year,10,1)</f>
+        <f ca="1">DATE(selected_year,10,1)</f>
         <v>45200</v>
       </c>
       <c r="E91" s="102" t="s">
         <v>18</v>
       </c>
       <c r="F91" s="103">
-        <f t="shared" ref="F91:F102" si="56">MONTH(D91)</f>
+        <f t="shared" ref="F91:F102" ca="1" si="56">MONTH(D91)</f>
         <v>10</v>
       </c>
       <c r="G91" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" s="103">
         <f t="shared" ref="H91" si="57">1*$E$49</f>
@@ -31231,7 +32993,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K91" s="105">
@@ -31248,7 +33010,7 @@
       </c>
       <c r="N91" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>155500</v>
       </c>
       <c r="O91" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31260,7 +33022,7 @@
       </c>
       <c r="Q91" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>155500</v>
+        <v>0</v>
       </c>
       <c r="R91" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31273,12 +33035,12 @@
         <v>26</v>
       </c>
       <c r="F92" s="103">
-        <f t="shared" ref="F92:F102" si="59">MONTH(D91)</f>
+        <f t="shared" ref="F92:F102" ca="1" si="59">MONTH(D91)</f>
         <v>10</v>
       </c>
       <c r="G92" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="103">
         <f t="shared" ref="H92" si="60">1*$E$50</f>
@@ -31289,7 +33051,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K92" s="105">
@@ -31306,7 +33068,7 @@
       </c>
       <c r="N92" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>99400</v>
       </c>
       <c r="O92" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31318,7 +33080,7 @@
       </c>
       <c r="Q92" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>99400</v>
+        <v>0</v>
       </c>
       <c r="R92" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31331,12 +33093,12 @@
         <v>30</v>
       </c>
       <c r="F93" s="103">
-        <f t="shared" ref="F93" si="61">MONTH(D91)</f>
+        <f t="shared" ref="F93" ca="1" si="61">MONTH(D91)</f>
         <v>10</v>
       </c>
       <c r="G93" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" s="103">
         <f t="shared" ref="H93" si="62">1*$E$51</f>
@@ -31347,7 +33109,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K93" s="105">
@@ -31364,7 +33126,7 @@
       </c>
       <c r="N93" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>56100</v>
       </c>
       <c r="O93" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31376,7 +33138,7 @@
       </c>
       <c r="Q93" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>56100</v>
+        <v>0</v>
       </c>
       <c r="R93" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31402,19 +33164,19 @@
     </row>
     <row r="95" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D95" s="115">
-        <f>DATE(selected_year,11,1)</f>
+        <f ca="1">DATE(selected_year,11,1)</f>
         <v>45231</v>
       </c>
       <c r="E95" s="102" t="s">
         <v>18</v>
       </c>
       <c r="F95" s="103">
-        <f t="shared" ref="F95:F102" si="63">MONTH(D95)</f>
+        <f t="shared" ref="F95:F102" ca="1" si="63">MONTH(D95)</f>
         <v>11</v>
       </c>
       <c r="G95" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" s="103">
         <f t="shared" ref="H95" si="64">1*$E$49</f>
@@ -31425,7 +33187,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K95" s="105">
@@ -31442,7 +33204,7 @@
       </c>
       <c r="N95" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="O95" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31454,7 +33216,7 @@
       </c>
       <c r="Q95" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>155000</v>
+        <v>0</v>
       </c>
       <c r="R95" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31467,12 +33229,12 @@
         <v>26</v>
       </c>
       <c r="F96" s="103">
-        <f t="shared" ref="F96:F102" si="66">MONTH(D95)</f>
+        <f t="shared" ref="F96:F102" ca="1" si="66">MONTH(D95)</f>
         <v>11</v>
       </c>
       <c r="G96" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="103">
         <f t="shared" ref="H96" si="67">1*$E$50</f>
@@ -31483,7 +33245,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K96" s="105">
@@ -31500,7 +33262,7 @@
       </c>
       <c r="N96" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>79400</v>
       </c>
       <c r="O96" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31512,7 +33274,7 @@
       </c>
       <c r="Q96" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>79400</v>
+        <v>0</v>
       </c>
       <c r="R96" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31525,12 +33287,12 @@
         <v>30</v>
       </c>
       <c r="F97" s="103">
-        <f t="shared" ref="F97" si="68">MONTH(D95)</f>
+        <f t="shared" ref="F97" ca="1" si="68">MONTH(D95)</f>
         <v>11</v>
       </c>
       <c r="G97" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" s="103">
         <f t="shared" ref="H97" si="69">1*$E$51</f>
@@ -31541,7 +33303,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K97" s="105">
@@ -31558,7 +33320,7 @@
       </c>
       <c r="N97" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>75600</v>
       </c>
       <c r="O97" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31570,7 +33332,7 @@
       </c>
       <c r="Q97" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>75600</v>
+        <v>0</v>
       </c>
       <c r="R97" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31596,19 +33358,19 @@
     </row>
     <row r="99" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D99" s="115">
-        <f>DATE(selected_year,12,1)</f>
+        <f ca="1">DATE(selected_year,12,1)</f>
         <v>45261</v>
       </c>
       <c r="E99" s="102" t="s">
         <v>18</v>
       </c>
       <c r="F99" s="103">
-        <f t="shared" ref="F99:F102" si="70">MONTH(D99)</f>
+        <f t="shared" ref="F99:F102" ca="1" si="70">MONTH(D99)</f>
         <v>12</v>
       </c>
       <c r="G99" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" s="103">
         <f t="shared" ref="H99" si="71">1*$E$49</f>
@@ -31619,7 +33381,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K99" s="105">
@@ -31636,7 +33398,7 @@
       </c>
       <c r="N99" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>155400</v>
       </c>
       <c r="O99" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31648,7 +33410,7 @@
       </c>
       <c r="Q99" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>155400</v>
+        <v>0</v>
       </c>
       <c r="R99" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31661,12 +33423,12 @@
         <v>26</v>
       </c>
       <c r="F100" s="103">
-        <f t="shared" ref="F100:F102" si="73">MONTH(D99)</f>
+        <f t="shared" ref="F100:F102" ca="1" si="73">MONTH(D99)</f>
         <v>12</v>
       </c>
       <c r="G100" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" s="103">
         <f t="shared" ref="H100" si="74">1*$E$50</f>
@@ -31677,7 +33439,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K100" s="105">
@@ -31694,7 +33456,7 @@
       </c>
       <c r="N100" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>87700</v>
       </c>
       <c r="O100" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31706,7 +33468,7 @@
       </c>
       <c r="Q100" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>87700</v>
+        <v>0</v>
       </c>
       <c r="R100" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31719,12 +33481,12 @@
         <v>30</v>
       </c>
       <c r="F101" s="103">
-        <f t="shared" ref="F101" si="75">MONTH(D99)</f>
+        <f t="shared" ref="F101" ca="1" si="75">MONTH(D99)</f>
         <v>12</v>
       </c>
       <c r="G101" s="103">
         <f>IF(selected_period="Total Year", 1, IF(selected_period=cc_month_number, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" s="103">
         <f t="shared" ref="H101" si="76">1*$E$51</f>
@@ -31735,7 +33497,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="105">
-        <f xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
+        <f ca="1" xml:space="preserve"> SUMPRODUCT(tracking[Amount], (tracking[Type]=cc_type) * (YEAR(tracking[Effective Date])=selected_year) * (MONTH(tracking[Effective Date])=cc_month_number))</f>
         <v>0</v>
       </c>
       <c r="K101" s="105">
@@ -31752,7 +33514,7 @@
       </c>
       <c r="N101" s="105">
         <f ca="1">cc_in_focus * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="O101" s="105">
         <f ca="1">cc_in_focus * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
@@ -31764,7 +33526,7 @@
       </c>
       <c r="Q101" s="123">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * cc_show_remaining_budget * IF(cc_delta&gt;0, cc_delta, 0)</f>
-        <v>67700</v>
+        <v>0</v>
       </c>
       <c r="R101" s="105">
         <f ca="1">NOT(cc_in_focus) * cc_show_type * IF(cc_delta&lt;0, ABS(cc_delta), 0)</f>
